--- a/Datasets/Frommann/Data/FrommannGesamt_FS.xlsx
+++ b/Datasets/Frommann/Data/FrommannGesamt_FS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81aa60b0b6324d95/Dokumente/GitHub/Akademie_Projekt/Datasets/Frommann/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="922" documentId="8_{4CE685A6-EAF8-4E2C-9E09-A5EFBCBC286D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F3693C8-6D53-4546-926A-73C774DEDAA5}"/>
+  <xr:revisionPtr revIDLastSave="1624" documentId="8_{4CE685A6-EAF8-4E2C-9E09-A5EFBCBC286D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44757CCF-A1F7-424F-9A68-3BB54D4D9DB8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{5AA9B015-1403-455E-836B-7ED67693DA07}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2675" uniqueCount="437">
   <si>
     <t>ID</t>
   </si>
@@ -870,13 +870,490 @@
   </si>
   <si>
     <t>oords unter Stargard, etwa mitte von Meck-Strelitz, sprachliche erläuterungen S. 274 bis 274</t>
+  </si>
+  <si>
+    <t>Fro2</t>
+  </si>
+  <si>
+    <t>Lieder in Fränkisch-Hennebergischer mundart.</t>
+  </si>
+  <si>
+    <t>Im Gottscheer Dialekte.</t>
+  </si>
+  <si>
+    <t>Oberösterreichische Lieder</t>
+  </si>
+  <si>
+    <t>Nordwestfälische Mundart.</t>
+  </si>
+  <si>
+    <t>Der zerstreute Ehegatte.</t>
+  </si>
+  <si>
+    <t>von K. A. Kaltenbrunner.</t>
+  </si>
+  <si>
+    <t>„Sülvst is de Mann."</t>
+  </si>
+  <si>
+    <t>Äne wåre Geschichte.</t>
+  </si>
+  <si>
+    <t>Oberschwaben</t>
+  </si>
+  <si>
+    <t>Jüchsen</t>
+  </si>
+  <si>
+    <t>Gottschee</t>
+  </si>
+  <si>
+    <t>Nordwestfalen</t>
+  </si>
+  <si>
+    <t>Sechzig portugiesische Sonette in oberschwäbischer Uebersetzung nebst einigen catalonischen.</t>
+  </si>
+  <si>
+    <t>Bouldouan</t>
+  </si>
+  <si>
+    <t>Brief als Vorwort S. 56 bis 59</t>
+  </si>
+  <si>
+    <t>Von Jovialis.</t>
+  </si>
+  <si>
+    <t>Von den ältesten Dichtern.</t>
+  </si>
+  <si>
+    <t>Von Luis de Unmoens.</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>11.</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>14.</t>
+  </si>
+  <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>18.</t>
+  </si>
+  <si>
+    <t>19.</t>
+  </si>
+  <si>
+    <t>20.</t>
+  </si>
+  <si>
+    <t>21.</t>
+  </si>
+  <si>
+    <t>22.</t>
+  </si>
+  <si>
+    <t>23.</t>
+  </si>
+  <si>
+    <t>24.</t>
+  </si>
+  <si>
+    <t>48.1419968</t>
+  </si>
+  <si>
+    <t>9.78879430</t>
+  </si>
+  <si>
+    <t>Mundart des dorfes Jüchsen.</t>
+  </si>
+  <si>
+    <t>Mundart des dorfes Bibra.</t>
+  </si>
+  <si>
+    <t>Der zûdrënglich borsch.</t>
+  </si>
+  <si>
+    <t>Flieg ma vœgela!</t>
+  </si>
+  <si>
+    <t>Des hartharzig mêdla.</t>
+  </si>
+  <si>
+    <t>Lafst mich in rû.</t>
+  </si>
+  <si>
+    <t>Tânzliet.</t>
+  </si>
+  <si>
+    <t>Ma Lisela.</t>
+  </si>
+  <si>
+    <t>Des zornig mædle.</t>
+  </si>
+  <si>
+    <t>50.4991919</t>
+  </si>
+  <si>
+    <t>10.4691675</t>
+  </si>
+  <si>
+    <t>Sprachliche anmerkungen S.74 bis 79</t>
+  </si>
+  <si>
+    <t>Sprachliche anmerkungen S.74 bis 75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprachliche anmerkungen S.76 </t>
+  </si>
+  <si>
+    <t>Sprachliche anmerkungen S.76 bis 77</t>
+  </si>
+  <si>
+    <t>Sprachliche anmerkungen S.77 bis 78</t>
+  </si>
+  <si>
+    <t>Sprachliche anmerkungen S. 79</t>
+  </si>
+  <si>
+    <t>Sprachliche anmerkungen S.78</t>
+  </si>
+  <si>
+    <t>Sprachliche erläuterungen S.82 bis 85</t>
+  </si>
+  <si>
+    <t>Erklärungstext ohne Titel S. 86 bis 87</t>
+  </si>
+  <si>
+    <t>Kein Titel.</t>
+  </si>
+  <si>
+    <t>s Oánbám'l.</t>
+  </si>
+  <si>
+    <t>s Andenká.</t>
+  </si>
+  <si>
+    <t>Dər vər[s]ötztə Bám.</t>
+  </si>
+  <si>
+    <t>Wás i' hiətzt mécht'!</t>
+  </si>
+  <si>
+    <t>Sprachliche Erläuterungen S. 90 bis 92</t>
+  </si>
+  <si>
+    <t>Sprachliche Erläuterungen S. 90 bis 89</t>
+  </si>
+  <si>
+    <t>Sprachliche Erläuterungen S. 90 bis 90</t>
+  </si>
+  <si>
+    <t>Sprachliche Erläuterungen S. 90 bis 91</t>
+  </si>
+  <si>
+    <t>45.6419196</t>
+  </si>
+  <si>
+    <t>14.8628934</t>
+  </si>
+  <si>
+    <t>koords der Stadt Gottschee, heute slowenisch Kočevje. Unklar, ob die Stadt, das herzogtum oder die Bevölkerung von Gottschee gemeint sind.</t>
+  </si>
+  <si>
+    <t>Sprachliche Erläuterungen S. 94 bis 96</t>
+  </si>
+  <si>
+    <t>Gedichte in fränkisch-hennebergischer mundart.</t>
+  </si>
+  <si>
+    <t>Dialectproben aus den grafschaften Stolberg-Wernigerode, Stolberg-Stolberg und Hohenstein.</t>
+  </si>
+  <si>
+    <t>Gottscheer Mundart.</t>
+  </si>
+  <si>
+    <t>Des Scheibenguckers Einladung zum Hildesheimischen Freischiessen.</t>
+  </si>
+  <si>
+    <t>Mundart des dorfes Neubrunn.</t>
+  </si>
+  <si>
+    <t>Der Fischer-Frühling.</t>
+  </si>
+  <si>
+    <t>(In der niederdeutschen mundart von Ilsenburg.)</t>
+  </si>
+  <si>
+    <t>(In der niederdeutschen mundart von Wernigerode.)</t>
+  </si>
+  <si>
+    <t>oberschwäbisch</t>
+  </si>
+  <si>
+    <t>niederdeutsch</t>
+  </si>
+  <si>
+    <t>niederbayerisch</t>
+  </si>
+  <si>
+    <t>Ilsenburg</t>
+  </si>
+  <si>
+    <t>Wernigerode</t>
+  </si>
+  <si>
+    <t>Hildesheim</t>
+  </si>
+  <si>
+    <t>Wegscheid</t>
+  </si>
+  <si>
+    <t>Bemerkung zur Slavisierung deutscher Worte</t>
+  </si>
+  <si>
+    <t>von Jovialis. (Fortsetzung).</t>
+  </si>
+  <si>
+    <t>Von späteren Dichtern.</t>
+  </si>
+  <si>
+    <t>25.</t>
+  </si>
+  <si>
+    <t>26.</t>
+  </si>
+  <si>
+    <t>27.</t>
+  </si>
+  <si>
+    <t>28.</t>
+  </si>
+  <si>
+    <t>29.</t>
+  </si>
+  <si>
+    <t>30.</t>
+  </si>
+  <si>
+    <t>31.</t>
+  </si>
+  <si>
+    <t>32.</t>
+  </si>
+  <si>
+    <t>33.</t>
+  </si>
+  <si>
+    <t>34.</t>
+  </si>
+  <si>
+    <t>35.</t>
+  </si>
+  <si>
+    <t>36.</t>
+  </si>
+  <si>
+    <t>37.</t>
+  </si>
+  <si>
+    <t>38.</t>
+  </si>
+  <si>
+    <t>39.</t>
+  </si>
+  <si>
+    <t>40.</t>
+  </si>
+  <si>
+    <t>41.</t>
+  </si>
+  <si>
+    <t>42.</t>
+  </si>
+  <si>
+    <t>43.</t>
+  </si>
+  <si>
+    <t>44.</t>
+  </si>
+  <si>
+    <t>45.</t>
+  </si>
+  <si>
+    <t>46.</t>
+  </si>
+  <si>
+    <t>47.</t>
+  </si>
+  <si>
+    <t>48.</t>
+  </si>
+  <si>
+    <t>49.</t>
+  </si>
+  <si>
+    <t>50.</t>
+  </si>
+  <si>
+    <t>51.</t>
+  </si>
+  <si>
+    <t>52.</t>
+  </si>
+  <si>
+    <t>53.</t>
+  </si>
+  <si>
+    <t>54.</t>
+  </si>
+  <si>
+    <t>55.</t>
+  </si>
+  <si>
+    <t>56.</t>
+  </si>
+  <si>
+    <t>57.</t>
+  </si>
+  <si>
+    <t>58.</t>
+  </si>
+  <si>
+    <t>59.</t>
+  </si>
+  <si>
+    <t>60.</t>
+  </si>
+  <si>
+    <t>nicht ganz eindeutig ob "drei cat. Sonette" nicht ein ganz allein stehendes Kapitel sind??  Zählt "in bairischer Uebersetzung wirklich mit zum Titel???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorwort S. 163 </t>
+  </si>
+  <si>
+    <t>Drei catalonische Sonette. (In bairischer Uebersetzung)</t>
+  </si>
+  <si>
+    <t>Cat. Son.1</t>
+  </si>
+  <si>
+    <t>Cat. Son.2</t>
+  </si>
+  <si>
+    <t>Bai. Ueb. 2</t>
+  </si>
+  <si>
+    <t>Cat. Son. 3</t>
+  </si>
+  <si>
+    <t>Bai. Ueb. 3.</t>
+  </si>
+  <si>
+    <t>Bai. Ueb.1</t>
+  </si>
+  <si>
+    <t>Sprachliche anmerkungen S. 170 bis 172</t>
+  </si>
+  <si>
+    <t>Sprachliche anmerkungen S. 172 bis 173</t>
+  </si>
+  <si>
+    <t>51.8695146</t>
+  </si>
+  <si>
+    <t>10.6800842</t>
+  </si>
+  <si>
+    <t>51.8379141</t>
+  </si>
+  <si>
+    <t>10.7838623</t>
+  </si>
+  <si>
+    <t>Di wéntsbraut.</t>
+  </si>
+  <si>
+    <t>Defz from ként.</t>
+  </si>
+  <si>
+    <t>Ein märchen vom goldnen hirsch.</t>
+  </si>
+  <si>
+    <t>Der saufang in der Himmelspforte.</t>
+  </si>
+  <si>
+    <t>A Hairoth-Liedle.</t>
+  </si>
+  <si>
+    <t>Das „Vater unser“.</t>
+  </si>
+  <si>
+    <t>Sprachliche Erläuterungen S. 177 bis 180</t>
+  </si>
+  <si>
+    <t>Bemerkung zur Slavisierung deutscher Worte S. 181 bis 182</t>
+  </si>
+  <si>
+    <t>Sprachliche erläuterungen. S. 182 bis 183</t>
+  </si>
+  <si>
+    <t>Sprachliche erläuterungen. S. 182 bis 182</t>
+  </si>
+  <si>
+    <t>Sprachliche Anmerkungen des Herausgebers S. 183 bis 184</t>
+  </si>
+  <si>
+    <t>52.154353</t>
+  </si>
+  <si>
+    <t>9.9563385</t>
+  </si>
+  <si>
+    <t>Sprachliche erläuterungen S. 185 bis 187</t>
+  </si>
+  <si>
+    <t>Niederbayerische, Wegscheid-Neuwelter Mundart.</t>
+  </si>
+  <si>
+    <t>48.601539</t>
+  </si>
+  <si>
+    <t>13.7908103</t>
+  </si>
+  <si>
+    <t>koords von Wegscheid, da nicht identifizierbar, welches Neuwelt gemeint ist.</t>
+  </si>
+  <si>
+    <t>Koborger Schlumperliedlá, á ganz's Dutz'nd unn noch áns drei.</t>
+  </si>
+  <si>
+    <t>Sprachliche Erläuterungen S. 189 bis 192</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -909,8 +1386,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -947,6 +1431,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -969,7 +1465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -981,10 +1477,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1002,9 +1496,15 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,6 +1520,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1319,30 +1823,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00AED28-36F7-44AC-9E56-C3D452D7691B}">
-  <dimension ref="A1:AG80"/>
+  <dimension ref="A1:AG189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="51.28515625" customWidth="1"/>
+    <col min="3" max="3" width="89.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="29" customWidth="1"/>
     <col min="11" max="11" width="25.42578125" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" customWidth="1"/>
     <col min="14" max="14" width="11.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.28515625" style="9" customWidth="1"/>
-    <col min="16" max="21" width="9.140625" style="9"/>
+    <col min="16" max="16" width="2.85546875" style="9" customWidth="1"/>
+    <col min="17" max="17" width="3.140625" style="9" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" style="9" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" style="9" customWidth="1"/>
+    <col min="20" max="20" width="2.85546875" style="9" customWidth="1"/>
+    <col min="21" max="21" width="3.42578125" style="9" customWidth="1"/>
     <col min="22" max="22" width="49.140625" customWidth="1"/>
     <col min="23" max="23" width="12.42578125" customWidth="1"/>
-    <col min="24" max="24" width="18.85546875" customWidth="1"/>
-    <col min="25" max="25" width="18.5703125" customWidth="1"/>
+    <col min="24" max="25" width="3.28515625" customWidth="1"/>
     <col min="26" max="27" width="60.42578125" customWidth="1"/>
     <col min="28" max="28" width="50.42578125" customWidth="1"/>
-    <col min="29" max="29" width="28.5703125" customWidth="1"/>
+    <col min="29" max="29" width="37.5703125" customWidth="1"/>
     <col min="30" max="31" width="13.5703125" customWidth="1"/>
     <col min="32" max="32" width="14.85546875" style="8" customWidth="1"/>
     <col min="33" max="33" width="123.42578125" customWidth="1"/>
@@ -1376,7 +1884,7 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="28" t="s">
         <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1465,7 +1973,7 @@
       <c r="H2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="29" t="s">
         <v>38</v>
       </c>
       <c r="K2" t="s">
@@ -1521,7 +2029,7 @@
       <c r="H3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="29" t="s">
         <v>38</v>
       </c>
       <c r="K3" s="10" t="s">
@@ -1533,10 +2041,10 @@
       <c r="M3" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="23" t="s">
         <v>269</v>
       </c>
       <c r="V3" s="3" t="s">
@@ -1580,7 +2088,7 @@
       <c r="H4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="29" t="s">
         <v>38</v>
       </c>
       <c r="K4" s="4" t="s">
@@ -1592,10 +2100,10 @@
       <c r="M4" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="12" t="s">
         <v>90</v>
       </c>
       <c r="V4" s="4" t="s">
@@ -1639,7 +2147,7 @@
       <c r="H5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="29" t="s">
         <v>38</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -1654,7 +2162,7 @@
       <c r="N5" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="12" t="s">
         <v>90</v>
       </c>
       <c r="V5" s="4" t="s">
@@ -1698,7 +2206,7 @@
       <c r="H6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="29" t="s">
         <v>38</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -1710,10 +2218,10 @@
       <c r="M6" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="25" t="s">
+      <c r="N6" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="O6" s="25" t="s">
+      <c r="O6" s="23" t="s">
         <v>245</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1753,7 +2261,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="29" t="s">
         <v>39</v>
       </c>
       <c r="K7" s="4" t="s">
@@ -1765,10 +2273,10 @@
       <c r="M7" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="25" t="s">
+      <c r="N7" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="O7" s="25" t="s">
+      <c r="O7" s="23" t="s">
         <v>245</v>
       </c>
       <c r="V7" s="4" t="s">
@@ -1806,7 +2314,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="29" t="s">
         <v>39</v>
       </c>
       <c r="K8" s="4" t="s">
@@ -1818,10 +2326,10 @@
       <c r="M8" t="s">
         <v>61</v>
       </c>
-      <c r="N8" s="25" t="s">
+      <c r="N8" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="O8" s="25" t="s">
+      <c r="O8" s="23" t="s">
         <v>245</v>
       </c>
       <c r="V8" s="4" t="s">
@@ -1859,7 +2367,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="29" t="s">
         <v>39</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -1871,10 +2379,10 @@
       <c r="M9" t="s">
         <v>61</v>
       </c>
-      <c r="N9" s="25" t="s">
+      <c r="N9" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="O9" s="23" t="s">
         <v>245</v>
       </c>
       <c r="V9" s="4" t="s">
@@ -1912,7 +2420,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="29" t="s">
         <v>39</v>
       </c>
       <c r="K10" s="4" t="s">
@@ -1924,10 +2432,10 @@
       <c r="M10" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="25" t="s">
+      <c r="N10" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="O10" s="25" t="s">
+      <c r="O10" s="23" t="s">
         <v>245</v>
       </c>
       <c r="V10" s="4" t="s">
@@ -1965,7 +2473,7 @@
       </c>
       <c r="F11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="29" t="s">
         <v>39</v>
       </c>
       <c r="K11" s="4" t="s">
@@ -1977,10 +2485,10 @@
       <c r="M11" t="s">
         <v>61</v>
       </c>
-      <c r="N11" s="25" t="s">
+      <c r="N11" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="O11" s="25" t="s">
+      <c r="O11" s="23" t="s">
         <v>245</v>
       </c>
       <c r="V11" s="4" t="s">
@@ -2018,7 +2526,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="29" t="s">
         <v>39</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -2030,10 +2538,10 @@
       <c r="M12" t="s">
         <v>61</v>
       </c>
-      <c r="N12" s="25" t="s">
+      <c r="N12" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="O12" s="25" t="s">
+      <c r="O12" s="23" t="s">
         <v>245</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -2071,7 +2579,7 @@
       </c>
       <c r="F13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="29" t="s">
         <v>39</v>
       </c>
       <c r="K13" s="4" t="s">
@@ -2083,10 +2591,10 @@
       <c r="M13" t="s">
         <v>61</v>
       </c>
-      <c r="N13" s="25" t="s">
+      <c r="N13" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="O13" s="25" t="s">
+      <c r="O13" s="23" t="s">
         <v>245</v>
       </c>
       <c r="V13" s="4" t="s">
@@ -2128,7 +2636,7 @@
       <c r="H14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="29" t="s">
         <v>38</v>
       </c>
       <c r="K14" s="4" t="s">
@@ -2140,10 +2648,10 @@
       <c r="M14" t="s">
         <v>64</v>
       </c>
-      <c r="N14" s="25" t="s">
+      <c r="N14" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="O14" s="25" t="s">
+      <c r="O14" s="23" t="s">
         <v>269</v>
       </c>
       <c r="V14" s="4" t="s">
@@ -2188,7 +2696,7 @@
       <c r="H15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="29" t="s">
         <v>38</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -2200,10 +2708,10 @@
       <c r="M15" t="s">
         <v>64</v>
       </c>
-      <c r="N15" s="25" t="s">
+      <c r="N15" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="23" t="s">
         <v>269</v>
       </c>
       <c r="V15" s="4" t="s">
@@ -2248,7 +2756,7 @@
       <c r="H16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="29" t="s">
         <v>38</v>
       </c>
       <c r="K16" s="4" t="s">
@@ -2260,10 +2768,10 @@
       <c r="M16" t="s">
         <v>64</v>
       </c>
-      <c r="N16" s="25" t="s">
+      <c r="N16" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="O16" s="25" t="s">
+      <c r="O16" s="23" t="s">
         <v>269</v>
       </c>
       <c r="V16" s="4" t="s">
@@ -2311,7 +2819,7 @@
       <c r="H17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="29" t="s">
         <v>38</v>
       </c>
       <c r="L17" t="s">
@@ -2355,10 +2863,10 @@
       </c>
       <c r="F18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="J18" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="15" t="s">
+      <c r="J18" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="13" t="s">
         <v>110</v>
       </c>
       <c r="L18" t="s">
@@ -2420,7 +2928,7 @@
       <c r="H19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="29" t="s">
         <v>38</v>
       </c>
       <c r="K19" t="s">
@@ -2432,10 +2940,10 @@
       <c r="M19" t="s">
         <v>64</v>
       </c>
-      <c r="N19" s="25" t="s">
+      <c r="N19" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="O19" s="25" t="s">
+      <c r="O19" s="23" t="s">
         <v>269</v>
       </c>
       <c r="V19" s="4" t="s">
@@ -2478,7 +2986,7 @@
       </c>
       <c r="F20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="29" t="s">
         <v>39</v>
       </c>
       <c r="L20" t="s">
@@ -2522,10 +3030,10 @@
       <c r="H21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="11" t="s">
         <v>111</v>
       </c>
       <c r="L21" t="s">
@@ -2588,7 +3096,7 @@
       <c r="H22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="29" t="s">
         <v>38</v>
       </c>
       <c r="K22" t="s">
@@ -2600,10 +3108,10 @@
       <c r="M22" t="s">
         <v>64</v>
       </c>
-      <c r="N22" s="25" t="s">
+      <c r="N22" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="O22" s="25" t="s">
+      <c r="O22" s="23" t="s">
         <v>269</v>
       </c>
       <c r="V22" s="4" t="s">
@@ -2647,7 +3155,7 @@
       </c>
       <c r="F23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="29" t="s">
         <v>39</v>
       </c>
       <c r="L23" t="s">
@@ -2692,10 +3200,10 @@
       <c r="H24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K24" s="14" t="s">
         <v>101</v>
       </c>
       <c r="L24" t="s">
@@ -2716,7 +3224,7 @@
       <c r="W24" t="s">
         <v>34</v>
       </c>
-      <c r="Z24" s="17" t="s">
+      <c r="Z24" s="15" t="s">
         <v>85</v>
       </c>
       <c r="AB24" s="4" t="s">
@@ -2754,7 +3262,7 @@
       <c r="H25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="29" t="s">
         <v>38</v>
       </c>
       <c r="K25" t="s">
@@ -2766,10 +3274,10 @@
       <c r="M25" t="s">
         <v>64</v>
       </c>
-      <c r="N25" s="25" t="s">
+      <c r="N25" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="O25" s="25" t="s">
+      <c r="O25" s="23" t="s">
         <v>269</v>
       </c>
       <c r="V25" s="4" t="s">
@@ -2812,7 +3320,7 @@
       </c>
       <c r="F26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="29" t="s">
         <v>39</v>
       </c>
       <c r="L26" t="s">
@@ -2856,7 +3364,7 @@
       <c r="H27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="29" t="s">
         <v>38</v>
       </c>
       <c r="K27" t="s">
@@ -2918,7 +3426,7 @@
       <c r="H28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="29" t="s">
         <v>38</v>
       </c>
       <c r="K28" t="s">
@@ -2930,10 +3438,10 @@
       <c r="M28" t="s">
         <v>64</v>
       </c>
-      <c r="N28" s="25" t="s">
+      <c r="N28" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="O28" s="25" t="s">
+      <c r="O28" s="23" t="s">
         <v>269</v>
       </c>
       <c r="V28" s="4" t="s">
@@ -2976,7 +3484,7 @@
       </c>
       <c r="F29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="29" t="s">
         <v>39</v>
       </c>
       <c r="L29" t="s">
@@ -3020,7 +3528,7 @@
       <c r="H30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="29" t="s">
         <v>38</v>
       </c>
       <c r="K30" t="s">
@@ -3082,7 +3590,7 @@
       <c r="H31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="29" t="s">
         <v>38</v>
       </c>
       <c r="K31" t="s">
@@ -3094,10 +3602,10 @@
       <c r="M31" t="s">
         <v>64</v>
       </c>
-      <c r="N31" s="25" t="s">
+      <c r="N31" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="O31" s="25" t="s">
+      <c r="O31" s="23" t="s">
         <v>269</v>
       </c>
       <c r="V31" s="4" t="s">
@@ -3140,7 +3648,7 @@
       </c>
       <c r="F32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="29" t="s">
         <v>39</v>
       </c>
       <c r="L32" t="s">
@@ -3184,7 +3692,7 @@
       <c r="H33" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="29" t="s">
         <v>38</v>
       </c>
       <c r="K33" t="s">
@@ -3246,7 +3754,7 @@
       <c r="H34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J34" s="12" t="s">
+      <c r="J34" s="29" t="s">
         <v>38</v>
       </c>
       <c r="K34" t="s">
@@ -3258,10 +3766,10 @@
       <c r="M34" t="s">
         <v>64</v>
       </c>
-      <c r="N34" s="25" t="s">
+      <c r="N34" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="O34" s="25" t="s">
+      <c r="O34" s="23" t="s">
         <v>269</v>
       </c>
       <c r="V34" s="4" t="s">
@@ -3302,7 +3810,7 @@
       </c>
       <c r="F35" s="4"/>
       <c r="H35" s="4"/>
-      <c r="J35" s="12" t="s">
+      <c r="J35" s="29" t="s">
         <v>39</v>
       </c>
       <c r="L35" t="s">
@@ -3343,7 +3851,7 @@
       </c>
       <c r="F36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="J36" s="12" t="s">
+      <c r="J36" s="29" t="s">
         <v>39</v>
       </c>
       <c r="L36" t="s">
@@ -3389,7 +3897,7 @@
       <c r="H37" t="s">
         <v>36</v>
       </c>
-      <c r="J37" s="12" t="s">
+      <c r="J37" s="29" t="s">
         <v>122</v>
       </c>
       <c r="K37" t="s">
@@ -3401,10 +3909,10 @@
       <c r="M37" t="s">
         <v>61</v>
       </c>
-      <c r="N37" s="25" t="s">
+      <c r="N37" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="O37" s="25" t="s">
+      <c r="O37" s="23" t="s">
         <v>249</v>
       </c>
       <c r="V37" t="s">
@@ -3429,65 +3937,65 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="2:33" s="21" customFormat="1" ht="15.75">
-      <c r="B38" s="21" t="s">
+    <row r="38" spans="2:33" s="19" customFormat="1" ht="15.75">
+      <c r="B38" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="19">
         <v>131</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="19">
         <v>136</v>
       </c>
-      <c r="F38" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J38" s="21" t="s">
+      <c r="F38" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="K38" s="21" t="s">
+      <c r="K38" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="L38" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="M38" s="21" t="s">
+      <c r="L38" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M38" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="N38" s="22" t="s">
+      <c r="N38" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="O38" s="22" t="s">
+      <c r="O38" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="21" t="s">
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="W38" s="21" t="s">
+      <c r="W38" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AD38" s="21" t="s">
+      <c r="AD38" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AE38" s="23" t="s">
+      <c r="AE38" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="AF38" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG38" s="21" t="s">
+      <c r="AF38" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG38" s="19" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3495,7 +4003,7 @@
       <c r="B39" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D39">
@@ -3504,7 +4012,7 @@
       <c r="E39">
         <v>134</v>
       </c>
-      <c r="J39" s="12" t="s">
+      <c r="J39" s="29" t="s">
         <v>39</v>
       </c>
       <c r="K39" t="s">
@@ -3545,7 +4053,7 @@
       <c r="B40" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D40">
@@ -3554,7 +4062,7 @@
       <c r="E40">
         <v>134</v>
       </c>
-      <c r="J40" s="12" t="s">
+      <c r="J40" s="29" t="s">
         <v>39</v>
       </c>
       <c r="K40" t="s">
@@ -3595,7 +4103,7 @@
       <c r="B41" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D41">
@@ -3604,7 +4112,7 @@
       <c r="E41">
         <v>134</v>
       </c>
-      <c r="J41" s="12" t="s">
+      <c r="J41" s="29" t="s">
         <v>39</v>
       </c>
       <c r="K41" t="s">
@@ -3657,7 +4165,7 @@
       <c r="H42" t="s">
         <v>35</v>
       </c>
-      <c r="J42" s="12" t="s">
+      <c r="J42" s="29" t="s">
         <v>122</v>
       </c>
       <c r="K42" t="s">
@@ -3707,7 +4215,7 @@
       <c r="E43">
         <v>138</v>
       </c>
-      <c r="J43" s="12" t="s">
+      <c r="J43" s="29" t="s">
         <v>39</v>
       </c>
       <c r="K43" t="s">
@@ -3760,7 +4268,7 @@
       <c r="H44" t="s">
         <v>35</v>
       </c>
-      <c r="J44" s="12" t="s">
+      <c r="J44" s="29" t="s">
         <v>122</v>
       </c>
       <c r="K44" t="s">
@@ -3798,6 +4306,9 @@
       <c r="B45" t="s">
         <v>26</v>
       </c>
+      <c r="C45" t="s">
+        <v>120</v>
+      </c>
       <c r="D45">
         <v>139</v>
       </c>
@@ -3810,13 +4321,13 @@
       <c r="H45" t="s">
         <v>36</v>
       </c>
-      <c r="J45" s="12" t="s">
+      <c r="J45" s="29" t="s">
         <v>122</v>
       </c>
       <c r="K45" t="s">
         <v>157</v>
       </c>
-      <c r="L45" s="16" t="s">
+      <c r="L45" s="14" t="s">
         <v>35</v>
       </c>
       <c r="M45" t="s">
@@ -3828,7 +4339,7 @@
       <c r="O45" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="V45" s="14" t="s">
+      <c r="V45" t="s">
         <v>119</v>
       </c>
       <c r="W45" t="s">
@@ -3869,19 +4380,22 @@
       <c r="H46" t="s">
         <v>36</v>
       </c>
-      <c r="J46" s="12" t="s">
+      <c r="J46" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="K46" s="19"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
+      <c r="K46" s="17"/>
+      <c r="L46" t="s">
+        <v>35</v>
+      </c>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
       <c r="V46" t="s">
         <v>125</v>
       </c>
       <c r="W46" t="s">
         <v>33</v>
       </c>
-      <c r="AA46" s="18"/>
+      <c r="AA46" s="16"/>
       <c r="AC46" t="s">
         <v>179</v>
       </c>
@@ -3917,7 +4431,7 @@
       <c r="H47" t="s">
         <v>36</v>
       </c>
-      <c r="J47" s="12" t="s">
+      <c r="J47" s="29" t="s">
         <v>122</v>
       </c>
       <c r="K47" t="s">
@@ -3929,10 +4443,10 @@
       <c r="M47" t="s">
         <v>61</v>
       </c>
-      <c r="N47" s="25" t="s">
+      <c r="N47" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="O47" s="25" t="s">
+      <c r="O47" s="23" t="s">
         <v>253</v>
       </c>
       <c r="V47" t="s">
@@ -3944,7 +4458,7 @@
       <c r="Z47" t="s">
         <v>161</v>
       </c>
-      <c r="AA47" s="18"/>
+      <c r="AA47" s="16"/>
       <c r="AC47" t="s">
         <v>179</v>
       </c>
@@ -3971,7 +4485,7 @@
       <c r="E48">
         <v>143</v>
       </c>
-      <c r="J48" s="12" t="s">
+      <c r="J48" s="29" t="s">
         <v>39</v>
       </c>
       <c r="K48" t="s">
@@ -3983,10 +4497,10 @@
       <c r="M48" t="s">
         <v>61</v>
       </c>
-      <c r="N48" s="25" t="s">
+      <c r="N48" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="O48" s="25" t="s">
+      <c r="O48" s="23" t="s">
         <v>255</v>
       </c>
       <c r="V48" t="s">
@@ -4024,7 +4538,7 @@
       <c r="E49">
         <v>144</v>
       </c>
-      <c r="J49" s="12" t="s">
+      <c r="J49" s="29" t="s">
         <v>39</v>
       </c>
       <c r="K49" t="s">
@@ -4036,10 +4550,10 @@
       <c r="M49" t="s">
         <v>61</v>
       </c>
-      <c r="N49" s="25" t="s">
+      <c r="N49" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="O49" s="25" t="s">
+      <c r="O49" s="23" t="s">
         <v>257</v>
       </c>
       <c r="V49" t="s">
@@ -4077,7 +4591,7 @@
       <c r="E50">
         <v>144</v>
       </c>
-      <c r="J50" s="12" t="s">
+      <c r="J50" s="29" t="s">
         <v>39</v>
       </c>
       <c r="K50" t="s">
@@ -4089,10 +4603,10 @@
       <c r="M50" t="s">
         <v>61</v>
       </c>
-      <c r="N50" s="25" t="s">
+      <c r="N50" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="O50" s="25" t="s">
+      <c r="O50" s="23" t="s">
         <v>259</v>
       </c>
       <c r="V50" t="s">
@@ -4130,7 +4644,7 @@
       <c r="E51">
         <v>145</v>
       </c>
-      <c r="J51" s="12" t="s">
+      <c r="J51" s="29" t="s">
         <v>39</v>
       </c>
       <c r="K51" t="s">
@@ -4186,7 +4700,7 @@
       <c r="E52">
         <v>145</v>
       </c>
-      <c r="J52" s="12" t="s">
+      <c r="J52" s="29" t="s">
         <v>39</v>
       </c>
       <c r="K52" t="s">
@@ -4239,7 +4753,7 @@
       <c r="E53">
         <v>146</v>
       </c>
-      <c r="J53" s="12" t="s">
+      <c r="J53" s="29" t="s">
         <v>39</v>
       </c>
       <c r="K53" t="s">
@@ -4295,7 +4809,7 @@
       <c r="E54">
         <v>146</v>
       </c>
-      <c r="J54" s="12" t="s">
+      <c r="J54" s="29" t="s">
         <v>39</v>
       </c>
       <c r="K54" t="s">
@@ -4307,10 +4821,10 @@
       <c r="M54" t="s">
         <v>61</v>
       </c>
-      <c r="N54" s="25" t="s">
+      <c r="N54" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="O54" s="25" t="s">
+      <c r="O54" s="23" t="s">
         <v>261</v>
       </c>
       <c r="V54" t="s">
@@ -4334,7 +4848,7 @@
       <c r="AF54" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AG54" s="12" t="s">
+      <c r="AG54" s="11" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4357,14 +4871,17 @@
       <c r="H55" t="s">
         <v>36</v>
       </c>
-      <c r="J55" s="12" t="s">
+      <c r="J55" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="K55" s="14" t="s">
+      <c r="K55" t="s">
         <v>203</v>
       </c>
       <c r="L55" t="s">
         <v>36</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="N55" s="9" t="s">
         <v>274</v>
@@ -4407,14 +4924,17 @@
       <c r="E56">
         <v>272</v>
       </c>
-      <c r="J56" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K56" s="14" t="s">
+      <c r="J56" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K56" t="s">
         <v>203</v>
       </c>
       <c r="L56" t="s">
         <v>36</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="N56" s="9" t="s">
         <v>274</v>
@@ -4454,14 +4974,17 @@
       <c r="E57">
         <v>274</v>
       </c>
-      <c r="J57" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K57" s="14" t="s">
+      <c r="J57" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K57" t="s">
         <v>203</v>
       </c>
       <c r="L57" t="s">
         <v>36</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="N57" s="9" t="s">
         <v>274</v>
@@ -4484,7 +5007,7 @@
       <c r="AF57" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AG57" s="14" t="s">
+      <c r="AG57" t="s">
         <v>277</v>
       </c>
     </row>
@@ -4507,7 +5030,7 @@
       <c r="H58" t="s">
         <v>35</v>
       </c>
-      <c r="J58" s="12" t="s">
+      <c r="J58" s="29" t="s">
         <v>122</v>
       </c>
       <c r="K58" t="s">
@@ -4515,6 +5038,9 @@
       </c>
       <c r="L58" t="s">
         <v>35</v>
+      </c>
+      <c r="M58" s="26" t="s">
+        <v>61</v>
       </c>
       <c r="N58" s="9" t="s">
         <v>262</v>
@@ -4551,7 +5077,7 @@
       <c r="E59">
         <v>276</v>
       </c>
-      <c r="J59" s="12" t="s">
+      <c r="J59" s="29" t="s">
         <v>39</v>
       </c>
       <c r="K59" t="s">
@@ -4559,6 +5085,9 @@
       </c>
       <c r="L59" t="s">
         <v>35</v>
+      </c>
+      <c r="M59" s="26" t="s">
+        <v>61</v>
       </c>
       <c r="N59" s="9" t="s">
         <v>262</v>
@@ -4601,14 +5130,17 @@
       <c r="H60" t="s">
         <v>36</v>
       </c>
-      <c r="J60" s="12" t="s">
+      <c r="J60" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="K60" s="14" t="s">
+      <c r="K60" t="s">
         <v>205</v>
       </c>
       <c r="L60" t="s">
         <v>35</v>
+      </c>
+      <c r="M60" s="26" t="s">
+        <v>64</v>
       </c>
       <c r="N60" s="9" t="s">
         <v>272</v>
@@ -4654,16 +5186,22 @@
       <c r="H61" t="s">
         <v>36</v>
       </c>
-      <c r="J61" s="12" t="s">
+      <c r="J61" s="29" t="s">
         <v>122</v>
       </c>
       <c r="K61" t="s">
         <v>206</v>
       </c>
-      <c r="N61" s="25" t="s">
+      <c r="L61" t="s">
+        <v>36</v>
+      </c>
+      <c r="M61" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N61" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="O61" s="25" t="s">
+      <c r="O61" s="23" t="s">
         <v>251</v>
       </c>
       <c r="V61" t="s">
@@ -4698,16 +5236,22 @@
       <c r="E62">
         <v>282</v>
       </c>
-      <c r="J62" s="12" t="s">
+      <c r="J62" s="29" t="s">
         <v>39</v>
       </c>
       <c r="K62" t="s">
         <v>206</v>
       </c>
-      <c r="N62" s="25" t="s">
+      <c r="L62" t="s">
+        <v>36</v>
+      </c>
+      <c r="M62" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N62" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="O62" s="25" t="s">
+      <c r="O62" s="23" t="s">
         <v>251</v>
       </c>
       <c r="V62" t="s">
@@ -4739,16 +5283,22 @@
       <c r="E63">
         <v>283</v>
       </c>
-      <c r="J63" s="12" t="s">
+      <c r="J63" s="29" t="s">
         <v>39</v>
       </c>
       <c r="K63" t="s">
         <v>206</v>
       </c>
-      <c r="N63" s="25" t="s">
+      <c r="L63" t="s">
+        <v>36</v>
+      </c>
+      <c r="M63" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N63" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="O63" s="25" t="s">
+      <c r="O63" s="23" t="s">
         <v>251</v>
       </c>
       <c r="V63" t="s">
@@ -4786,16 +5336,22 @@
       <c r="H64" t="s">
         <v>36</v>
       </c>
-      <c r="J64" s="12" t="s">
+      <c r="J64" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="K64" s="26" t="s">
+      <c r="K64" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="N64" s="20" t="s">
+      <c r="L64" t="s">
+        <v>36</v>
+      </c>
+      <c r="M64" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N64" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="O64" s="20" t="s">
+      <c r="O64" s="18" t="s">
         <v>271</v>
       </c>
       <c r="V64" t="s">
@@ -4827,16 +5383,22 @@
       <c r="E65">
         <v>283</v>
       </c>
-      <c r="J65" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K65" s="26" t="s">
+      <c r="J65" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K65" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="N65" s="20" t="s">
+      <c r="L65" t="s">
+        <v>36</v>
+      </c>
+      <c r="M65" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N65" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="O65" s="20" t="s">
+      <c r="O65" s="18" t="s">
         <v>271</v>
       </c>
       <c r="V65" t="s">
@@ -4868,16 +5430,22 @@
       <c r="E66">
         <v>284</v>
       </c>
-      <c r="J66" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K66" s="26" t="s">
+      <c r="J66" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K66" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="N66" s="20" t="s">
+      <c r="L66" t="s">
+        <v>36</v>
+      </c>
+      <c r="M66" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N66" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="O66" s="20" t="s">
+      <c r="O66" s="18" t="s">
         <v>271</v>
       </c>
       <c r="V66" t="s">
@@ -4918,16 +5486,22 @@
       <c r="H67" t="s">
         <v>36</v>
       </c>
-      <c r="J67" s="12" t="s">
+      <c r="J67" s="29" t="s">
         <v>122</v>
       </c>
       <c r="K67" t="s">
         <v>126</v>
       </c>
-      <c r="N67" s="25" t="s">
+      <c r="L67" t="s">
+        <v>35</v>
+      </c>
+      <c r="M67" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N67" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="O67" s="25" t="s">
+      <c r="O67" s="23" t="s">
         <v>249</v>
       </c>
       <c r="V67" t="s">
@@ -4968,19 +5542,25 @@
       <c r="H68" t="s">
         <v>36</v>
       </c>
-      <c r="J68" s="12" t="s">
+      <c r="J68" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="K68" s="19" t="s">
+      <c r="K68" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="N68" s="25" t="s">
+      <c r="L68" t="s">
+        <v>36</v>
+      </c>
+      <c r="M68" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="N68" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="O68" s="25" t="s">
+      <c r="O68" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="V68" s="24" t="s">
+      <c r="V68" s="22" t="s">
         <v>226</v>
       </c>
       <c r="W68" t="s">
@@ -5009,16 +5589,22 @@
       <c r="E69">
         <v>289</v>
       </c>
-      <c r="J69" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K69" s="19" t="s">
+      <c r="J69" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K69" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="N69" s="25" t="s">
+      <c r="L69" t="s">
+        <v>36</v>
+      </c>
+      <c r="M69" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="N69" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="O69" s="25" t="s">
+      <c r="O69" s="23" t="s">
         <v>267</v>
       </c>
       <c r="V69" t="s">
@@ -5059,16 +5645,22 @@
       <c r="H70" t="s">
         <v>36</v>
       </c>
-      <c r="J70" s="12" t="s">
+      <c r="J70" s="29" t="s">
         <v>122</v>
       </c>
       <c r="K70" t="s">
         <v>209</v>
       </c>
-      <c r="N70" s="25" t="s">
+      <c r="L70" t="s">
+        <v>35</v>
+      </c>
+      <c r="M70" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="N70" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="O70" s="25" t="s">
+      <c r="O70" s="23" t="s">
         <v>265</v>
       </c>
       <c r="V70" t="s">
@@ -5106,16 +5698,22 @@
       <c r="H71" t="s">
         <v>35</v>
       </c>
-      <c r="J71" s="12" t="s">
+      <c r="J71" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="K71" s="19" t="s">
+      <c r="K71" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="N71" s="25" t="s">
+      <c r="L71" t="s">
+        <v>35</v>
+      </c>
+      <c r="M71" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N71" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="O71" s="25" t="s">
+      <c r="O71" s="23" t="s">
         <v>261</v>
       </c>
       <c r="V71" t="s">
@@ -5147,10 +5745,10 @@
       <c r="E72">
         <v>295</v>
       </c>
-      <c r="J72" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K72" s="19"/>
+      <c r="J72" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K72" s="17"/>
       <c r="W72" t="s">
         <v>33</v>
       </c>
@@ -5183,10 +5781,10 @@
       <c r="H73" t="s">
         <v>36</v>
       </c>
-      <c r="J73" s="12" t="s">
+      <c r="J73" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="K73" s="19"/>
+      <c r="K73" s="17"/>
       <c r="V73" t="s">
         <v>231</v>
       </c>
@@ -5225,16 +5823,22 @@
       <c r="H74" t="s">
         <v>36</v>
       </c>
-      <c r="J74" s="12" t="s">
+      <c r="J74" s="29" t="s">
         <v>122</v>
       </c>
       <c r="K74" t="s">
         <v>126</v>
       </c>
-      <c r="N74" s="25" t="s">
+      <c r="L74" t="s">
+        <v>35</v>
+      </c>
+      <c r="M74" t="s">
+        <v>61</v>
+      </c>
+      <c r="N74" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="O74" s="25" t="s">
+      <c r="O74" s="23" t="s">
         <v>249</v>
       </c>
       <c r="V74" t="s">
@@ -5272,7 +5876,7 @@
       <c r="E75">
         <v>297</v>
       </c>
-      <c r="J75" s="12" t="s">
+      <c r="J75" s="29" t="s">
         <v>39</v>
       </c>
       <c r="W75" t="s">
@@ -5307,16 +5911,22 @@
       <c r="H76" t="s">
         <v>36</v>
       </c>
-      <c r="J76" s="12" t="s">
+      <c r="J76" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="K76" s="19" t="s">
+      <c r="K76" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="N76" s="20" t="s">
+      <c r="L76" t="s">
+        <v>35</v>
+      </c>
+      <c r="M76" t="s">
+        <v>103</v>
+      </c>
+      <c r="N76" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="O76" s="20" t="s">
+      <c r="O76" s="18" t="s">
         <v>211</v>
       </c>
       <c r="V76" t="s">
@@ -5357,16 +5967,22 @@
       <c r="H77" t="s">
         <v>36</v>
       </c>
-      <c r="J77" s="12" t="s">
+      <c r="J77" s="29" t="s">
         <v>122</v>
       </c>
       <c r="K77" t="s">
         <v>130</v>
       </c>
-      <c r="N77" s="25" t="s">
+      <c r="L77" t="s">
+        <v>35</v>
+      </c>
+      <c r="M77" t="s">
+        <v>61</v>
+      </c>
+      <c r="N77" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="O77" s="25" t="s">
+      <c r="O77" s="23" t="s">
         <v>253</v>
       </c>
       <c r="V77" t="s">
@@ -5401,7 +6017,7 @@
       <c r="E78">
         <v>298</v>
       </c>
-      <c r="J78" s="12" t="s">
+      <c r="J78" s="29" t="s">
         <v>39</v>
       </c>
       <c r="W78" t="s">
@@ -5430,16 +6046,22 @@
       <c r="E79">
         <v>298</v>
       </c>
-      <c r="J79" s="12" t="s">
+      <c r="J79" s="29" t="s">
         <v>39</v>
       </c>
       <c r="K79" t="s">
         <v>126</v>
       </c>
-      <c r="N79" s="25" t="s">
+      <c r="L79" t="s">
+        <v>35</v>
+      </c>
+      <c r="M79" t="s">
+        <v>61</v>
+      </c>
+      <c r="N79" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="O79" s="25" t="s">
+      <c r="O79" s="23" t="s">
         <v>249</v>
       </c>
       <c r="V79" t="s">
@@ -5474,16 +6096,22 @@
       <c r="E80">
         <v>298</v>
       </c>
-      <c r="J80" s="12" t="s">
+      <c r="J80" s="29" t="s">
         <v>39</v>
       </c>
       <c r="K80" t="s">
         <v>178</v>
       </c>
-      <c r="N80" s="25" t="s">
+      <c r="L80" t="s">
+        <v>35</v>
+      </c>
+      <c r="M80" t="s">
+        <v>61</v>
+      </c>
+      <c r="N80" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="O80" s="25" t="s">
+      <c r="O80" s="23" t="s">
         <v>261</v>
       </c>
       <c r="V80" t="s">
@@ -5507,6 +6135,5478 @@
       <c r="AG80" t="s">
         <v>239</v>
       </c>
+    </row>
+    <row r="81" spans="2:32">
+      <c r="B81" t="s">
+        <v>278</v>
+      </c>
+      <c r="C81" t="s">
+        <v>291</v>
+      </c>
+      <c r="D81">
+        <v>60</v>
+      </c>
+      <c r="E81">
+        <v>61</v>
+      </c>
+      <c r="F81" t="s">
+        <v>36</v>
+      </c>
+      <c r="H81" t="s">
+        <v>36</v>
+      </c>
+      <c r="J81" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="K81" t="s">
+        <v>287</v>
+      </c>
+      <c r="L81" t="s">
+        <v>36</v>
+      </c>
+      <c r="M81" t="s">
+        <v>64</v>
+      </c>
+      <c r="N81" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O81" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V81" t="s">
+        <v>295</v>
+      </c>
+      <c r="W81" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>293</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF81" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="2:32">
+      <c r="B82" t="s">
+        <v>278</v>
+      </c>
+      <c r="C82" t="s">
+        <v>291</v>
+      </c>
+      <c r="D82">
+        <v>60</v>
+      </c>
+      <c r="E82">
+        <v>60</v>
+      </c>
+      <c r="J82" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K82" t="s">
+        <v>287</v>
+      </c>
+      <c r="L82" t="s">
+        <v>36</v>
+      </c>
+      <c r="M82" t="s">
+        <v>64</v>
+      </c>
+      <c r="N82" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O82" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V82" t="s">
+        <v>92</v>
+      </c>
+      <c r="W82" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF82" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="2:32">
+      <c r="B83" t="s">
+        <v>278</v>
+      </c>
+      <c r="C83" t="s">
+        <v>291</v>
+      </c>
+      <c r="D83">
+        <v>60</v>
+      </c>
+      <c r="E83">
+        <v>60</v>
+      </c>
+      <c r="J83" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K83" t="s">
+        <v>287</v>
+      </c>
+      <c r="L83" t="s">
+        <v>36</v>
+      </c>
+      <c r="M83" t="s">
+        <v>64</v>
+      </c>
+      <c r="N83" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O83" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V83" t="s">
+        <v>93</v>
+      </c>
+      <c r="W83" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF83" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="2:32">
+      <c r="B84" t="s">
+        <v>278</v>
+      </c>
+      <c r="C84" t="s">
+        <v>291</v>
+      </c>
+      <c r="D84">
+        <v>61</v>
+      </c>
+      <c r="E84">
+        <v>61</v>
+      </c>
+      <c r="J84" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K84" t="s">
+        <v>287</v>
+      </c>
+      <c r="L84" t="s">
+        <v>36</v>
+      </c>
+      <c r="M84" t="s">
+        <v>64</v>
+      </c>
+      <c r="N84" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O84" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V84" t="s">
+        <v>94</v>
+      </c>
+      <c r="W84" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF84" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="2:32">
+      <c r="B85" t="s">
+        <v>278</v>
+      </c>
+      <c r="C85" t="s">
+        <v>291</v>
+      </c>
+      <c r="D85">
+        <v>61</v>
+      </c>
+      <c r="E85">
+        <v>61</v>
+      </c>
+      <c r="J85" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K85" t="s">
+        <v>287</v>
+      </c>
+      <c r="L85" t="s">
+        <v>36</v>
+      </c>
+      <c r="M85" t="s">
+        <v>64</v>
+      </c>
+      <c r="N85" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O85" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V85" t="s">
+        <v>95</v>
+      </c>
+      <c r="W85" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF85" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="2:32">
+      <c r="B86" t="s">
+        <v>278</v>
+      </c>
+      <c r="C86" t="s">
+        <v>291</v>
+      </c>
+      <c r="D86">
+        <v>62</v>
+      </c>
+      <c r="E86">
+        <v>71</v>
+      </c>
+      <c r="J86" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K86" t="s">
+        <v>287</v>
+      </c>
+      <c r="L86" t="s">
+        <v>36</v>
+      </c>
+      <c r="M86" t="s">
+        <v>64</v>
+      </c>
+      <c r="N86" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O86" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V86" t="s">
+        <v>296</v>
+      </c>
+      <c r="W86" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF86" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="2:32">
+      <c r="B87" t="s">
+        <v>278</v>
+      </c>
+      <c r="C87" t="s">
+        <v>291</v>
+      </c>
+      <c r="D87">
+        <v>62</v>
+      </c>
+      <c r="E87">
+        <v>62</v>
+      </c>
+      <c r="J87" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K87" t="s">
+        <v>287</v>
+      </c>
+      <c r="L87" t="s">
+        <v>36</v>
+      </c>
+      <c r="M87" t="s">
+        <v>64</v>
+      </c>
+      <c r="N87" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O87" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V87" t="s">
+        <v>96</v>
+      </c>
+      <c r="W87" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF87" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="2:32">
+      <c r="B88" t="s">
+        <v>278</v>
+      </c>
+      <c r="C88" t="s">
+        <v>291</v>
+      </c>
+      <c r="D88">
+        <v>62</v>
+      </c>
+      <c r="E88">
+        <v>62</v>
+      </c>
+      <c r="J88" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K88" t="s">
+        <v>287</v>
+      </c>
+      <c r="L88" t="s">
+        <v>36</v>
+      </c>
+      <c r="M88" t="s">
+        <v>64</v>
+      </c>
+      <c r="N88" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O88" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V88" t="s">
+        <v>97</v>
+      </c>
+      <c r="W88" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF88" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="2:32">
+      <c r="B89" t="s">
+        <v>278</v>
+      </c>
+      <c r="C89" t="s">
+        <v>291</v>
+      </c>
+      <c r="D89">
+        <v>63</v>
+      </c>
+      <c r="E89">
+        <v>63</v>
+      </c>
+      <c r="J89" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K89" t="s">
+        <v>287</v>
+      </c>
+      <c r="L89" t="s">
+        <v>36</v>
+      </c>
+      <c r="M89" t="s">
+        <v>64</v>
+      </c>
+      <c r="N89" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O89" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V89" t="s">
+        <v>98</v>
+      </c>
+      <c r="W89" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF89" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="2:32">
+      <c r="B90" t="s">
+        <v>278</v>
+      </c>
+      <c r="C90" t="s">
+        <v>291</v>
+      </c>
+      <c r="D90">
+        <v>63</v>
+      </c>
+      <c r="E90">
+        <v>63</v>
+      </c>
+      <c r="J90" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K90" t="s">
+        <v>287</v>
+      </c>
+      <c r="L90" t="s">
+        <v>36</v>
+      </c>
+      <c r="M90" t="s">
+        <v>64</v>
+      </c>
+      <c r="N90" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O90" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V90" t="s">
+        <v>99</v>
+      </c>
+      <c r="W90" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE90" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF90" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="2:32">
+      <c r="B91" t="s">
+        <v>278</v>
+      </c>
+      <c r="C91" t="s">
+        <v>291</v>
+      </c>
+      <c r="D91">
+        <v>64</v>
+      </c>
+      <c r="E91">
+        <v>64</v>
+      </c>
+      <c r="J91" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K91" t="s">
+        <v>287</v>
+      </c>
+      <c r="L91" t="s">
+        <v>36</v>
+      </c>
+      <c r="M91" t="s">
+        <v>64</v>
+      </c>
+      <c r="N91" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O91" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V91" t="s">
+        <v>297</v>
+      </c>
+      <c r="W91" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE91" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF91" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="2:32">
+      <c r="B92" t="s">
+        <v>278</v>
+      </c>
+      <c r="C92" t="s">
+        <v>291</v>
+      </c>
+      <c r="D92">
+        <v>64</v>
+      </c>
+      <c r="E92">
+        <v>64</v>
+      </c>
+      <c r="J92" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K92" t="s">
+        <v>287</v>
+      </c>
+      <c r="L92" t="s">
+        <v>36</v>
+      </c>
+      <c r="M92" t="s">
+        <v>64</v>
+      </c>
+      <c r="N92" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O92" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V92" t="s">
+        <v>299</v>
+      </c>
+      <c r="W92" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE92" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF92" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="2:32">
+      <c r="B93" t="s">
+        <v>278</v>
+      </c>
+      <c r="C93" t="s">
+        <v>291</v>
+      </c>
+      <c r="D93">
+        <v>65</v>
+      </c>
+      <c r="E93">
+        <v>65</v>
+      </c>
+      <c r="J93" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K93" t="s">
+        <v>287</v>
+      </c>
+      <c r="L93" t="s">
+        <v>36</v>
+      </c>
+      <c r="M93" t="s">
+        <v>64</v>
+      </c>
+      <c r="N93" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O93" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V93" t="s">
+        <v>298</v>
+      </c>
+      <c r="W93" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE93" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF93" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="2:32">
+      <c r="B94" t="s">
+        <v>278</v>
+      </c>
+      <c r="C94" t="s">
+        <v>291</v>
+      </c>
+      <c r="D94">
+        <v>65</v>
+      </c>
+      <c r="E94">
+        <v>65</v>
+      </c>
+      <c r="J94" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K94" t="s">
+        <v>287</v>
+      </c>
+      <c r="L94" t="s">
+        <v>36</v>
+      </c>
+      <c r="M94" t="s">
+        <v>64</v>
+      </c>
+      <c r="N94" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O94" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V94" t="s">
+        <v>300</v>
+      </c>
+      <c r="W94" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE94" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF94" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="2:32">
+      <c r="B95" t="s">
+        <v>278</v>
+      </c>
+      <c r="C95" t="s">
+        <v>291</v>
+      </c>
+      <c r="D95">
+        <v>66</v>
+      </c>
+      <c r="E95">
+        <v>66</v>
+      </c>
+      <c r="J95" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K95" t="s">
+        <v>287</v>
+      </c>
+      <c r="L95" t="s">
+        <v>36</v>
+      </c>
+      <c r="M95" t="s">
+        <v>64</v>
+      </c>
+      <c r="N95" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O95" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V95" t="s">
+        <v>301</v>
+      </c>
+      <c r="W95" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF95" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="2:32">
+      <c r="B96" t="s">
+        <v>278</v>
+      </c>
+      <c r="C96" t="s">
+        <v>291</v>
+      </c>
+      <c r="D96">
+        <v>66</v>
+      </c>
+      <c r="E96">
+        <v>66</v>
+      </c>
+      <c r="J96" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K96" t="s">
+        <v>287</v>
+      </c>
+      <c r="L96" t="s">
+        <v>36</v>
+      </c>
+      <c r="M96" t="s">
+        <v>64</v>
+      </c>
+      <c r="N96" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O96" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V96" t="s">
+        <v>302</v>
+      </c>
+      <c r="W96" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD96" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE96" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF96" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:32">
+      <c r="B97" t="s">
+        <v>278</v>
+      </c>
+      <c r="C97" t="s">
+        <v>291</v>
+      </c>
+      <c r="D97">
+        <v>67</v>
+      </c>
+      <c r="E97">
+        <v>67</v>
+      </c>
+      <c r="J97" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K97" t="s">
+        <v>287</v>
+      </c>
+      <c r="L97" t="s">
+        <v>36</v>
+      </c>
+      <c r="M97" t="s">
+        <v>64</v>
+      </c>
+      <c r="N97" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O97" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V97" t="s">
+        <v>303</v>
+      </c>
+      <c r="W97" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD97" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE97" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF97" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="1:32">
+      <c r="B98" t="s">
+        <v>278</v>
+      </c>
+      <c r="C98" t="s">
+        <v>291</v>
+      </c>
+      <c r="D98">
+        <v>67</v>
+      </c>
+      <c r="E98">
+        <v>67</v>
+      </c>
+      <c r="J98" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K98" t="s">
+        <v>287</v>
+      </c>
+      <c r="L98" t="s">
+        <v>36</v>
+      </c>
+      <c r="M98" t="s">
+        <v>64</v>
+      </c>
+      <c r="N98" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O98" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V98" t="s">
+        <v>304</v>
+      </c>
+      <c r="W98" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE98" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF98" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="1:32">
+      <c r="B99" t="s">
+        <v>278</v>
+      </c>
+      <c r="C99" t="s">
+        <v>291</v>
+      </c>
+      <c r="D99">
+        <v>68</v>
+      </c>
+      <c r="E99">
+        <v>68</v>
+      </c>
+      <c r="J99" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K99" t="s">
+        <v>287</v>
+      </c>
+      <c r="L99" t="s">
+        <v>36</v>
+      </c>
+      <c r="M99" t="s">
+        <v>64</v>
+      </c>
+      <c r="N99" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O99" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V99" t="s">
+        <v>305</v>
+      </c>
+      <c r="W99" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE99" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF99" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:32">
+      <c r="B100" t="s">
+        <v>278</v>
+      </c>
+      <c r="C100" t="s">
+        <v>291</v>
+      </c>
+      <c r="D100">
+        <v>68</v>
+      </c>
+      <c r="E100">
+        <v>68</v>
+      </c>
+      <c r="J100" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K100" t="s">
+        <v>287</v>
+      </c>
+      <c r="L100" t="s">
+        <v>36</v>
+      </c>
+      <c r="M100" t="s">
+        <v>64</v>
+      </c>
+      <c r="N100" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O100" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V100" t="s">
+        <v>306</v>
+      </c>
+      <c r="W100" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE100" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF100" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:32">
+      <c r="B101" t="s">
+        <v>278</v>
+      </c>
+      <c r="C101" t="s">
+        <v>291</v>
+      </c>
+      <c r="D101">
+        <v>69</v>
+      </c>
+      <c r="E101">
+        <v>69</v>
+      </c>
+      <c r="J101" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K101" t="s">
+        <v>287</v>
+      </c>
+      <c r="L101" t="s">
+        <v>36</v>
+      </c>
+      <c r="M101" t="s">
+        <v>64</v>
+      </c>
+      <c r="N101" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O101" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V101" t="s">
+        <v>307</v>
+      </c>
+      <c r="W101" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD101" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF101" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" spans="1:32">
+      <c r="B102" t="s">
+        <v>278</v>
+      </c>
+      <c r="C102" t="s">
+        <v>291</v>
+      </c>
+      <c r="D102">
+        <v>69</v>
+      </c>
+      <c r="E102">
+        <v>69</v>
+      </c>
+      <c r="J102" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K102" t="s">
+        <v>287</v>
+      </c>
+      <c r="L102" t="s">
+        <v>36</v>
+      </c>
+      <c r="M102" t="s">
+        <v>64</v>
+      </c>
+      <c r="N102" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O102" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V102" t="s">
+        <v>308</v>
+      </c>
+      <c r="W102" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD102" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE102" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF102" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:32">
+      <c r="B103" t="s">
+        <v>278</v>
+      </c>
+      <c r="C103" t="s">
+        <v>291</v>
+      </c>
+      <c r="D103">
+        <v>70</v>
+      </c>
+      <c r="E103">
+        <v>70</v>
+      </c>
+      <c r="J103" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K103" t="s">
+        <v>287</v>
+      </c>
+      <c r="L103" t="s">
+        <v>36</v>
+      </c>
+      <c r="M103" t="s">
+        <v>64</v>
+      </c>
+      <c r="N103" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O103" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V103" t="s">
+        <v>309</v>
+      </c>
+      <c r="W103" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD103" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE103" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF103" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="1:32">
+      <c r="B104" t="s">
+        <v>278</v>
+      </c>
+      <c r="C104" t="s">
+        <v>291</v>
+      </c>
+      <c r="D104">
+        <v>70</v>
+      </c>
+      <c r="E104">
+        <v>70</v>
+      </c>
+      <c r="J104" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K104" t="s">
+        <v>287</v>
+      </c>
+      <c r="L104" t="s">
+        <v>36</v>
+      </c>
+      <c r="M104" t="s">
+        <v>64</v>
+      </c>
+      <c r="N104" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O104" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V104" t="s">
+        <v>310</v>
+      </c>
+      <c r="W104" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD104" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE104" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF104" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="1:32">
+      <c r="B105" t="s">
+        <v>278</v>
+      </c>
+      <c r="C105" t="s">
+        <v>291</v>
+      </c>
+      <c r="D105">
+        <v>71</v>
+      </c>
+      <c r="E105">
+        <v>71</v>
+      </c>
+      <c r="J105" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K105" t="s">
+        <v>287</v>
+      </c>
+      <c r="L105" t="s">
+        <v>36</v>
+      </c>
+      <c r="M105" t="s">
+        <v>64</v>
+      </c>
+      <c r="N105" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O105" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V105" t="s">
+        <v>311</v>
+      </c>
+      <c r="W105" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD105" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE105" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF105" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:32">
+      <c r="B106" t="s">
+        <v>278</v>
+      </c>
+      <c r="C106" t="s">
+        <v>291</v>
+      </c>
+      <c r="D106">
+        <v>71</v>
+      </c>
+      <c r="E106">
+        <v>71</v>
+      </c>
+      <c r="J106" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K106" t="s">
+        <v>287</v>
+      </c>
+      <c r="L106" t="s">
+        <v>36</v>
+      </c>
+      <c r="M106" t="s">
+        <v>64</v>
+      </c>
+      <c r="N106" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O106" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="V106" t="s">
+        <v>312</v>
+      </c>
+      <c r="W106" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD106" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE106" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF106" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107" spans="1:32">
+      <c r="A107" s="27"/>
+      <c r="B107" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="C107" t="s">
+        <v>279</v>
+      </c>
+      <c r="D107">
+        <v>72</v>
+      </c>
+      <c r="E107">
+        <v>74</v>
+      </c>
+      <c r="F107" t="s">
+        <v>36</v>
+      </c>
+      <c r="H107" t="s">
+        <v>36</v>
+      </c>
+      <c r="J107" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="K107" t="s">
+        <v>206</v>
+      </c>
+      <c r="L107" t="s">
+        <v>36</v>
+      </c>
+      <c r="M107" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N107" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="O107" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="V107" t="s">
+        <v>316</v>
+      </c>
+      <c r="W107" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC107" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD107" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE107" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF107" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="108" spans="1:32">
+      <c r="B108" t="s">
+        <v>278</v>
+      </c>
+      <c r="C108" t="s">
+        <v>279</v>
+      </c>
+      <c r="D108">
+        <v>72</v>
+      </c>
+      <c r="E108">
+        <v>72</v>
+      </c>
+      <c r="J108" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K108" t="s">
+        <v>206</v>
+      </c>
+      <c r="L108" t="s">
+        <v>36</v>
+      </c>
+      <c r="M108" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N108" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="O108" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="V108" t="s">
+        <v>317</v>
+      </c>
+      <c r="W108" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC108" t="s">
+        <v>327</v>
+      </c>
+      <c r="AD108" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE108" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF108" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:32">
+      <c r="B109" t="s">
+        <v>278</v>
+      </c>
+      <c r="C109" t="s">
+        <v>279</v>
+      </c>
+      <c r="D109">
+        <v>72</v>
+      </c>
+      <c r="E109">
+        <v>72</v>
+      </c>
+      <c r="J109" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K109" t="s">
+        <v>206</v>
+      </c>
+      <c r="L109" t="s">
+        <v>36</v>
+      </c>
+      <c r="M109" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N109" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="O109" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="V109" t="s">
+        <v>318</v>
+      </c>
+      <c r="W109" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC109" t="s">
+        <v>328</v>
+      </c>
+      <c r="AD109" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE109" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF109" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" spans="1:32">
+      <c r="B110" t="s">
+        <v>278</v>
+      </c>
+      <c r="C110" t="s">
+        <v>279</v>
+      </c>
+      <c r="D110">
+        <v>72</v>
+      </c>
+      <c r="E110">
+        <v>73</v>
+      </c>
+      <c r="J110" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K110" t="s">
+        <v>206</v>
+      </c>
+      <c r="L110" t="s">
+        <v>36</v>
+      </c>
+      <c r="M110" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N110" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="O110" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="V110" t="s">
+        <v>319</v>
+      </c>
+      <c r="W110" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC110" t="s">
+        <v>328</v>
+      </c>
+      <c r="AD110" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE110" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF110" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" spans="1:32">
+      <c r="B111" t="s">
+        <v>278</v>
+      </c>
+      <c r="C111" t="s">
+        <v>279</v>
+      </c>
+      <c r="D111">
+        <v>73</v>
+      </c>
+      <c r="E111">
+        <v>73</v>
+      </c>
+      <c r="J111" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K111" t="s">
+        <v>206</v>
+      </c>
+      <c r="L111" t="s">
+        <v>36</v>
+      </c>
+      <c r="M111" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N111" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="O111" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="V111" t="s">
+        <v>320</v>
+      </c>
+      <c r="W111" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC111" t="s">
+        <v>329</v>
+      </c>
+      <c r="AD111" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE111" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF111" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="1:32">
+      <c r="B112" t="s">
+        <v>278</v>
+      </c>
+      <c r="C112" t="s">
+        <v>279</v>
+      </c>
+      <c r="D112">
+        <v>73</v>
+      </c>
+      <c r="E112">
+        <v>73</v>
+      </c>
+      <c r="J112" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K112" t="s">
+        <v>206</v>
+      </c>
+      <c r="L112" t="s">
+        <v>36</v>
+      </c>
+      <c r="M112" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N112" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="O112" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="V112" t="s">
+        <v>321</v>
+      </c>
+      <c r="W112" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC112" t="s">
+        <v>330</v>
+      </c>
+      <c r="AD112" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE112" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF112" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113" spans="2:33">
+      <c r="B113" t="s">
+        <v>278</v>
+      </c>
+      <c r="C113" t="s">
+        <v>279</v>
+      </c>
+      <c r="D113">
+        <v>73</v>
+      </c>
+      <c r="E113">
+        <v>74</v>
+      </c>
+      <c r="J113" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K113" t="s">
+        <v>206</v>
+      </c>
+      <c r="L113" t="s">
+        <v>36</v>
+      </c>
+      <c r="M113" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N113" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="O113" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="V113" t="s">
+        <v>322</v>
+      </c>
+      <c r="W113" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC113" t="s">
+        <v>332</v>
+      </c>
+      <c r="AD113" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE113" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF113" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="2:33">
+      <c r="B114" t="s">
+        <v>278</v>
+      </c>
+      <c r="C114" t="s">
+        <v>279</v>
+      </c>
+      <c r="D114">
+        <v>74</v>
+      </c>
+      <c r="E114">
+        <v>74</v>
+      </c>
+      <c r="F114" t="s">
+        <v>36</v>
+      </c>
+      <c r="H114" t="s">
+        <v>36</v>
+      </c>
+      <c r="J114" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="K114" t="s">
+        <v>288</v>
+      </c>
+      <c r="L114" t="s">
+        <v>36</v>
+      </c>
+      <c r="M114" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N114" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="O114" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="V114" t="s">
+        <v>315</v>
+      </c>
+      <c r="W114" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC114" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD114" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE114" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF114" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="115" spans="2:33">
+      <c r="B115" t="s">
+        <v>278</v>
+      </c>
+      <c r="C115" t="s">
+        <v>279</v>
+      </c>
+      <c r="D115">
+        <v>74</v>
+      </c>
+      <c r="E115">
+        <v>74</v>
+      </c>
+      <c r="J115" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K115" t="s">
+        <v>288</v>
+      </c>
+      <c r="L115" t="s">
+        <v>36</v>
+      </c>
+      <c r="M115" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N115" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="O115" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="V115" t="s">
+        <v>323</v>
+      </c>
+      <c r="W115" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC115" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD115" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE115" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF115" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="116" spans="2:33">
+      <c r="B116" t="s">
+        <v>278</v>
+      </c>
+      <c r="C116" t="s">
+        <v>195</v>
+      </c>
+      <c r="D116">
+        <v>80</v>
+      </c>
+      <c r="E116">
+        <v>82</v>
+      </c>
+      <c r="F116" t="s">
+        <v>36</v>
+      </c>
+      <c r="H116" t="s">
+        <v>36</v>
+      </c>
+      <c r="J116" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="K116" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="L116" t="s">
+        <v>35</v>
+      </c>
+      <c r="M116" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N116" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="O116" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="V116" t="s">
+        <v>283</v>
+      </c>
+      <c r="W116" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC116" t="s">
+        <v>333</v>
+      </c>
+      <c r="AD116" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE116" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF116" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="117" spans="2:33">
+      <c r="B117" t="s">
+        <v>278</v>
+      </c>
+      <c r="C117" t="s">
+        <v>280</v>
+      </c>
+      <c r="D117">
+        <v>86</v>
+      </c>
+      <c r="E117">
+        <v>87</v>
+      </c>
+      <c r="F117" t="s">
+        <v>36</v>
+      </c>
+      <c r="H117" t="s">
+        <v>36</v>
+      </c>
+      <c r="J117" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="K117" t="s">
+        <v>289</v>
+      </c>
+      <c r="L117" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M117" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N117" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="O117" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="V117" t="s">
+        <v>335</v>
+      </c>
+      <c r="W117" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC117" t="s">
+        <v>334</v>
+      </c>
+      <c r="AD117" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE117" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF117" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG117" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="118" spans="2:33" ht="15.75">
+      <c r="B118" t="s">
+        <v>278</v>
+      </c>
+      <c r="C118" t="s">
+        <v>281</v>
+      </c>
+      <c r="D118">
+        <v>87</v>
+      </c>
+      <c r="E118">
+        <v>88</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J118" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="K118" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="L118" t="s">
+        <v>36</v>
+      </c>
+      <c r="M118" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="N118" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="O118" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="V118" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="W118" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z118" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA118" s="4"/>
+      <c r="AC118" t="s">
+        <v>341</v>
+      </c>
+      <c r="AD118" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE118" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF118" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" spans="2:33" ht="15.75">
+      <c r="B119" t="s">
+        <v>278</v>
+      </c>
+      <c r="C119" t="s">
+        <v>281</v>
+      </c>
+      <c r="D119">
+        <v>88</v>
+      </c>
+      <c r="E119">
+        <v>88</v>
+      </c>
+      <c r="F119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="J119" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K119" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="L119" t="s">
+        <v>36</v>
+      </c>
+      <c r="M119" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="N119" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="O119" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="V119" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="W119" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z119" s="4"/>
+      <c r="AA119" s="4"/>
+      <c r="AC119" t="s">
+        <v>342</v>
+      </c>
+      <c r="AD119" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE119" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF119" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="120" spans="2:33" ht="15.75">
+      <c r="B120" t="s">
+        <v>278</v>
+      </c>
+      <c r="C120" t="s">
+        <v>281</v>
+      </c>
+      <c r="D120">
+        <v>88</v>
+      </c>
+      <c r="E120">
+        <v>88</v>
+      </c>
+      <c r="F120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="J120" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K120" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="L120" t="s">
+        <v>36</v>
+      </c>
+      <c r="M120" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="N120" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="O120" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="V120" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="W120" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z120" s="4"/>
+      <c r="AA120" s="4"/>
+      <c r="AC120" t="s">
+        <v>343</v>
+      </c>
+      <c r="AD120" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE120" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF120" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="121" spans="2:33" ht="15.75">
+      <c r="B121" t="s">
+        <v>278</v>
+      </c>
+      <c r="C121" t="s">
+        <v>281</v>
+      </c>
+      <c r="D121">
+        <v>88</v>
+      </c>
+      <c r="E121">
+        <v>89</v>
+      </c>
+      <c r="F121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="J121" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K121" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="L121" t="s">
+        <v>36</v>
+      </c>
+      <c r="M121" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="N121" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="O121" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="V121" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="W121" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z121" s="4"/>
+      <c r="AA121" s="4"/>
+      <c r="AC121" t="s">
+        <v>340</v>
+      </c>
+      <c r="AD121" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE121" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF121" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" spans="2:33" ht="15.75">
+      <c r="B122" t="s">
+        <v>278</v>
+      </c>
+      <c r="C122" t="s">
+        <v>282</v>
+      </c>
+      <c r="D122">
+        <v>93</v>
+      </c>
+      <c r="E122">
+        <v>94</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J122" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="L122" t="s">
+        <v>35</v>
+      </c>
+      <c r="M122" t="s">
+        <v>64</v>
+      </c>
+      <c r="N122" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="O122" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="V122" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="W122" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z122" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC122" t="s">
+        <v>347</v>
+      </c>
+      <c r="AD122" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE122" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF122" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG122" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="123" spans="2:33" ht="15.75">
+      <c r="B123" t="s">
+        <v>278</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D123">
+        <v>145</v>
+      </c>
+      <c r="E123">
+        <v>162</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J123" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L123" t="s">
+        <v>36</v>
+      </c>
+      <c r="M123" t="s">
+        <v>64</v>
+      </c>
+      <c r="N123" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O123" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V123" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="W123" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z123" t="s">
+        <v>364</v>
+      </c>
+      <c r="AB123" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD123" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE123" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF123" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="124" spans="2:33" ht="15.75">
+      <c r="B124" t="s">
+        <v>278</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D124">
+        <v>145</v>
+      </c>
+      <c r="E124">
+        <v>145</v>
+      </c>
+      <c r="F124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="J124" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K124" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L124" t="s">
+        <v>36</v>
+      </c>
+      <c r="M124" t="s">
+        <v>64</v>
+      </c>
+      <c r="N124" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O124" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V124" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="W124" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB124" s="4"/>
+      <c r="AD124" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE124" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF124" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="125" spans="2:33" ht="15.75">
+      <c r="B125" t="s">
+        <v>278</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D125">
+        <v>145</v>
+      </c>
+      <c r="E125">
+        <v>146</v>
+      </c>
+      <c r="F125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="J125" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K125" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L125" t="s">
+        <v>36</v>
+      </c>
+      <c r="M125" t="s">
+        <v>64</v>
+      </c>
+      <c r="N125" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O125" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V125" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="W125" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB125" s="4"/>
+      <c r="AD125" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE125" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF125" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" spans="2:33" ht="15.75">
+      <c r="B126" t="s">
+        <v>278</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D126">
+        <v>146</v>
+      </c>
+      <c r="E126">
+        <v>146</v>
+      </c>
+      <c r="F126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="J126" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L126" t="s">
+        <v>36</v>
+      </c>
+      <c r="M126" t="s">
+        <v>64</v>
+      </c>
+      <c r="N126" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O126" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V126" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="W126" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB126" s="4"/>
+      <c r="AD126" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE126" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF126" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127" spans="2:33" ht="15.75">
+      <c r="B127" t="s">
+        <v>278</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D127">
+        <v>146</v>
+      </c>
+      <c r="E127">
+        <v>147</v>
+      </c>
+      <c r="F127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="J127" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L127" t="s">
+        <v>36</v>
+      </c>
+      <c r="M127" t="s">
+        <v>64</v>
+      </c>
+      <c r="N127" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O127" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V127" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="W127" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB127" s="4"/>
+      <c r="AD127" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE127" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF127" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="128" spans="2:33" ht="15.75">
+      <c r="B128" t="s">
+        <v>278</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D128">
+        <v>147</v>
+      </c>
+      <c r="E128">
+        <v>147</v>
+      </c>
+      <c r="F128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="J128" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L128" t="s">
+        <v>36</v>
+      </c>
+      <c r="M128" t="s">
+        <v>64</v>
+      </c>
+      <c r="N128" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O128" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V128" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="W128" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB128" s="4"/>
+      <c r="AD128" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE128" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF128" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="129" spans="2:32" ht="15.75">
+      <c r="B129" t="s">
+        <v>278</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D129">
+        <v>147</v>
+      </c>
+      <c r="E129">
+        <v>147</v>
+      </c>
+      <c r="F129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="J129" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L129" t="s">
+        <v>36</v>
+      </c>
+      <c r="M129" t="s">
+        <v>64</v>
+      </c>
+      <c r="N129" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O129" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V129" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="W129" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB129" s="4"/>
+      <c r="AD129" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE129" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF129" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" spans="2:32" ht="15.75">
+      <c r="B130" t="s">
+        <v>278</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D130">
+        <v>148</v>
+      </c>
+      <c r="E130">
+        <v>148</v>
+      </c>
+      <c r="F130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="J130" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K130" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L130" t="s">
+        <v>36</v>
+      </c>
+      <c r="M130" t="s">
+        <v>64</v>
+      </c>
+      <c r="N130" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O130" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V130" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="W130" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB130" s="4"/>
+      <c r="AD130" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE130" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF130" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="131" spans="2:32" ht="15.75">
+      <c r="B131" t="s">
+        <v>278</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D131">
+        <v>148</v>
+      </c>
+      <c r="E131">
+        <v>148</v>
+      </c>
+      <c r="F131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="J131" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K131" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L131" t="s">
+        <v>36</v>
+      </c>
+      <c r="M131" t="s">
+        <v>64</v>
+      </c>
+      <c r="N131" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O131" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V131" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="W131" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB131" s="4"/>
+      <c r="AD131" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE131" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF131" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="132" spans="2:32" ht="15.75">
+      <c r="B132" t="s">
+        <v>278</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D132">
+        <v>149</v>
+      </c>
+      <c r="E132">
+        <v>149</v>
+      </c>
+      <c r="F132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="J132" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K132" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L132" t="s">
+        <v>36</v>
+      </c>
+      <c r="M132" t="s">
+        <v>64</v>
+      </c>
+      <c r="N132" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O132" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V132" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="W132" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB132" s="4"/>
+      <c r="AD132" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE132" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF132" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="133" spans="2:32" ht="15.75">
+      <c r="B133" t="s">
+        <v>278</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D133">
+        <v>149</v>
+      </c>
+      <c r="E133">
+        <v>149</v>
+      </c>
+      <c r="F133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="J133" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K133" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L133" t="s">
+        <v>36</v>
+      </c>
+      <c r="M133" t="s">
+        <v>64</v>
+      </c>
+      <c r="N133" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O133" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V133" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="W133" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB133" s="4"/>
+      <c r="AD133" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE133" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF133" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="134" spans="2:32" ht="15.75">
+      <c r="B134" t="s">
+        <v>278</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D134">
+        <v>150</v>
+      </c>
+      <c r="E134">
+        <v>150</v>
+      </c>
+      <c r="F134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="J134" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K134" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L134" t="s">
+        <v>36</v>
+      </c>
+      <c r="M134" t="s">
+        <v>64</v>
+      </c>
+      <c r="N134" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O134" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V134" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="W134" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB134" s="4"/>
+      <c r="AD134" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE134" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF134" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="135" spans="2:32" ht="15.75">
+      <c r="B135" t="s">
+        <v>278</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D135">
+        <v>150</v>
+      </c>
+      <c r="E135">
+        <v>150</v>
+      </c>
+      <c r="F135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="J135" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L135" t="s">
+        <v>36</v>
+      </c>
+      <c r="M135" t="s">
+        <v>64</v>
+      </c>
+      <c r="N135" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O135" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V135" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="W135" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB135" s="4"/>
+      <c r="AD135" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE135" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF135" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="136" spans="2:32" ht="15.75">
+      <c r="B136" t="s">
+        <v>278</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D136">
+        <v>151</v>
+      </c>
+      <c r="E136">
+        <v>151</v>
+      </c>
+      <c r="F136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="J136" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K136" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L136" t="s">
+        <v>36</v>
+      </c>
+      <c r="M136" t="s">
+        <v>64</v>
+      </c>
+      <c r="N136" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O136" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V136" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="W136" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB136" s="4"/>
+      <c r="AD136" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE136" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF136" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="137" spans="2:32" ht="15.75">
+      <c r="B137" t="s">
+        <v>278</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D137">
+        <v>151</v>
+      </c>
+      <c r="E137">
+        <v>151</v>
+      </c>
+      <c r="F137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="J137" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K137" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L137" t="s">
+        <v>36</v>
+      </c>
+      <c r="M137" t="s">
+        <v>64</v>
+      </c>
+      <c r="N137" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O137" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V137" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="W137" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB137" s="4"/>
+      <c r="AD137" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE137" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF137" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="138" spans="2:32" ht="15.75">
+      <c r="B138" t="s">
+        <v>278</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D138">
+        <v>152</v>
+      </c>
+      <c r="E138">
+        <v>152</v>
+      </c>
+      <c r="F138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="J138" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K138" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L138" t="s">
+        <v>36</v>
+      </c>
+      <c r="M138" t="s">
+        <v>64</v>
+      </c>
+      <c r="N138" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O138" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V138" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="W138" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB138" s="4"/>
+      <c r="AD138" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE138" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF138" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="139" spans="2:32" ht="15.75">
+      <c r="B139" t="s">
+        <v>278</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D139">
+        <v>152</v>
+      </c>
+      <c r="E139">
+        <v>152</v>
+      </c>
+      <c r="F139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="J139" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K139" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L139" t="s">
+        <v>36</v>
+      </c>
+      <c r="M139" t="s">
+        <v>64</v>
+      </c>
+      <c r="N139" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O139" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V139" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="W139" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB139" s="4"/>
+      <c r="AD139" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE139" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF139" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="140" spans="2:32" ht="15.75">
+      <c r="B140" t="s">
+        <v>278</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D140">
+        <v>153</v>
+      </c>
+      <c r="E140">
+        <v>153</v>
+      </c>
+      <c r="F140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="J140" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K140" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L140" t="s">
+        <v>36</v>
+      </c>
+      <c r="M140" t="s">
+        <v>64</v>
+      </c>
+      <c r="N140" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O140" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V140" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="W140" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB140" s="4"/>
+      <c r="AD140" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE140" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF140" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" spans="2:32" ht="15.75">
+      <c r="B141" t="s">
+        <v>278</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D141">
+        <v>153</v>
+      </c>
+      <c r="E141">
+        <v>153</v>
+      </c>
+      <c r="F141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="J141" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K141" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L141" t="s">
+        <v>36</v>
+      </c>
+      <c r="M141" t="s">
+        <v>64</v>
+      </c>
+      <c r="N141" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O141" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V141" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="W141" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB141" s="4"/>
+      <c r="AD141" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE141" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF141" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="142" spans="2:32" ht="15.75">
+      <c r="B142" t="s">
+        <v>278</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D142">
+        <v>154</v>
+      </c>
+      <c r="E142">
+        <v>154</v>
+      </c>
+      <c r="F142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="J142" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K142" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L142" t="s">
+        <v>36</v>
+      </c>
+      <c r="M142" t="s">
+        <v>64</v>
+      </c>
+      <c r="N142" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O142" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V142" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="W142" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB142" s="4"/>
+      <c r="AD142" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE142" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF142" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="143" spans="2:32" ht="15.75">
+      <c r="B143" t="s">
+        <v>278</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D143">
+        <v>154</v>
+      </c>
+      <c r="E143">
+        <v>154</v>
+      </c>
+      <c r="F143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="J143" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K143" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L143" t="s">
+        <v>36</v>
+      </c>
+      <c r="M143" t="s">
+        <v>64</v>
+      </c>
+      <c r="N143" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O143" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V143" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="W143" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB143" s="4"/>
+      <c r="AD143" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE143" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF143" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="144" spans="2:32" ht="15.75">
+      <c r="B144" t="s">
+        <v>278</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D144">
+        <v>155</v>
+      </c>
+      <c r="E144">
+        <v>155</v>
+      </c>
+      <c r="F144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="J144" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K144" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L144" t="s">
+        <v>36</v>
+      </c>
+      <c r="M144" t="s">
+        <v>64</v>
+      </c>
+      <c r="N144" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O144" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V144" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="W144" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB144" s="4"/>
+      <c r="AD144" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE144" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF144" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="145" spans="2:33" ht="15.75">
+      <c r="B145" t="s">
+        <v>278</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D145">
+        <v>155</v>
+      </c>
+      <c r="E145">
+        <v>155</v>
+      </c>
+      <c r="F145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="J145" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K145" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L145" t="s">
+        <v>36</v>
+      </c>
+      <c r="M145" t="s">
+        <v>64</v>
+      </c>
+      <c r="N145" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O145" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V145" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="W145" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB145" s="4"/>
+      <c r="AD145" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE145" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF145" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="146" spans="2:33" ht="15.75">
+      <c r="B146" t="s">
+        <v>278</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D146">
+        <v>156</v>
+      </c>
+      <c r="E146">
+        <v>156</v>
+      </c>
+      <c r="F146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="J146" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K146" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L146" t="s">
+        <v>36</v>
+      </c>
+      <c r="M146" t="s">
+        <v>64</v>
+      </c>
+      <c r="N146" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O146" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V146" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="W146" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB146" s="4"/>
+      <c r="AD146" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE146" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF146" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="147" spans="2:33" ht="15.75">
+      <c r="B147" t="s">
+        <v>278</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D147">
+        <v>156</v>
+      </c>
+      <c r="E147">
+        <v>156</v>
+      </c>
+      <c r="F147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="J147" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K147" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L147" t="s">
+        <v>36</v>
+      </c>
+      <c r="M147" t="s">
+        <v>64</v>
+      </c>
+      <c r="N147" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O147" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V147" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="W147" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB147" s="4"/>
+      <c r="AD147" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE147" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF147" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="148" spans="2:33" ht="15.75">
+      <c r="B148" t="s">
+        <v>278</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D148">
+        <v>157</v>
+      </c>
+      <c r="E148">
+        <v>157</v>
+      </c>
+      <c r="F148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="J148" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K148" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L148" t="s">
+        <v>36</v>
+      </c>
+      <c r="M148" t="s">
+        <v>64</v>
+      </c>
+      <c r="N148" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O148" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V148" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="W148" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB148" s="4"/>
+      <c r="AD148" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE148" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF148" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="149" spans="2:33" ht="15.75">
+      <c r="B149" t="s">
+        <v>278</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D149">
+        <v>157</v>
+      </c>
+      <c r="E149">
+        <v>157</v>
+      </c>
+      <c r="F149" s="4"/>
+      <c r="H149" s="4"/>
+      <c r="J149" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L149" t="s">
+        <v>36</v>
+      </c>
+      <c r="M149" t="s">
+        <v>64</v>
+      </c>
+      <c r="N149" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O149" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V149" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="W149" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB149" s="4"/>
+      <c r="AD149" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE149" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF149" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="150" spans="2:33" ht="15.75">
+      <c r="B150" t="s">
+        <v>278</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D150">
+        <v>158</v>
+      </c>
+      <c r="E150">
+        <v>158</v>
+      </c>
+      <c r="F150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="J150" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K150" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L150" t="s">
+        <v>36</v>
+      </c>
+      <c r="M150" t="s">
+        <v>64</v>
+      </c>
+      <c r="N150" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O150" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V150" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="W150" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB150" s="4"/>
+      <c r="AD150" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE150" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF150" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="151" spans="2:33" ht="15.75">
+      <c r="B151" t="s">
+        <v>278</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D151">
+        <v>158</v>
+      </c>
+      <c r="E151">
+        <v>158</v>
+      </c>
+      <c r="F151" s="4"/>
+      <c r="H151" s="4"/>
+      <c r="J151" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K151" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L151" t="s">
+        <v>36</v>
+      </c>
+      <c r="M151" t="s">
+        <v>64</v>
+      </c>
+      <c r="N151" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O151" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V151" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="W151" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB151" s="4"/>
+      <c r="AD151" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE151" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF151" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="152" spans="2:33" ht="15.75">
+      <c r="B152" t="s">
+        <v>278</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D152">
+        <v>159</v>
+      </c>
+      <c r="E152">
+        <v>159</v>
+      </c>
+      <c r="F152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="J152" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K152" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L152" t="s">
+        <v>36</v>
+      </c>
+      <c r="M152" t="s">
+        <v>64</v>
+      </c>
+      <c r="N152" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O152" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V152" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="W152" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB152" s="4"/>
+      <c r="AD152" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE152" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF152" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="153" spans="2:33" ht="15.75">
+      <c r="B153" t="s">
+        <v>278</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D153">
+        <v>159</v>
+      </c>
+      <c r="E153">
+        <v>159</v>
+      </c>
+      <c r="F153" s="4"/>
+      <c r="H153" s="4"/>
+      <c r="J153" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K153" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L153" t="s">
+        <v>36</v>
+      </c>
+      <c r="M153" t="s">
+        <v>64</v>
+      </c>
+      <c r="N153" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O153" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V153" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="W153" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB153" s="4"/>
+      <c r="AD153" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE153" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF153" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="154" spans="2:33" ht="15.75">
+      <c r="B154" t="s">
+        <v>278</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D154">
+        <v>160</v>
+      </c>
+      <c r="E154">
+        <v>160</v>
+      </c>
+      <c r="F154" s="4"/>
+      <c r="H154" s="4"/>
+      <c r="J154" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K154" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L154" t="s">
+        <v>36</v>
+      </c>
+      <c r="M154" t="s">
+        <v>64</v>
+      </c>
+      <c r="N154" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O154" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V154" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="W154" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB154" s="4"/>
+      <c r="AD154" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE154" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF154" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="155" spans="2:33" ht="15.75">
+      <c r="B155" t="s">
+        <v>278</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D155">
+        <v>160</v>
+      </c>
+      <c r="E155">
+        <v>160</v>
+      </c>
+      <c r="F155" s="4"/>
+      <c r="H155" s="4"/>
+      <c r="J155" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K155" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L155" t="s">
+        <v>36</v>
+      </c>
+      <c r="M155" t="s">
+        <v>64</v>
+      </c>
+      <c r="N155" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O155" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V155" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="W155" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB155" s="4"/>
+      <c r="AD155" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE155" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF155" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="156" spans="2:33" ht="15.75">
+      <c r="B156" t="s">
+        <v>278</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D156">
+        <v>161</v>
+      </c>
+      <c r="E156">
+        <v>161</v>
+      </c>
+      <c r="F156" s="4"/>
+      <c r="H156" s="4"/>
+      <c r="J156" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K156" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L156" t="s">
+        <v>36</v>
+      </c>
+      <c r="M156" t="s">
+        <v>64</v>
+      </c>
+      <c r="N156" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O156" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V156" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="W156" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB156" s="4"/>
+      <c r="AD156" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE156" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF156" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="157" spans="2:33" ht="15.75">
+      <c r="B157" t="s">
+        <v>278</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D157">
+        <v>161</v>
+      </c>
+      <c r="E157">
+        <v>161</v>
+      </c>
+      <c r="F157" s="4"/>
+      <c r="H157" s="4"/>
+      <c r="J157" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K157" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L157" t="s">
+        <v>36</v>
+      </c>
+      <c r="M157" t="s">
+        <v>64</v>
+      </c>
+      <c r="N157" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O157" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V157" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="W157" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB157" s="4"/>
+      <c r="AD157" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE157" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF157" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="158" spans="2:33" ht="15.75">
+      <c r="B158" t="s">
+        <v>278</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D158">
+        <v>162</v>
+      </c>
+      <c r="E158">
+        <v>162</v>
+      </c>
+      <c r="F158" s="4"/>
+      <c r="H158" s="4"/>
+      <c r="J158" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K158" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L158" t="s">
+        <v>36</v>
+      </c>
+      <c r="M158" t="s">
+        <v>64</v>
+      </c>
+      <c r="N158" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O158" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V158" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="W158" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB158" s="4"/>
+      <c r="AD158" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE158" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF158" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="159" spans="2:33" ht="15.75">
+      <c r="B159" t="s">
+        <v>278</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D159">
+        <v>162</v>
+      </c>
+      <c r="E159">
+        <v>162</v>
+      </c>
+      <c r="F159" s="4"/>
+      <c r="H159" s="4"/>
+      <c r="J159" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K159" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L159" t="s">
+        <v>36</v>
+      </c>
+      <c r="M159" t="s">
+        <v>64</v>
+      </c>
+      <c r="N159" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O159" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V159" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="W159" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB159" s="4"/>
+      <c r="AD159" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE159" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF159" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="160" spans="2:33" ht="15.75">
+      <c r="B160" t="s">
+        <v>278</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D160">
+        <v>163</v>
+      </c>
+      <c r="E160">
+        <v>166</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J160" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K160" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L160" t="s">
+        <v>36</v>
+      </c>
+      <c r="M160" t="s">
+        <v>64</v>
+      </c>
+      <c r="N160" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O160" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V160" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="W160" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB160" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD160" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE160" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF160" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG160" s="13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="161" spans="2:33" ht="15.75">
+      <c r="B161" t="s">
+        <v>278</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D161">
+        <v>164</v>
+      </c>
+      <c r="E161">
+        <v>164</v>
+      </c>
+      <c r="F161" s="4"/>
+      <c r="H161" s="4"/>
+      <c r="J161" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K161" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L161" t="s">
+        <v>36</v>
+      </c>
+      <c r="M161" t="s">
+        <v>64</v>
+      </c>
+      <c r="N161" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O161" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V161" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="W161" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB161" s="4"/>
+      <c r="AD161" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE161" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF161" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG161" s="13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="162" spans="2:33" ht="15.75">
+      <c r="B162" t="s">
+        <v>278</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D162">
+        <v>164</v>
+      </c>
+      <c r="E162">
+        <v>164</v>
+      </c>
+      <c r="F162" s="4"/>
+      <c r="H162" s="4"/>
+      <c r="J162" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K162" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L162" t="s">
+        <v>36</v>
+      </c>
+      <c r="M162" t="s">
+        <v>64</v>
+      </c>
+      <c r="N162" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O162" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V162" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="W162" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB162" s="4"/>
+      <c r="AD162" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE162" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF162" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG162" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="163" spans="2:33" ht="15.75">
+      <c r="B163" t="s">
+        <v>278</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D163">
+        <v>165</v>
+      </c>
+      <c r="E163">
+        <v>165</v>
+      </c>
+      <c r="F163" s="4"/>
+      <c r="H163" s="4"/>
+      <c r="J163" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K163" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L163" t="s">
+        <v>36</v>
+      </c>
+      <c r="M163" t="s">
+        <v>64</v>
+      </c>
+      <c r="N163" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O163" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V163" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="W163" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB163" s="4"/>
+      <c r="AD163" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE163" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF163" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG163" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="164" spans="2:33" ht="15.75">
+      <c r="B164" t="s">
+        <v>278</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D164">
+        <v>165</v>
+      </c>
+      <c r="E164">
+        <v>165</v>
+      </c>
+      <c r="F164" s="4"/>
+      <c r="H164" s="4"/>
+      <c r="J164" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K164" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L164" t="s">
+        <v>36</v>
+      </c>
+      <c r="M164" t="s">
+        <v>64</v>
+      </c>
+      <c r="N164" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O164" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V164" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="W164" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB164" s="4"/>
+      <c r="AD164" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE164" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF164" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG164" s="13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="165" spans="2:33" ht="15.75">
+      <c r="B165" t="s">
+        <v>278</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D165">
+        <v>166</v>
+      </c>
+      <c r="E165">
+        <v>166</v>
+      </c>
+      <c r="F165" s="4"/>
+      <c r="H165" s="4"/>
+      <c r="J165" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K165" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L165" t="s">
+        <v>36</v>
+      </c>
+      <c r="M165" t="s">
+        <v>64</v>
+      </c>
+      <c r="N165" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O165" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V165" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="W165" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB165" s="4"/>
+      <c r="AD165" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE165" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF165" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG165" s="13" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="166" spans="2:33" ht="15.75">
+      <c r="B166" t="s">
+        <v>278</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D166">
+        <v>166</v>
+      </c>
+      <c r="E166">
+        <v>166</v>
+      </c>
+      <c r="F166" s="4"/>
+      <c r="H166" s="4"/>
+      <c r="J166" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K166" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L166" t="s">
+        <v>36</v>
+      </c>
+      <c r="M166" t="s">
+        <v>64</v>
+      </c>
+      <c r="N166" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O166" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="V166" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="W166" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB166" s="4"/>
+      <c r="AD166" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE166" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF166" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG166" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="167" spans="2:33" ht="15.75">
+      <c r="B167" t="s">
+        <v>278</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D167">
+        <v>167</v>
+      </c>
+      <c r="E167">
+        <v>170</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J167" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K167" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L167" t="s">
+        <v>36</v>
+      </c>
+      <c r="M167" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N167" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="O167" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="V167" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="W167" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC167" s="4"/>
+      <c r="AD167" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE167" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF167" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="168" spans="2:33" ht="15.75">
+      <c r="B168" t="s">
+        <v>278</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D168">
+        <v>167</v>
+      </c>
+      <c r="E168">
+        <v>169</v>
+      </c>
+      <c r="F168" s="4"/>
+      <c r="H168" s="4"/>
+      <c r="J168" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K168" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L168" t="s">
+        <v>36</v>
+      </c>
+      <c r="M168" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N168" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="O168" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="V168" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="W168" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA168" s="4"/>
+      <c r="AC168" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="AD168" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE168" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF168" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="169" spans="2:33" ht="15.75">
+      <c r="B169" t="s">
+        <v>278</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D169">
+        <v>169</v>
+      </c>
+      <c r="E169">
+        <v>170</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J169" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K169" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L169" t="s">
+        <v>36</v>
+      </c>
+      <c r="M169" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N169" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="O169" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="V169" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="W169" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC169" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="AD169" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE169" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF169" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="170" spans="2:33" ht="15.75">
+      <c r="B170" t="s">
+        <v>278</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D170">
+        <v>173</v>
+      </c>
+      <c r="E170">
+        <v>176</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J170" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K170" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="L170" t="s">
+        <v>35</v>
+      </c>
+      <c r="M170" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N170" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="O170" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="V170" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="W170" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z170" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB170" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC170" s="4"/>
+      <c r="AD170" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE170" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF170" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="171" spans="2:33" ht="15.75">
+      <c r="B171" t="s">
+        <v>278</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D171">
+        <v>176</v>
+      </c>
+      <c r="E171">
+        <v>177</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J171" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K171" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="L171" t="s">
+        <v>35</v>
+      </c>
+      <c r="M171" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N171" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="O171" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="V171" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="W171" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z171" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB171" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC171" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="AD171" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE171" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF171" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="172" spans="2:33" ht="15.75">
+      <c r="B172" t="s">
+        <v>278</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D172">
+        <v>181</v>
+      </c>
+      <c r="E172">
+        <v>181</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J172" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K172" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="L172" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M172" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N172" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="O172" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="V172" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="W172" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC172" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD172" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="AE172" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF172" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG172" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="173" spans="2:33" ht="15.75">
+      <c r="B173" t="s">
+        <v>278</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D173">
+        <v>181</v>
+      </c>
+      <c r="E173">
+        <v>181</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J173" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K173" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="L173" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M173" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N173" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="O173" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="V173" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="W173" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA173" s="4"/>
+      <c r="AC173" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="AD173" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE173" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF173" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG173" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="174" spans="2:33" ht="15.75">
+      <c r="B174" t="s">
+        <v>278</v>
+      </c>
+      <c r="D174">
+        <v>183</v>
+      </c>
+      <c r="E174">
+        <v>183</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J174" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K174" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="L174" t="s">
+        <v>35</v>
+      </c>
+      <c r="M174" t="s">
+        <v>61</v>
+      </c>
+      <c r="N174" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="O174" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="V174" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="W174" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC174" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="AD174" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE174" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF174" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="175" spans="2:33" ht="15.75">
+      <c r="B175" t="s">
+        <v>278</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D175">
+        <v>184</v>
+      </c>
+      <c r="E175">
+        <v>185</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J175" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K175" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="L175" t="s">
+        <v>35</v>
+      </c>
+      <c r="M175" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="N175" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="O175" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="V175" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="W175" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB175" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="AC175" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="AD175" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE175" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF175" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG175" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="176" spans="2:33" ht="15.75">
+      <c r="B176" t="s">
+        <v>278</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="D176">
+        <v>187</v>
+      </c>
+      <c r="E176">
+        <v>187</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H176" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J176" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K176" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L176" t="s">
+        <v>36</v>
+      </c>
+      <c r="M176" t="s">
+        <v>61</v>
+      </c>
+      <c r="N176" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="O176" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="V176" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="W176" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z176" s="4"/>
+      <c r="AD176" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE176" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF176" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="177" spans="2:32" ht="15.75">
+      <c r="B177" t="s">
+        <v>278</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D177">
+        <v>187</v>
+      </c>
+      <c r="E177">
+        <v>187</v>
+      </c>
+      <c r="J177" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K177" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L177" t="s">
+        <v>36</v>
+      </c>
+      <c r="M177" t="s">
+        <v>61</v>
+      </c>
+      <c r="N177" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="O177" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="V177" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="W177" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD177" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE177" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF177" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="178" spans="2:32" ht="15.75">
+      <c r="B178" t="s">
+        <v>278</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D178">
+        <v>187</v>
+      </c>
+      <c r="E178">
+        <v>187</v>
+      </c>
+      <c r="J178" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K178" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L178" t="s">
+        <v>36</v>
+      </c>
+      <c r="M178" t="s">
+        <v>61</v>
+      </c>
+      <c r="N178" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="O178" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="V178" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="W178" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD178" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE178" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF178" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="179" spans="2:32" ht="15.75">
+      <c r="B179" t="s">
+        <v>278</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D179">
+        <v>187</v>
+      </c>
+      <c r="E179">
+        <v>187</v>
+      </c>
+      <c r="J179" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K179" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L179" t="s">
+        <v>36</v>
+      </c>
+      <c r="M179" t="s">
+        <v>61</v>
+      </c>
+      <c r="N179" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="O179" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="V179" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="W179" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD179" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE179" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF179" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="180" spans="2:32" ht="15.75">
+      <c r="B180" t="s">
+        <v>278</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D180">
+        <v>187</v>
+      </c>
+      <c r="E180">
+        <v>187</v>
+      </c>
+      <c r="J180" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K180" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L180" t="s">
+        <v>36</v>
+      </c>
+      <c r="M180" t="s">
+        <v>61</v>
+      </c>
+      <c r="N180" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="O180" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="V180" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="W180" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD180" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE180" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF180" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="181" spans="2:32" ht="15.75">
+      <c r="B181" t="s">
+        <v>278</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D181">
+        <v>187</v>
+      </c>
+      <c r="E181">
+        <v>187</v>
+      </c>
+      <c r="J181" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K181" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L181" t="s">
+        <v>36</v>
+      </c>
+      <c r="M181" t="s">
+        <v>61</v>
+      </c>
+      <c r="N181" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="O181" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="V181" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="W181" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD181" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE181" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF181" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="182" spans="2:32" ht="15.75">
+      <c r="B182" t="s">
+        <v>278</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D182">
+        <v>188</v>
+      </c>
+      <c r="E182">
+        <v>188</v>
+      </c>
+      <c r="J182" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K182" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L182" t="s">
+        <v>36</v>
+      </c>
+      <c r="M182" t="s">
+        <v>61</v>
+      </c>
+      <c r="N182" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="O182" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="V182" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="W182" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD182" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE182" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF182" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="183" spans="2:32" ht="15.75">
+      <c r="B183" t="s">
+        <v>278</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D183">
+        <v>188</v>
+      </c>
+      <c r="E183">
+        <v>188</v>
+      </c>
+      <c r="J183" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K183" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L183" t="s">
+        <v>36</v>
+      </c>
+      <c r="M183" t="s">
+        <v>61</v>
+      </c>
+      <c r="N183" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="O183" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="V183" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="W183" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD183" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE183" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF183" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="184" spans="2:32" ht="15.75">
+      <c r="B184" t="s">
+        <v>278</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D184">
+        <v>188</v>
+      </c>
+      <c r="E184">
+        <v>188</v>
+      </c>
+      <c r="J184" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K184" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L184" t="s">
+        <v>36</v>
+      </c>
+      <c r="M184" t="s">
+        <v>61</v>
+      </c>
+      <c r="N184" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="O184" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="V184" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="W184" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD184" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE184" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF184" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="185" spans="2:32" ht="15.75">
+      <c r="B185" t="s">
+        <v>278</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D185">
+        <v>188</v>
+      </c>
+      <c r="E185">
+        <v>188</v>
+      </c>
+      <c r="J185" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K185" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L185" t="s">
+        <v>36</v>
+      </c>
+      <c r="M185" t="s">
+        <v>61</v>
+      </c>
+      <c r="N185" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="O185" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="V185" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="W185" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD185" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE185" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF185" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="186" spans="2:32" ht="15.75">
+      <c r="B186" t="s">
+        <v>278</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D186">
+        <v>188</v>
+      </c>
+      <c r="E186">
+        <v>188</v>
+      </c>
+      <c r="J186" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K186" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L186" t="s">
+        <v>36</v>
+      </c>
+      <c r="M186" t="s">
+        <v>61</v>
+      </c>
+      <c r="N186" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="O186" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="V186" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="W186" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD186" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE186" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF186" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="187" spans="2:32" ht="15.75">
+      <c r="B187" t="s">
+        <v>278</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D187">
+        <v>188</v>
+      </c>
+      <c r="E187">
+        <v>188</v>
+      </c>
+      <c r="J187" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K187" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L187" t="s">
+        <v>36</v>
+      </c>
+      <c r="M187" t="s">
+        <v>61</v>
+      </c>
+      <c r="N187" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="O187" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="V187" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="W187" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD187" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE187" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF187" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="188" spans="2:32" ht="15.75">
+      <c r="B188" t="s">
+        <v>278</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D188">
+        <v>188</v>
+      </c>
+      <c r="E188">
+        <v>188</v>
+      </c>
+      <c r="J188" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K188" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L188" t="s">
+        <v>36</v>
+      </c>
+      <c r="M188" t="s">
+        <v>61</v>
+      </c>
+      <c r="N188" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="O188" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="V188" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="W188" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC188" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD188" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE188" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF188" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="189" spans="2:32" ht="15.75">
+      <c r="V189" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Datasets/Frommann/Data/FrommannGesamt_FS.xlsx
+++ b/Datasets/Frommann/Data/FrommannGesamt_FS.xlsx
@@ -6744,7 +6744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6793,12 +6793,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7124,7 +7118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00AED28-36F7-44AC-9E56-C3D452D7691B}">
   <dimension ref="A1:AH1209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G39" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K202" sqref="K202:R202"/>
     </sheetView>
   </sheetViews>
@@ -12408,7 +12402,7 @@
       <c r="J94" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K94" s="34" t="s">
+      <c r="K94" s="20" t="s">
         <v>180</v>
       </c>
       <c r="L94" t="s">
@@ -12467,7 +12461,7 @@
       <c r="J95" s="11" t="s">
         <v>1293</v>
       </c>
-      <c r="K95" s="32" t="s">
+      <c r="K95" t="s">
         <v>116</v>
       </c>
       <c r="L95" t="s">
@@ -12491,7 +12485,6 @@
       <c r="X95" t="s">
         <v>34</v>
       </c>
-      <c r="AA95" s="32"/>
       <c r="AD95" t="s">
         <v>860</v>
       </c>
@@ -12527,7 +12520,7 @@
       <c r="J96" s="11" t="s">
         <v>1293</v>
       </c>
-      <c r="K96" s="34" t="s">
+      <c r="K96" s="20" t="s">
         <v>181</v>
       </c>
       <c r="L96" t="s">
@@ -12551,7 +12544,7 @@
       <c r="X96" t="s">
         <v>34</v>
       </c>
-      <c r="AA96" s="32" t="s">
+      <c r="AA96" t="s">
         <v>2130</v>
       </c>
       <c r="AD96" t="s">
@@ -12583,7 +12576,7 @@
       <c r="J97" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K97" s="34" t="s">
+      <c r="K97" s="20" t="s">
         <v>181</v>
       </c>
       <c r="L97" t="s">
@@ -12607,7 +12600,7 @@
       <c r="X97" t="s">
         <v>34</v>
       </c>
-      <c r="AA97" s="32" t="s">
+      <c r="AA97" t="s">
         <v>2130</v>
       </c>
       <c r="AD97" t="s">
@@ -12645,7 +12638,7 @@
       <c r="J98" s="11" t="s">
         <v>1293</v>
       </c>
-      <c r="K98" s="32" t="s">
+      <c r="K98" t="s">
         <v>182</v>
       </c>
       <c r="L98" t="s">
@@ -12669,7 +12662,6 @@
       <c r="X98" t="s">
         <v>34</v>
       </c>
-      <c r="AA98" s="32"/>
       <c r="AD98" t="s">
         <v>2131</v>
       </c>
@@ -18145,24 +18137,21 @@
       <c r="J202" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K202" s="32" t="s">
+      <c r="K202" t="s">
         <v>322</v>
       </c>
-      <c r="L202" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="M202" s="32" t="s">
+      <c r="L202" t="s">
+        <v>34</v>
+      </c>
+      <c r="M202" t="s">
         <v>96</v>
       </c>
-      <c r="N202" s="35" t="s">
+      <c r="N202" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="O202" s="35" t="s">
+      <c r="O202" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="P202" s="35"/>
-      <c r="Q202" s="35"/>
-      <c r="R202" s="35"/>
       <c r="V202" t="s">
         <v>313</v>
       </c>
@@ -32172,7 +32161,7 @@
       <c r="J459" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K459" s="32" t="s">
+      <c r="K459" t="s">
         <v>180</v>
       </c>
       <c r="L459" t="s">
@@ -32234,7 +32223,7 @@
       <c r="J460" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K460" s="32" t="s">
+      <c r="K460" t="s">
         <v>648</v>
       </c>
       <c r="L460" t="s">
@@ -32258,7 +32247,7 @@
       <c r="X460" t="s">
         <v>34</v>
       </c>
-      <c r="AA460" s="32" t="s">
+      <c r="AA460" t="s">
         <v>657</v>
       </c>
       <c r="AD460" t="s">
@@ -32293,7 +32282,7 @@
       <c r="J461" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K461" s="32" t="s">
+      <c r="K461" t="s">
         <v>118</v>
       </c>
       <c r="L461" t="s">
@@ -32317,7 +32306,7 @@
       <c r="X461" t="s">
         <v>34</v>
       </c>
-      <c r="AA461" s="32" t="s">
+      <c r="AA461" t="s">
         <v>658</v>
       </c>
       <c r="AD461" t="s">
@@ -32346,7 +32335,7 @@
       <c r="J462" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K462" s="32" t="s">
+      <c r="K462" t="s">
         <v>118</v>
       </c>
       <c r="L462" t="s">
@@ -32370,7 +32359,7 @@
       <c r="X462" t="s">
         <v>34</v>
       </c>
-      <c r="AA462" s="32" t="s">
+      <c r="AA462" t="s">
         <v>658</v>
       </c>
       <c r="AD462" t="s">
@@ -32399,7 +32388,7 @@
       <c r="J463" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K463" s="32" t="s">
+      <c r="K463" t="s">
         <v>118</v>
       </c>
       <c r="L463" t="s">
@@ -32423,7 +32412,7 @@
       <c r="X463" t="s">
         <v>34</v>
       </c>
-      <c r="AA463" s="32" t="s">
+      <c r="AA463" t="s">
         <v>658</v>
       </c>
       <c r="AD463" t="s">
@@ -32461,7 +32450,7 @@
       <c r="J464" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K464" s="32" t="s">
+      <c r="K464" t="s">
         <v>622</v>
       </c>
       <c r="L464" t="s">
@@ -32485,7 +32474,6 @@
       <c r="X464" t="s">
         <v>34</v>
       </c>
-      <c r="AA464" s="32"/>
       <c r="AD464" t="s">
         <v>898</v>
       </c>
@@ -32518,7 +32506,7 @@
       <c r="J465" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K465" s="32" t="s">
+      <c r="K465" t="s">
         <v>103</v>
       </c>
       <c r="L465" t="s">
@@ -37814,7 +37802,7 @@
       <c r="J562" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="K562" s="32" t="s">
+      <c r="K562" t="s">
         <v>103</v>
       </c>
       <c r="L562" t="s">
@@ -37838,7 +37826,7 @@
       <c r="X562" t="s">
         <v>34</v>
       </c>
-      <c r="AA562" s="32" t="s">
+      <c r="AA562" t="s">
         <v>2197</v>
       </c>
       <c r="AD562" t="s">
@@ -39769,7 +39757,7 @@
       <c r="J595" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="K595" s="32" t="s">
+      <c r="K595" t="s">
         <v>103</v>
       </c>
       <c r="L595" t="s">
@@ -39793,7 +39781,7 @@
       <c r="X595" t="s">
         <v>34</v>
       </c>
-      <c r="AA595" s="32" t="s">
+      <c r="AA595" t="s">
         <v>2164</v>
       </c>
       <c r="AD595" t="s">
@@ -41782,7 +41770,7 @@
       <c r="J628" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K628" s="32" t="s">
+      <c r="K628" t="s">
         <v>1174</v>
       </c>
       <c r="L628" t="s">
@@ -41806,7 +41794,7 @@
       <c r="X628" t="s">
         <v>34</v>
       </c>
-      <c r="AA628" s="32" t="s">
+      <c r="AA628" t="s">
         <v>1124</v>
       </c>
       <c r="AC628" t="s">
@@ -41847,7 +41835,7 @@
       <c r="J629" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K629" s="32" t="s">
+      <c r="K629" t="s">
         <v>1174</v>
       </c>
       <c r="L629" t="s">
@@ -41871,7 +41859,7 @@
       <c r="X629" t="s">
         <v>34</v>
       </c>
-      <c r="AA629" s="32" t="s">
+      <c r="AA629" t="s">
         <v>1124</v>
       </c>
       <c r="AC629" t="s">
@@ -41912,7 +41900,7 @@
       <c r="J630" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K630" s="32" t="s">
+      <c r="K630" t="s">
         <v>1174</v>
       </c>
       <c r="L630" t="s">
@@ -41936,7 +41924,7 @@
       <c r="X630" t="s">
         <v>34</v>
       </c>
-      <c r="AA630" s="32" t="s">
+      <c r="AA630" t="s">
         <v>1124</v>
       </c>
       <c r="AC630" t="s">
@@ -41977,7 +41965,7 @@
       <c r="J631" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K631" s="32" t="s">
+      <c r="K631" t="s">
         <v>1174</v>
       </c>
       <c r="L631" t="s">
@@ -42001,7 +41989,7 @@
       <c r="X631" t="s">
         <v>34</v>
       </c>
-      <c r="AA631" s="32" t="s">
+      <c r="AA631" t="s">
         <v>1124</v>
       </c>
       <c r="AC631" t="s">
@@ -42042,7 +42030,7 @@
       <c r="J632" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K632" s="32" t="s">
+      <c r="K632" t="s">
         <v>1174</v>
       </c>
       <c r="L632" t="s">
@@ -42066,7 +42054,7 @@
       <c r="X632" t="s">
         <v>34</v>
       </c>
-      <c r="AA632" s="32" t="s">
+      <c r="AA632" t="s">
         <v>1124</v>
       </c>
       <c r="AC632" t="s">
@@ -42107,7 +42095,7 @@
       <c r="J633" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K633" s="32" t="s">
+      <c r="K633" t="s">
         <v>1174</v>
       </c>
       <c r="L633" t="s">
@@ -42131,7 +42119,7 @@
       <c r="X633" t="s">
         <v>34</v>
       </c>
-      <c r="AA633" s="32" t="s">
+      <c r="AA633" t="s">
         <v>1124</v>
       </c>
       <c r="AC633" t="s">
@@ -42172,7 +42160,7 @@
       <c r="J634" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K634" s="32" t="s">
+      <c r="K634" t="s">
         <v>1185</v>
       </c>
       <c r="L634" t="s">
@@ -42196,7 +42184,7 @@
       <c r="X634" t="s">
         <v>34</v>
       </c>
-      <c r="AA634" s="32" t="s">
+      <c r="AA634" t="s">
         <v>1187</v>
       </c>
       <c r="AD634" t="s">
@@ -42231,7 +42219,7 @@
       <c r="J635" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K635" s="32" t="s">
+      <c r="K635" t="s">
         <v>1185</v>
       </c>
       <c r="L635" t="s">
@@ -42255,7 +42243,7 @@
       <c r="X635" t="s">
         <v>34</v>
       </c>
-      <c r="AA635" s="32" t="s">
+      <c r="AA635" t="s">
         <v>1187</v>
       </c>
       <c r="AD635" t="s">
@@ -42290,7 +42278,7 @@
       <c r="J636" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K636" s="32" t="s">
+      <c r="K636" t="s">
         <v>1185</v>
       </c>
       <c r="L636" t="s">
@@ -42314,7 +42302,7 @@
       <c r="X636" t="s">
         <v>34</v>
       </c>
-      <c r="AA636" s="32" t="s">
+      <c r="AA636" t="s">
         <v>1187</v>
       </c>
       <c r="AD636" t="s">
@@ -42349,7 +42337,7 @@
       <c r="J637" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K637" s="32" t="s">
+      <c r="K637" t="s">
         <v>1185</v>
       </c>
       <c r="L637" t="s">
@@ -42373,7 +42361,7 @@
       <c r="X637" t="s">
         <v>34</v>
       </c>
-      <c r="AA637" s="32" t="s">
+      <c r="AA637" t="s">
         <v>1187</v>
       </c>
       <c r="AD637" t="s">
@@ -42414,7 +42402,7 @@
       <c r="J638" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K638" s="32" t="s">
+      <c r="K638" t="s">
         <v>1185</v>
       </c>
       <c r="L638" t="s">
@@ -42438,7 +42426,7 @@
       <c r="X638" t="s">
         <v>34</v>
       </c>
-      <c r="AA638" s="32" t="s">
+      <c r="AA638" t="s">
         <v>1187</v>
       </c>
       <c r="AD638" t="s">
@@ -42686,7 +42674,7 @@
       <c r="J642" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K642" s="32" t="s">
+      <c r="K642" t="s">
         <v>1331</v>
       </c>
       <c r="L642" t="s">
@@ -42710,7 +42698,7 @@
       <c r="X642" t="s">
         <v>34</v>
       </c>
-      <c r="AA642" s="32" t="s">
+      <c r="AA642" t="s">
         <v>1323</v>
       </c>
       <c r="AC642" t="s">
@@ -42745,7 +42733,7 @@
       <c r="J643" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K643" s="32" t="s">
+      <c r="K643" t="s">
         <v>1331</v>
       </c>
       <c r="L643" t="s">
@@ -42769,7 +42757,7 @@
       <c r="X643" t="s">
         <v>34</v>
       </c>
-      <c r="AA643" s="32" t="s">
+      <c r="AA643" t="s">
         <v>1323</v>
       </c>
       <c r="AD643" t="s">
@@ -42810,7 +42798,7 @@
       <c r="J644" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K644" s="32" t="s">
+      <c r="K644" t="s">
         <v>1327</v>
       </c>
       <c r="L644" t="s">
@@ -42834,7 +42822,7 @@
       <c r="X644" t="s">
         <v>34</v>
       </c>
-      <c r="AA644" s="32" t="s">
+      <c r="AA644" t="s">
         <v>1323</v>
       </c>
       <c r="AC644" t="s">
@@ -42902,7 +42890,7 @@
       <c r="X645" t="s">
         <v>34</v>
       </c>
-      <c r="AA645" s="32" t="s">
+      <c r="AA645" t="s">
         <v>1323</v>
       </c>
       <c r="AC645" t="s">
@@ -42961,7 +42949,7 @@
       <c r="X646" t="s">
         <v>34</v>
       </c>
-      <c r="AA646" s="32" t="s">
+      <c r="AA646" t="s">
         <v>1323</v>
       </c>
       <c r="AD646" t="s">
@@ -43002,7 +42990,7 @@
       <c r="J647" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K647" s="32" t="s">
+      <c r="K647" t="s">
         <v>1141</v>
       </c>
       <c r="L647" t="s">
@@ -43026,7 +43014,7 @@
       <c r="X647" t="s">
         <v>34</v>
       </c>
-      <c r="AA647" s="32" t="s">
+      <c r="AA647" t="s">
         <v>1323</v>
       </c>
       <c r="AC647" t="s">
@@ -45098,7 +45086,7 @@
       <c r="J683" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K683" s="32" t="s">
+      <c r="K683" t="s">
         <v>1421</v>
       </c>
       <c r="L683" t="s">
@@ -45122,7 +45110,7 @@
       <c r="X683" t="s">
         <v>34</v>
       </c>
-      <c r="AA683" s="32" t="s">
+      <c r="AA683" t="s">
         <v>1419</v>
       </c>
       <c r="AD683" t="s">
@@ -45163,7 +45151,7 @@
       <c r="J684" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K684" s="32" t="s">
+      <c r="K684" t="s">
         <v>1421</v>
       </c>
       <c r="L684" t="s">
@@ -45187,7 +45175,7 @@
       <c r="X684" t="s">
         <v>34</v>
       </c>
-      <c r="AA684" s="32" t="s">
+      <c r="AA684" t="s">
         <v>1419</v>
       </c>
       <c r="AD684" t="s">
@@ -45228,7 +45216,7 @@
       <c r="J685" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K685" s="32" t="s">
+      <c r="K685" t="s">
         <v>1421</v>
       </c>
       <c r="L685" t="s">
@@ -45252,7 +45240,7 @@
       <c r="X685" t="s">
         <v>34</v>
       </c>
-      <c r="AA685" s="32" t="s">
+      <c r="AA685" t="s">
         <v>1419</v>
       </c>
       <c r="AD685" t="s">
@@ -45293,7 +45281,7 @@
       <c r="J686" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K686" s="32" t="s">
+      <c r="K686" t="s">
         <v>1421</v>
       </c>
       <c r="L686" t="s">
@@ -45317,7 +45305,7 @@
       <c r="X686" t="s">
         <v>34</v>
       </c>
-      <c r="AA686" s="32" t="s">
+      <c r="AA686" t="s">
         <v>1419</v>
       </c>
       <c r="AD686" t="s">
@@ -45358,7 +45346,7 @@
       <c r="J687" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K687" s="32" t="s">
+      <c r="K687" t="s">
         <v>1421</v>
       </c>
       <c r="L687" t="s">
@@ -45382,7 +45370,7 @@
       <c r="X687" t="s">
         <v>34</v>
       </c>
-      <c r="AA687" s="32" t="s">
+      <c r="AA687" t="s">
         <v>1419</v>
       </c>
       <c r="AD687" t="s">
@@ -45417,7 +45405,7 @@
       <c r="J688" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K688" s="32" t="s">
+      <c r="K688" t="s">
         <v>1421</v>
       </c>
       <c r="L688" t="s">
@@ -45441,7 +45429,7 @@
       <c r="X688" t="s">
         <v>34</v>
       </c>
-      <c r="AA688" s="32" t="s">
+      <c r="AA688" t="s">
         <v>1419</v>
       </c>
       <c r="AD688" t="s">
@@ -45482,7 +45470,7 @@
       <c r="J689" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K689" s="32" t="s">
+      <c r="K689" t="s">
         <v>1428</v>
       </c>
       <c r="L689" t="s">
@@ -45506,7 +45494,7 @@
       <c r="X689" t="s">
         <v>34</v>
       </c>
-      <c r="AA689" s="32" t="s">
+      <c r="AA689" t="s">
         <v>1429</v>
       </c>
       <c r="AD689" t="s">
@@ -45541,7 +45529,7 @@
       <c r="J690" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K690" s="32" t="s">
+      <c r="K690" t="s">
         <v>1428</v>
       </c>
       <c r="L690" t="s">
@@ -45565,7 +45553,7 @@
       <c r="X690" t="s">
         <v>34</v>
       </c>
-      <c r="AA690" s="32" t="s">
+      <c r="AA690" t="s">
         <v>1429</v>
       </c>
       <c r="AD690" t="s">
@@ -45600,7 +45588,7 @@
       <c r="J691" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K691" s="32" t="s">
+      <c r="K691" t="s">
         <v>1428</v>
       </c>
       <c r="L691" t="s">
@@ -45624,7 +45612,7 @@
       <c r="X691" t="s">
         <v>34</v>
       </c>
-      <c r="AA691" s="32" t="s">
+      <c r="AA691" t="s">
         <v>1429</v>
       </c>
       <c r="AD691" t="s">
@@ -45659,7 +45647,7 @@
       <c r="J692" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K692" s="32" t="s">
+      <c r="K692" t="s">
         <v>1428</v>
       </c>
       <c r="L692" t="s">
@@ -45683,7 +45671,7 @@
       <c r="X692" t="s">
         <v>34</v>
       </c>
-      <c r="AA692" s="32" t="s">
+      <c r="AA692" t="s">
         <v>1429</v>
       </c>
       <c r="AD692" t="s">
@@ -45718,7 +45706,7 @@
       <c r="J693" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K693" s="32" t="s">
+      <c r="K693" t="s">
         <v>1428</v>
       </c>
       <c r="L693" t="s">
@@ -45742,7 +45730,7 @@
       <c r="X693" t="s">
         <v>34</v>
       </c>
-      <c r="AA693" s="32" t="s">
+      <c r="AA693" t="s">
         <v>1429</v>
       </c>
       <c r="AD693" t="s">
@@ -45777,7 +45765,7 @@
       <c r="J694" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K694" s="32" t="s">
+      <c r="K694" t="s">
         <v>1428</v>
       </c>
       <c r="L694" t="s">
@@ -45801,7 +45789,7 @@
       <c r="X694" t="s">
         <v>34</v>
       </c>
-      <c r="AA694" s="32" t="s">
+      <c r="AA694" t="s">
         <v>1429</v>
       </c>
       <c r="AD694" t="s">
@@ -45836,7 +45824,7 @@
       <c r="J695" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K695" s="32" t="s">
+      <c r="K695" t="s">
         <v>1428</v>
       </c>
       <c r="L695" t="s">
@@ -45860,7 +45848,7 @@
       <c r="X695" t="s">
         <v>34</v>
       </c>
-      <c r="AA695" s="32" t="s">
+      <c r="AA695" t="s">
         <v>1429</v>
       </c>
       <c r="AD695" t="s">
@@ -45895,7 +45883,7 @@
       <c r="J696" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K696" s="32" t="s">
+      <c r="K696" t="s">
         <v>1428</v>
       </c>
       <c r="L696" t="s">
@@ -45919,7 +45907,7 @@
       <c r="X696" t="s">
         <v>34</v>
       </c>
-      <c r="AA696" s="32" t="s">
+      <c r="AA696" t="s">
         <v>1429</v>
       </c>
       <c r="AD696" t="s">
@@ -45954,7 +45942,7 @@
       <c r="J697" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K697" s="32" t="s">
+      <c r="K697" t="s">
         <v>1428</v>
       </c>
       <c r="L697" t="s">
@@ -45978,7 +45966,7 @@
       <c r="X697" t="s">
         <v>34</v>
       </c>
-      <c r="AA697" s="32" t="s">
+      <c r="AA697" t="s">
         <v>1429</v>
       </c>
       <c r="AD697" t="s">
@@ -46013,7 +46001,7 @@
       <c r="J698" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K698" s="32" t="s">
+      <c r="K698" t="s">
         <v>1428</v>
       </c>
       <c r="L698" t="s">
@@ -46037,7 +46025,7 @@
       <c r="X698" t="s">
         <v>34</v>
       </c>
-      <c r="AA698" s="32" t="s">
+      <c r="AA698" t="s">
         <v>1429</v>
       </c>
       <c r="AD698" t="s">
@@ -46072,7 +46060,7 @@
       <c r="J699" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K699" s="32" t="s">
+      <c r="K699" t="s">
         <v>1428</v>
       </c>
       <c r="L699" t="s">
@@ -46096,7 +46084,7 @@
       <c r="X699" t="s">
         <v>34</v>
       </c>
-      <c r="AA699" s="32" t="s">
+      <c r="AA699" t="s">
         <v>1429</v>
       </c>
       <c r="AD699" t="s">
@@ -46131,7 +46119,7 @@
       <c r="J700" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K700" s="32" t="s">
+      <c r="K700" t="s">
         <v>1428</v>
       </c>
       <c r="L700" t="s">
@@ -46155,7 +46143,7 @@
       <c r="X700" t="s">
         <v>34</v>
       </c>
-      <c r="AA700" s="32" t="s">
+      <c r="AA700" t="s">
         <v>1429</v>
       </c>
       <c r="AD700" t="s">
@@ -46190,7 +46178,7 @@
       <c r="J701" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K701" s="32" t="s">
+      <c r="K701" t="s">
         <v>1428</v>
       </c>
       <c r="L701" t="s">
@@ -46214,7 +46202,7 @@
       <c r="X701" t="s">
         <v>34</v>
       </c>
-      <c r="AA701" s="32" t="s">
+      <c r="AA701" t="s">
         <v>1429</v>
       </c>
       <c r="AD701" t="s">
@@ -46249,7 +46237,7 @@
       <c r="J702" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K702" s="32" t="s">
+      <c r="K702" t="s">
         <v>1428</v>
       </c>
       <c r="L702" t="s">
@@ -46273,7 +46261,7 @@
       <c r="X702" t="s">
         <v>34</v>
       </c>
-      <c r="AA702" s="32" t="s">
+      <c r="AA702" t="s">
         <v>1429</v>
       </c>
       <c r="AD702" t="s">
@@ -46308,7 +46296,7 @@
       <c r="J703" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K703" s="32" t="s">
+      <c r="K703" t="s">
         <v>1428</v>
       </c>
       <c r="L703" t="s">
@@ -46332,7 +46320,7 @@
       <c r="X703" t="s">
         <v>34</v>
       </c>
-      <c r="AA703" s="32" t="s">
+      <c r="AA703" t="s">
         <v>1429</v>
       </c>
       <c r="AD703" t="s">
@@ -46367,7 +46355,7 @@
       <c r="J704" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K704" s="32" t="s">
+      <c r="K704" t="s">
         <v>1428</v>
       </c>
       <c r="L704" t="s">
@@ -46391,7 +46379,7 @@
       <c r="X704" t="s">
         <v>34</v>
       </c>
-      <c r="AA704" s="32" t="s">
+      <c r="AA704" t="s">
         <v>1429</v>
       </c>
       <c r="AD704" t="s">
@@ -46432,7 +46420,7 @@
       <c r="J705" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K705" s="32" t="s">
+      <c r="K705" t="s">
         <v>1280</v>
       </c>
       <c r="L705" t="s">
@@ -46456,7 +46444,7 @@
       <c r="X705" t="s">
         <v>34</v>
       </c>
-      <c r="AA705" s="32" t="s">
+      <c r="AA705" t="s">
         <v>1437</v>
       </c>
       <c r="AD705" t="s">
@@ -46497,7 +46485,7 @@
       <c r="J706" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K706" s="32" t="s">
+      <c r="K706" t="s">
         <v>1280</v>
       </c>
       <c r="L706" t="s">
@@ -46521,7 +46509,7 @@
       <c r="X706" t="s">
         <v>34</v>
       </c>
-      <c r="AA706" s="32" t="s">
+      <c r="AA706" t="s">
         <v>1437</v>
       </c>
       <c r="AD706" t="s">
@@ -46562,7 +46550,7 @@
       <c r="J707" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K707" s="32" t="s">
+      <c r="K707" t="s">
         <v>1280</v>
       </c>
       <c r="L707" t="s">
@@ -46586,7 +46574,7 @@
       <c r="X707" t="s">
         <v>34</v>
       </c>
-      <c r="AA707" s="32" t="s">
+      <c r="AA707" t="s">
         <v>1437</v>
       </c>
       <c r="AD707" t="s">
@@ -46627,7 +46615,7 @@
       <c r="J708" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K708" s="32" t="s">
+      <c r="K708" t="s">
         <v>1280</v>
       </c>
       <c r="L708" t="s">
@@ -46651,7 +46639,7 @@
       <c r="X708" t="s">
         <v>34</v>
       </c>
-      <c r="AA708" s="32" t="s">
+      <c r="AA708" t="s">
         <v>1437</v>
       </c>
       <c r="AD708" t="s">
@@ -46716,7 +46704,7 @@
       <c r="X709" t="s">
         <v>34</v>
       </c>
-      <c r="AA709" s="32" t="s">
+      <c r="AA709" t="s">
         <v>1443</v>
       </c>
       <c r="AD709" t="s">
@@ -46775,7 +46763,6 @@
       <c r="X710" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AA710" s="32"/>
       <c r="AE710" t="s">
         <v>34</v>
       </c>
@@ -47457,7 +47444,7 @@
       <c r="J722" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K722" s="32" t="s">
+      <c r="K722" t="s">
         <v>178</v>
       </c>
       <c r="L722" t="s">
@@ -47481,7 +47468,7 @@
       <c r="X722" t="s">
         <v>34</v>
       </c>
-      <c r="AA722" s="32" t="s">
+      <c r="AA722" t="s">
         <v>1466</v>
       </c>
       <c r="AD722" t="s">
@@ -47513,7 +47500,7 @@
       <c r="J723" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K723" s="32" t="s">
+      <c r="K723" t="s">
         <v>178</v>
       </c>
       <c r="L723" t="s">
@@ -47537,7 +47524,7 @@
       <c r="X723" t="s">
         <v>34</v>
       </c>
-      <c r="AA723" s="32" t="s">
+      <c r="AA723" t="s">
         <v>1466</v>
       </c>
       <c r="AD723" t="s">
@@ -55085,7 +55072,7 @@
       <c r="J858" s="11" t="s">
         <v>1293</v>
       </c>
-      <c r="K858" s="32" t="s">
+      <c r="K858" t="s">
         <v>1289</v>
       </c>
       <c r="L858" t="s">
@@ -55109,7 +55096,7 @@
       <c r="X858" t="s">
         <v>34</v>
       </c>
-      <c r="AA858" s="32" t="s">
+      <c r="AA858" t="s">
         <v>1546</v>
       </c>
       <c r="AD858" t="s">
@@ -55150,7 +55137,7 @@
       <c r="J859" s="11" t="s">
         <v>1293</v>
       </c>
-      <c r="K859" s="34" t="s">
+      <c r="K859" s="20" t="s">
         <v>1290</v>
       </c>
       <c r="L859" t="s">
@@ -55174,7 +55161,7 @@
       <c r="X859" t="s">
         <v>34</v>
       </c>
-      <c r="AA859" s="32" t="s">
+      <c r="AA859" t="s">
         <v>1547</v>
       </c>
       <c r="AD859" t="s">
@@ -55212,7 +55199,7 @@
       <c r="J860" s="11" t="s">
         <v>1293</v>
       </c>
-      <c r="K860" s="32" t="s">
+      <c r="K860" t="s">
         <v>248</v>
       </c>
       <c r="L860" t="s">
@@ -55236,7 +55223,7 @@
       <c r="X860" t="s">
         <v>34</v>
       </c>
-      <c r="AA860" s="32" t="s">
+      <c r="AA860" t="s">
         <v>1286</v>
       </c>
       <c r="AD860" t="s">
@@ -55274,7 +55261,7 @@
       <c r="J861" s="11" t="s">
         <v>1293</v>
       </c>
-      <c r="K861" s="34" t="s">
+      <c r="K861" s="20" t="s">
         <v>1291</v>
       </c>
       <c r="L861" t="s">
@@ -55298,7 +55285,7 @@
       <c r="X861" t="s">
         <v>34</v>
       </c>
-      <c r="AA861" s="32" t="s">
+      <c r="AA861" t="s">
         <v>1555</v>
       </c>
       <c r="AD861" t="s">
@@ -55790,7 +55777,7 @@
       <c r="J870" s="11" t="s">
         <v>1293</v>
       </c>
-      <c r="K870" s="32" t="s">
+      <c r="K870" t="s">
         <v>178</v>
       </c>
       <c r="L870" t="s">
@@ -55814,7 +55801,7 @@
       <c r="X870" t="s">
         <v>34</v>
       </c>
-      <c r="AA870" s="32" t="s">
+      <c r="AA870" t="s">
         <v>1580</v>
       </c>
       <c r="AD870" t="s">
@@ -55846,7 +55833,7 @@
       <c r="J871" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K871" s="32" t="s">
+      <c r="K871" t="s">
         <v>178</v>
       </c>
       <c r="L871" t="s">
@@ -55870,7 +55857,7 @@
       <c r="X871" t="s">
         <v>34</v>
       </c>
-      <c r="AA871" s="32" t="s">
+      <c r="AA871" t="s">
         <v>1580</v>
       </c>
       <c r="AD871" t="s">
@@ -55902,7 +55889,7 @@
       <c r="J872" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K872" s="32" t="s">
+      <c r="K872" t="s">
         <v>178</v>
       </c>
       <c r="L872" t="s">
@@ -55926,7 +55913,7 @@
       <c r="X872" t="s">
         <v>34</v>
       </c>
-      <c r="AA872" s="32" t="s">
+      <c r="AA872" t="s">
         <v>1580</v>
       </c>
       <c r="AD872" t="s">
@@ -55958,7 +55945,7 @@
       <c r="J873" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K873" s="32" t="s">
+      <c r="K873" t="s">
         <v>178</v>
       </c>
       <c r="L873" t="s">
@@ -55982,7 +55969,7 @@
       <c r="X873" t="s">
         <v>34</v>
       </c>
-      <c r="AA873" s="32" t="s">
+      <c r="AA873" t="s">
         <v>1580</v>
       </c>
       <c r="AD873" t="s">
@@ -56014,7 +56001,7 @@
       <c r="J874" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K874" s="32" t="s">
+      <c r="K874" t="s">
         <v>178</v>
       </c>
       <c r="L874" t="s">
@@ -56038,7 +56025,7 @@
       <c r="X874" t="s">
         <v>34</v>
       </c>
-      <c r="AA874" s="32" t="s">
+      <c r="AA874" t="s">
         <v>1580</v>
       </c>
       <c r="AD874" t="s">
@@ -56070,7 +56057,7 @@
       <c r="J875" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K875" s="32" t="s">
+      <c r="K875" t="s">
         <v>178</v>
       </c>
       <c r="L875" t="s">
@@ -56094,7 +56081,7 @@
       <c r="X875" t="s">
         <v>34</v>
       </c>
-      <c r="AA875" s="32" t="s">
+      <c r="AA875" t="s">
         <v>1580</v>
       </c>
       <c r="AD875" t="s">
@@ -56126,7 +56113,7 @@
       <c r="J876" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K876" s="32" t="s">
+      <c r="K876" t="s">
         <v>178</v>
       </c>
       <c r="L876" t="s">
@@ -56150,7 +56137,7 @@
       <c r="X876" t="s">
         <v>34</v>
       </c>
-      <c r="AA876" s="32" t="s">
+      <c r="AA876" t="s">
         <v>1580</v>
       </c>
       <c r="AD876" t="s">
@@ -56182,7 +56169,7 @@
       <c r="J877" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K877" s="32" t="s">
+      <c r="K877" t="s">
         <v>178</v>
       </c>
       <c r="L877" t="s">
@@ -56206,7 +56193,7 @@
       <c r="X877" t="s">
         <v>34</v>
       </c>
-      <c r="AA877" s="32" t="s">
+      <c r="AA877" t="s">
         <v>1580</v>
       </c>
       <c r="AD877" t="s">
@@ -56238,7 +56225,7 @@
       <c r="J878" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K878" s="32" t="s">
+      <c r="K878" t="s">
         <v>178</v>
       </c>
       <c r="L878" t="s">
@@ -56262,7 +56249,7 @@
       <c r="X878" t="s">
         <v>34</v>
       </c>
-      <c r="AA878" s="32" t="s">
+      <c r="AA878" t="s">
         <v>1580</v>
       </c>
       <c r="AD878" t="s">
@@ -56294,7 +56281,7 @@
       <c r="J879" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K879" s="32" t="s">
+      <c r="K879" t="s">
         <v>178</v>
       </c>
       <c r="L879" t="s">
@@ -56318,7 +56305,7 @@
       <c r="X879" t="s">
         <v>34</v>
       </c>
-      <c r="AA879" s="32" t="s">
+      <c r="AA879" t="s">
         <v>1580</v>
       </c>
       <c r="AD879" t="s">
@@ -56350,7 +56337,7 @@
       <c r="J880" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K880" s="32" t="s">
+      <c r="K880" t="s">
         <v>178</v>
       </c>
       <c r="L880" t="s">
@@ -56374,7 +56361,7 @@
       <c r="X880" t="s">
         <v>34</v>
       </c>
-      <c r="AA880" s="32" t="s">
+      <c r="AA880" t="s">
         <v>1580</v>
       </c>
       <c r="AD880" t="s">
@@ -56406,7 +56393,7 @@
       <c r="J881" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K881" s="32" t="s">
+      <c r="K881" t="s">
         <v>178</v>
       </c>
       <c r="L881" t="s">
@@ -56430,7 +56417,7 @@
       <c r="X881" t="s">
         <v>34</v>
       </c>
-      <c r="AA881" s="32" t="s">
+      <c r="AA881" t="s">
         <v>1580</v>
       </c>
       <c r="AD881" t="s">
@@ -56462,7 +56449,7 @@
       <c r="J882" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K882" s="32" t="s">
+      <c r="K882" t="s">
         <v>178</v>
       </c>
       <c r="L882" t="s">
@@ -56486,7 +56473,7 @@
       <c r="X882" t="s">
         <v>34</v>
       </c>
-      <c r="AA882" s="32" t="s">
+      <c r="AA882" t="s">
         <v>1580</v>
       </c>
       <c r="AE882" t="s">
@@ -56515,7 +56502,7 @@
       <c r="J883" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K883" s="32" t="s">
+      <c r="K883" t="s">
         <v>178</v>
       </c>
       <c r="L883" t="s">
@@ -56539,7 +56526,7 @@
       <c r="X883" t="s">
         <v>34</v>
       </c>
-      <c r="AA883" s="32" t="s">
+      <c r="AA883" t="s">
         <v>1580</v>
       </c>
       <c r="AD883" t="s">
@@ -56571,7 +56558,7 @@
       <c r="J884" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K884" s="32" t="s">
+      <c r="K884" t="s">
         <v>178</v>
       </c>
       <c r="L884" t="s">
@@ -56595,7 +56582,7 @@
       <c r="X884" t="s">
         <v>34</v>
       </c>
-      <c r="AA884" s="32" t="s">
+      <c r="AA884" t="s">
         <v>1580</v>
       </c>
       <c r="AD884" t="s">
@@ -56627,7 +56614,7 @@
       <c r="J885" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K885" s="32" t="s">
+      <c r="K885" t="s">
         <v>178</v>
       </c>
       <c r="L885" t="s">
@@ -56651,7 +56638,7 @@
       <c r="X885" t="s">
         <v>34</v>
       </c>
-      <c r="AA885" s="32" t="s">
+      <c r="AA885" t="s">
         <v>1580</v>
       </c>
       <c r="AD885" t="s">
@@ -56683,7 +56670,7 @@
       <c r="J886" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K886" s="32" t="s">
+      <c r="K886" t="s">
         <v>178</v>
       </c>
       <c r="L886" t="s">
@@ -56707,7 +56694,7 @@
       <c r="X886" t="s">
         <v>34</v>
       </c>
-      <c r="AA886" s="32" t="s">
+      <c r="AA886" t="s">
         <v>1580</v>
       </c>
       <c r="AD886" t="s">
@@ -56739,7 +56726,7 @@
       <c r="J887" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K887" s="32" t="s">
+      <c r="K887" t="s">
         <v>178</v>
       </c>
       <c r="L887" t="s">
@@ -56763,7 +56750,7 @@
       <c r="X887" t="s">
         <v>34</v>
       </c>
-      <c r="AA887" s="32" t="s">
+      <c r="AA887" t="s">
         <v>1580</v>
       </c>
       <c r="AD887" t="s">
@@ -56801,7 +56788,7 @@
       <c r="J888" s="11" t="s">
         <v>1293</v>
       </c>
-      <c r="K888" s="32" t="s">
+      <c r="K888" t="s">
         <v>1292</v>
       </c>
       <c r="L888" t="s">
@@ -56825,7 +56812,7 @@
       <c r="X888" t="s">
         <v>34</v>
       </c>
-      <c r="AA888" s="32" t="s">
+      <c r="AA888" t="s">
         <v>1288</v>
       </c>
       <c r="AD888" t="s">
@@ -56857,7 +56844,7 @@
       <c r="J889" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K889" s="32" t="s">
+      <c r="K889" t="s">
         <v>1292</v>
       </c>
       <c r="L889" t="s">
@@ -56881,7 +56868,7 @@
       <c r="X889" t="s">
         <v>34</v>
       </c>
-      <c r="AA889" s="32" t="s">
+      <c r="AA889" t="s">
         <v>1288</v>
       </c>
       <c r="AD889" t="s">
@@ -56913,7 +56900,7 @@
       <c r="J890" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K890" s="32" t="s">
+      <c r="K890" t="s">
         <v>1292</v>
       </c>
       <c r="L890" t="s">
@@ -56937,7 +56924,7 @@
       <c r="X890" t="s">
         <v>34</v>
       </c>
-      <c r="AA890" s="32" t="s">
+      <c r="AA890" t="s">
         <v>1288</v>
       </c>
       <c r="AD890" t="s">
@@ -56969,7 +56956,7 @@
       <c r="J891" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K891" s="32" t="s">
+      <c r="K891" t="s">
         <v>1292</v>
       </c>
       <c r="L891" t="s">
@@ -56993,7 +56980,7 @@
       <c r="X891" t="s">
         <v>34</v>
       </c>
-      <c r="AA891" s="32" t="s">
+      <c r="AA891" t="s">
         <v>1288</v>
       </c>
       <c r="AD891" t="s">
@@ -57025,7 +57012,7 @@
       <c r="J892" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K892" s="32" t="s">
+      <c r="K892" t="s">
         <v>1292</v>
       </c>
       <c r="L892" t="s">
@@ -57049,7 +57036,7 @@
       <c r="X892" t="s">
         <v>34</v>
       </c>
-      <c r="AA892" s="32" t="s">
+      <c r="AA892" t="s">
         <v>1288</v>
       </c>
       <c r="AD892" t="s">
@@ -57081,7 +57068,7 @@
       <c r="J893" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K893" s="32" t="s">
+      <c r="K893" t="s">
         <v>1292</v>
       </c>
       <c r="L893" t="s">
@@ -57105,7 +57092,7 @@
       <c r="X893" t="s">
         <v>34</v>
       </c>
-      <c r="AA893" s="32" t="s">
+      <c r="AA893" t="s">
         <v>1288</v>
       </c>
       <c r="AD893" t="s">
@@ -57137,7 +57124,7 @@
       <c r="J894" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K894" s="32" t="s">
+      <c r="K894" t="s">
         <v>1292</v>
       </c>
       <c r="L894" t="s">
@@ -57161,7 +57148,7 @@
       <c r="X894" t="s">
         <v>34</v>
       </c>
-      <c r="AA894" s="32" t="s">
+      <c r="AA894" t="s">
         <v>1288</v>
       </c>
       <c r="AD894" t="s">
@@ -57193,7 +57180,7 @@
       <c r="J895" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K895" s="32" t="s">
+      <c r="K895" t="s">
         <v>1292</v>
       </c>
       <c r="L895" t="s">
@@ -57217,7 +57204,7 @@
       <c r="X895" t="s">
         <v>34</v>
       </c>
-      <c r="AA895" s="32" t="s">
+      <c r="AA895" t="s">
         <v>1288</v>
       </c>
       <c r="AD895" t="s">
@@ -57249,7 +57236,7 @@
       <c r="J896" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K896" s="32" t="s">
+      <c r="K896" t="s">
         <v>1292</v>
       </c>
       <c r="L896" t="s">
@@ -57273,7 +57260,7 @@
       <c r="X896" t="s">
         <v>34</v>
       </c>
-      <c r="AA896" s="32" t="s">
+      <c r="AA896" t="s">
         <v>1288</v>
       </c>
       <c r="AD896" t="s">
@@ -57305,7 +57292,7 @@
       <c r="J897" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K897" s="32" t="s">
+      <c r="K897" t="s">
         <v>1292</v>
       </c>
       <c r="L897" t="s">
@@ -57329,7 +57316,7 @@
       <c r="X897" t="s">
         <v>34</v>
       </c>
-      <c r="AA897" s="32" t="s">
+      <c r="AA897" t="s">
         <v>1288</v>
       </c>
       <c r="AD897" t="s">
@@ -57361,7 +57348,7 @@
       <c r="J898" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K898" s="32" t="s">
+      <c r="K898" t="s">
         <v>1292</v>
       </c>
       <c r="L898" t="s">
@@ -57385,7 +57372,7 @@
       <c r="X898" t="s">
         <v>34</v>
       </c>
-      <c r="AA898" s="32" t="s">
+      <c r="AA898" t="s">
         <v>1288</v>
       </c>
       <c r="AD898" t="s">
@@ -57417,7 +57404,7 @@
       <c r="J899" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K899" s="32" t="s">
+      <c r="K899" t="s">
         <v>1292</v>
       </c>
       <c r="L899" t="s">
@@ -57441,7 +57428,7 @@
       <c r="X899" t="s">
         <v>34</v>
       </c>
-      <c r="AA899" s="32" t="s">
+      <c r="AA899" t="s">
         <v>1288</v>
       </c>
       <c r="AD899" t="s">
@@ -57473,7 +57460,7 @@
       <c r="J900" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K900" s="32" t="s">
+      <c r="K900" t="s">
         <v>1292</v>
       </c>
       <c r="L900" t="s">
@@ -57497,7 +57484,7 @@
       <c r="X900" t="s">
         <v>34</v>
       </c>
-      <c r="AA900" s="32" t="s">
+      <c r="AA900" t="s">
         <v>1288</v>
       </c>
       <c r="AD900" t="s">
@@ -57529,7 +57516,7 @@
       <c r="J901" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K901" s="32" t="s">
+      <c r="K901" t="s">
         <v>1292</v>
       </c>
       <c r="L901" t="s">
@@ -57553,7 +57540,7 @@
       <c r="X901" t="s">
         <v>34</v>
       </c>
-      <c r="AA901" s="32" t="s">
+      <c r="AA901" t="s">
         <v>1288</v>
       </c>
       <c r="AD901" t="s">
@@ -57585,7 +57572,7 @@
       <c r="J902" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K902" s="32" t="s">
+      <c r="K902" t="s">
         <v>1292</v>
       </c>
       <c r="L902" t="s">
@@ -57609,7 +57596,7 @@
       <c r="X902" t="s">
         <v>34</v>
       </c>
-      <c r="AA902" s="32" t="s">
+      <c r="AA902" t="s">
         <v>1288</v>
       </c>
       <c r="AD902" t="s">
@@ -57641,7 +57628,7 @@
       <c r="J903" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K903" s="32" t="s">
+      <c r="K903" t="s">
         <v>1292</v>
       </c>
       <c r="L903" t="s">
@@ -57665,7 +57652,7 @@
       <c r="X903" t="s">
         <v>34</v>
       </c>
-      <c r="AA903" s="32" t="s">
+      <c r="AA903" t="s">
         <v>1288</v>
       </c>
       <c r="AD903" t="s">
@@ -57697,7 +57684,7 @@
       <c r="J904" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K904" s="32" t="s">
+      <c r="K904" t="s">
         <v>1292</v>
       </c>
       <c r="L904" t="s">
@@ -57721,7 +57708,7 @@
       <c r="X904" t="s">
         <v>34</v>
       </c>
-      <c r="AA904" s="32" t="s">
+      <c r="AA904" t="s">
         <v>1288</v>
       </c>
       <c r="AD904" t="s">
@@ -57753,7 +57740,7 @@
       <c r="J905" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K905" s="32" t="s">
+      <c r="K905" t="s">
         <v>1292</v>
       </c>
       <c r="L905" t="s">
@@ -57777,7 +57764,7 @@
       <c r="X905" t="s">
         <v>34</v>
       </c>
-      <c r="AA905" s="32" t="s">
+      <c r="AA905" t="s">
         <v>1288</v>
       </c>
       <c r="AD905" t="s">
@@ -57809,7 +57796,7 @@
       <c r="J906" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K906" s="32" t="s">
+      <c r="K906" t="s">
         <v>1292</v>
       </c>
       <c r="L906" t="s">
@@ -57833,7 +57820,7 @@
       <c r="X906" t="s">
         <v>34</v>
       </c>
-      <c r="AA906" s="32" t="s">
+      <c r="AA906" t="s">
         <v>1288</v>
       </c>
       <c r="AD906" t="s">
@@ -57865,7 +57852,7 @@
       <c r="J907" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K907" s="32" t="s">
+      <c r="K907" t="s">
         <v>1292</v>
       </c>
       <c r="L907" t="s">
@@ -57889,7 +57876,7 @@
       <c r="X907" t="s">
         <v>34</v>
       </c>
-      <c r="AA907" s="32" t="s">
+      <c r="AA907" t="s">
         <v>1288</v>
       </c>
       <c r="AD907" t="s">
@@ -57927,7 +57914,7 @@
       <c r="J908" s="11" t="s">
         <v>1293</v>
       </c>
-      <c r="K908" s="34" t="s">
+      <c r="K908" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L908" t="s">
@@ -57951,7 +57938,7 @@
       <c r="X908" t="s">
         <v>34</v>
       </c>
-      <c r="AA908" s="32" t="s">
+      <c r="AA908" t="s">
         <v>1287</v>
       </c>
       <c r="AD908" t="s">
@@ -57986,7 +57973,7 @@
       <c r="J909" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K909" s="34" t="s">
+      <c r="K909" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L909" t="s">
@@ -58010,7 +57997,7 @@
       <c r="X909" t="s">
         <v>34</v>
       </c>
-      <c r="AA909" s="32" t="s">
+      <c r="AA909" t="s">
         <v>1287</v>
       </c>
       <c r="AD909" t="s">
@@ -58045,7 +58032,7 @@
       <c r="J910" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K910" s="34" t="s">
+      <c r="K910" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L910" t="s">
@@ -58069,7 +58056,7 @@
       <c r="X910" t="s">
         <v>34</v>
       </c>
-      <c r="AA910" s="32" t="s">
+      <c r="AA910" t="s">
         <v>1287</v>
       </c>
       <c r="AD910" t="s">
@@ -58104,7 +58091,7 @@
       <c r="J911" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K911" s="34" t="s">
+      <c r="K911" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L911" t="s">
@@ -58128,7 +58115,7 @@
       <c r="X911" t="s">
         <v>34</v>
       </c>
-      <c r="AA911" s="32" t="s">
+      <c r="AA911" t="s">
         <v>1287</v>
       </c>
       <c r="AD911" t="s">
@@ -58163,7 +58150,7 @@
       <c r="J912" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K912" s="34" t="s">
+      <c r="K912" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L912" t="s">
@@ -58187,7 +58174,7 @@
       <c r="X912" t="s">
         <v>34</v>
       </c>
-      <c r="AA912" s="32" t="s">
+      <c r="AA912" t="s">
         <v>1287</v>
       </c>
       <c r="AD912" t="s">
@@ -58222,7 +58209,7 @@
       <c r="J913" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K913" s="34" t="s">
+      <c r="K913" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L913" t="s">
@@ -58246,7 +58233,7 @@
       <c r="X913" t="s">
         <v>34</v>
       </c>
-      <c r="AA913" s="32" t="s">
+      <c r="AA913" t="s">
         <v>1287</v>
       </c>
       <c r="AD913" t="s">
@@ -58281,7 +58268,7 @@
       <c r="J914" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K914" s="34" t="s">
+      <c r="K914" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L914" t="s">
@@ -58305,7 +58292,7 @@
       <c r="X914" t="s">
         <v>34</v>
       </c>
-      <c r="AA914" s="32" t="s">
+      <c r="AA914" t="s">
         <v>1287</v>
       </c>
       <c r="AD914" t="s">
@@ -58340,7 +58327,7 @@
       <c r="J915" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K915" s="34" t="s">
+      <c r="K915" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L915" t="s">
@@ -58364,7 +58351,7 @@
       <c r="X915" t="s">
         <v>34</v>
       </c>
-      <c r="AA915" s="32" t="s">
+      <c r="AA915" t="s">
         <v>1287</v>
       </c>
       <c r="AD915" t="s">
@@ -58399,7 +58386,7 @@
       <c r="J916" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K916" s="34" t="s">
+      <c r="K916" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L916" t="s">
@@ -58423,7 +58410,7 @@
       <c r="X916" t="s">
         <v>34</v>
       </c>
-      <c r="AA916" s="32" t="s">
+      <c r="AA916" t="s">
         <v>1287</v>
       </c>
       <c r="AD916" t="s">
@@ -58458,7 +58445,7 @@
       <c r="J917" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K917" s="34" t="s">
+      <c r="K917" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L917" t="s">
@@ -58482,7 +58469,7 @@
       <c r="X917" t="s">
         <v>34</v>
       </c>
-      <c r="AA917" s="32" t="s">
+      <c r="AA917" t="s">
         <v>1287</v>
       </c>
       <c r="AD917" t="s">
@@ -58517,7 +58504,7 @@
       <c r="J918" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K918" s="34" t="s">
+      <c r="K918" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L918" t="s">
@@ -58541,7 +58528,7 @@
       <c r="X918" t="s">
         <v>34</v>
       </c>
-      <c r="AA918" s="32" t="s">
+      <c r="AA918" t="s">
         <v>1287</v>
       </c>
       <c r="AD918" t="s">
@@ -58576,7 +58563,7 @@
       <c r="J919" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K919" s="34" t="s">
+      <c r="K919" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L919" t="s">
@@ -58600,7 +58587,7 @@
       <c r="X919" t="s">
         <v>34</v>
       </c>
-      <c r="AA919" s="32" t="s">
+      <c r="AA919" t="s">
         <v>1287</v>
       </c>
       <c r="AD919" t="s">
@@ -58635,7 +58622,7 @@
       <c r="J920" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K920" s="34" t="s">
+      <c r="K920" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L920" t="s">
@@ -58659,7 +58646,7 @@
       <c r="X920" t="s">
         <v>34</v>
       </c>
-      <c r="AA920" s="32" t="s">
+      <c r="AA920" t="s">
         <v>1287</v>
       </c>
       <c r="AD920" t="s">
@@ -58694,7 +58681,7 @@
       <c r="J921" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K921" s="34" t="s">
+      <c r="K921" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L921" t="s">
@@ -58718,7 +58705,7 @@
       <c r="X921" t="s">
         <v>34</v>
       </c>
-      <c r="AA921" s="32" t="s">
+      <c r="AA921" t="s">
         <v>1287</v>
       </c>
       <c r="AD921" t="s">
@@ -58753,7 +58740,7 @@
       <c r="J922" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K922" s="34" t="s">
+      <c r="K922" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L922" t="s">
@@ -58777,7 +58764,7 @@
       <c r="X922" t="s">
         <v>34</v>
       </c>
-      <c r="AA922" s="32" t="s">
+      <c r="AA922" t="s">
         <v>1287</v>
       </c>
       <c r="AD922" t="s">
@@ -58812,7 +58799,7 @@
       <c r="J923" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K923" s="34" t="s">
+      <c r="K923" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L923" t="s">
@@ -58836,7 +58823,7 @@
       <c r="X923" t="s">
         <v>34</v>
       </c>
-      <c r="AA923" s="32" t="s">
+      <c r="AA923" t="s">
         <v>1287</v>
       </c>
       <c r="AD923" t="s">
@@ -58871,7 +58858,7 @@
       <c r="J924" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K924" s="34" t="s">
+      <c r="K924" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L924" t="s">
@@ -58895,7 +58882,7 @@
       <c r="X924" t="s">
         <v>34</v>
       </c>
-      <c r="AA924" s="32" t="s">
+      <c r="AA924" t="s">
         <v>1287</v>
       </c>
       <c r="AD924" t="s">
@@ -58930,7 +58917,7 @@
       <c r="J925" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K925" s="34" t="s">
+      <c r="K925" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L925" t="s">
@@ -58954,7 +58941,7 @@
       <c r="X925" t="s">
         <v>34</v>
       </c>
-      <c r="AA925" s="32" t="s">
+      <c r="AA925" t="s">
         <v>1287</v>
       </c>
       <c r="AD925" t="s">
@@ -58989,7 +58976,7 @@
       <c r="J926" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K926" s="34" t="s">
+      <c r="K926" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L926" t="s">
@@ -59013,7 +59000,7 @@
       <c r="X926" t="s">
         <v>34</v>
       </c>
-      <c r="AA926" s="32" t="s">
+      <c r="AA926" t="s">
         <v>1287</v>
       </c>
       <c r="AD926" t="s">
@@ -59048,7 +59035,7 @@
       <c r="J927" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K927" s="34" t="s">
+      <c r="K927" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L927" t="s">
@@ -59072,7 +59059,7 @@
       <c r="X927" t="s">
         <v>34</v>
       </c>
-      <c r="AA927" s="32" t="s">
+      <c r="AA927" t="s">
         <v>1287</v>
       </c>
       <c r="AD927" t="s">
@@ -59107,7 +59094,7 @@
       <c r="J928" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K928" s="34" t="s">
+      <c r="K928" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L928" t="s">
@@ -59131,7 +59118,7 @@
       <c r="X928" t="s">
         <v>34</v>
       </c>
-      <c r="AA928" s="32" t="s">
+      <c r="AA928" t="s">
         <v>1287</v>
       </c>
       <c r="AD928" t="s">
@@ -59166,7 +59153,7 @@
       <c r="J929" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K929" s="34" t="s">
+      <c r="K929" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L929" t="s">
@@ -59190,7 +59177,7 @@
       <c r="X929" t="s">
         <v>34</v>
       </c>
-      <c r="AA929" s="32" t="s">
+      <c r="AA929" t="s">
         <v>1287</v>
       </c>
       <c r="AD929" t="s">
@@ -59225,7 +59212,7 @@
       <c r="J930" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K930" s="34" t="s">
+      <c r="K930" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L930" t="s">
@@ -59249,7 +59236,7 @@
       <c r="X930" t="s">
         <v>34</v>
       </c>
-      <c r="AA930" s="32" t="s">
+      <c r="AA930" t="s">
         <v>1287</v>
       </c>
       <c r="AD930" t="s">
@@ -59284,7 +59271,7 @@
       <c r="J931" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K931" s="34" t="s">
+      <c r="K931" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L931" t="s">
@@ -59308,7 +59295,7 @@
       <c r="X931" t="s">
         <v>34</v>
       </c>
-      <c r="AA931" s="32" t="s">
+      <c r="AA931" t="s">
         <v>1287</v>
       </c>
       <c r="AD931" t="s">
@@ -59343,7 +59330,7 @@
       <c r="J932" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K932" s="34" t="s">
+      <c r="K932" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L932" t="s">
@@ -59367,7 +59354,7 @@
       <c r="X932" t="s">
         <v>34</v>
       </c>
-      <c r="AA932" s="32" t="s">
+      <c r="AA932" t="s">
         <v>1287</v>
       </c>
       <c r="AD932" t="s">
@@ -59402,7 +59389,7 @@
       <c r="J933" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K933" s="34" t="s">
+      <c r="K933" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L933" t="s">
@@ -59426,7 +59413,7 @@
       <c r="X933" t="s">
         <v>34</v>
       </c>
-      <c r="AA933" s="32" t="s">
+      <c r="AA933" t="s">
         <v>1287</v>
       </c>
       <c r="AD933" t="s">
@@ -59461,7 +59448,7 @@
       <c r="J934" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K934" s="34" t="s">
+      <c r="K934" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L934" t="s">
@@ -59485,7 +59472,7 @@
       <c r="X934" t="s">
         <v>34</v>
       </c>
-      <c r="AA934" s="32" t="s">
+      <c r="AA934" t="s">
         <v>1287</v>
       </c>
       <c r="AD934" t="s">
@@ -59520,7 +59507,7 @@
       <c r="J935" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K935" s="34" t="s">
+      <c r="K935" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L935" t="s">
@@ -59544,7 +59531,7 @@
       <c r="X935" t="s">
         <v>34</v>
       </c>
-      <c r="AA935" s="32" t="s">
+      <c r="AA935" t="s">
         <v>1287</v>
       </c>
       <c r="AD935" t="s">
@@ -59579,7 +59566,7 @@
       <c r="J936" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K936" s="34" t="s">
+      <c r="K936" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L936" t="s">
@@ -59603,7 +59590,7 @@
       <c r="X936" t="s">
         <v>34</v>
       </c>
-      <c r="AA936" s="32" t="s">
+      <c r="AA936" t="s">
         <v>1287</v>
       </c>
       <c r="AD936" t="s">
@@ -59638,7 +59625,7 @@
       <c r="J937" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K937" s="34" t="s">
+      <c r="K937" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L937" t="s">
@@ -59662,7 +59649,7 @@
       <c r="X937" t="s">
         <v>34</v>
       </c>
-      <c r="AA937" s="32" t="s">
+      <c r="AA937" t="s">
         <v>1287</v>
       </c>
       <c r="AD937" t="s">
@@ -59697,7 +59684,7 @@
       <c r="J938" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K938" s="34" t="s">
+      <c r="K938" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L938" t="s">
@@ -59721,7 +59708,7 @@
       <c r="X938" t="s">
         <v>34</v>
       </c>
-      <c r="AA938" s="32" t="s">
+      <c r="AA938" t="s">
         <v>1287</v>
       </c>
       <c r="AD938" t="s">
@@ -59756,7 +59743,7 @@
       <c r="J939" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K939" s="34" t="s">
+      <c r="K939" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L939" t="s">
@@ -59780,7 +59767,7 @@
       <c r="X939" t="s">
         <v>34</v>
       </c>
-      <c r="AA939" s="32" t="s">
+      <c r="AA939" t="s">
         <v>1287</v>
       </c>
       <c r="AD939" t="s">
@@ -59815,7 +59802,7 @@
       <c r="J940" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K940" s="34" t="s">
+      <c r="K940" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L940" t="s">
@@ -59839,7 +59826,7 @@
       <c r="X940" t="s">
         <v>34</v>
       </c>
-      <c r="AA940" s="32" t="s">
+      <c r="AA940" t="s">
         <v>1287</v>
       </c>
       <c r="AD940" t="s">
@@ -59874,7 +59861,7 @@
       <c r="J941" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K941" s="34" t="s">
+      <c r="K941" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L941" t="s">
@@ -59898,7 +59885,7 @@
       <c r="X941" t="s">
         <v>34</v>
       </c>
-      <c r="AA941" s="32" t="s">
+      <c r="AA941" t="s">
         <v>1287</v>
       </c>
       <c r="AD941" t="s">
@@ -59933,7 +59920,7 @@
       <c r="J942" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K942" s="34" t="s">
+      <c r="K942" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L942" t="s">
@@ -59957,7 +59944,7 @@
       <c r="X942" t="s">
         <v>34</v>
       </c>
-      <c r="AA942" s="32" t="s">
+      <c r="AA942" t="s">
         <v>1287</v>
       </c>
       <c r="AD942" t="s">
@@ -59992,7 +59979,7 @@
       <c r="J943" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K943" s="34" t="s">
+      <c r="K943" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L943" t="s">
@@ -60016,7 +60003,7 @@
       <c r="X943" t="s">
         <v>34</v>
       </c>
-      <c r="AA943" s="32" t="s">
+      <c r="AA943" t="s">
         <v>1287</v>
       </c>
       <c r="AD943" t="s">
@@ -60051,7 +60038,7 @@
       <c r="J944" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K944" s="34" t="s">
+      <c r="K944" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L944" t="s">
@@ -60075,7 +60062,7 @@
       <c r="X944" t="s">
         <v>34</v>
       </c>
-      <c r="AA944" s="32" t="s">
+      <c r="AA944" t="s">
         <v>1287</v>
       </c>
       <c r="AD944" t="s">
@@ -60110,7 +60097,7 @@
       <c r="J945" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K945" s="34" t="s">
+      <c r="K945" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L945" t="s">
@@ -60134,7 +60121,7 @@
       <c r="X945" t="s">
         <v>34</v>
       </c>
-      <c r="AA945" s="32" t="s">
+      <c r="AA945" t="s">
         <v>1287</v>
       </c>
       <c r="AD945" t="s">
@@ -60169,7 +60156,7 @@
       <c r="J946" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K946" s="34" t="s">
+      <c r="K946" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L946" t="s">
@@ -60193,7 +60180,7 @@
       <c r="X946" t="s">
         <v>34</v>
       </c>
-      <c r="AA946" s="32" t="s">
+      <c r="AA946" t="s">
         <v>1287</v>
       </c>
       <c r="AD946" t="s">
@@ -60228,7 +60215,7 @@
       <c r="J947" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K947" s="34" t="s">
+      <c r="K947" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L947" t="s">
@@ -60252,7 +60239,7 @@
       <c r="X947" t="s">
         <v>34</v>
       </c>
-      <c r="AA947" s="32" t="s">
+      <c r="AA947" t="s">
         <v>1287</v>
       </c>
       <c r="AD947" t="s">
@@ -60287,7 +60274,7 @@
       <c r="J948" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K948" s="34" t="s">
+      <c r="K948" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L948" t="s">
@@ -60311,7 +60298,7 @@
       <c r="X948" t="s">
         <v>34</v>
       </c>
-      <c r="AA948" s="32" t="s">
+      <c r="AA948" t="s">
         <v>1287</v>
       </c>
       <c r="AD948" t="s">
@@ -60346,7 +60333,7 @@
       <c r="J949" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K949" s="34" t="s">
+      <c r="K949" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L949" t="s">
@@ -60370,7 +60357,7 @@
       <c r="X949" t="s">
         <v>34</v>
       </c>
-      <c r="AA949" s="32" t="s">
+      <c r="AA949" t="s">
         <v>1287</v>
       </c>
       <c r="AD949" t="s">
@@ -60405,7 +60392,7 @@
       <c r="J950" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K950" s="34" t="s">
+      <c r="K950" s="20" t="s">
         <v>1615</v>
       </c>
       <c r="L950" t="s">
@@ -60429,7 +60416,7 @@
       <c r="X950" t="s">
         <v>34</v>
       </c>
-      <c r="AA950" s="32" t="s">
+      <c r="AA950" t="s">
         <v>1287</v>
       </c>
       <c r="AD950" t="s">
@@ -60486,7 +60473,7 @@
       <c r="X951" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AA951" s="32" t="s">
+      <c r="AA951" t="s">
         <v>1644</v>
       </c>
       <c r="AD951" t="s">
@@ -60548,7 +60535,7 @@
       <c r="X952" t="s">
         <v>35</v>
       </c>
-      <c r="AA952" s="32" t="s">
+      <c r="AA952" t="s">
         <v>1642</v>
       </c>
       <c r="AE952" t="s">
@@ -60646,7 +60633,7 @@
       <c r="J954" s="11" t="s">
         <v>1293</v>
       </c>
-      <c r="K954" s="32" t="s">
+      <c r="K954" t="s">
         <v>181</v>
       </c>
       <c r="L954" t="s">
@@ -60670,7 +60657,7 @@
       <c r="X954" t="s">
         <v>34</v>
       </c>
-      <c r="AA954" s="32" t="s">
+      <c r="AA954" t="s">
         <v>1302</v>
       </c>
       <c r="AD954" t="s">
@@ -60708,7 +60695,7 @@
       <c r="J955" s="11" t="s">
         <v>1293</v>
       </c>
-      <c r="K955" s="34" t="s">
+      <c r="K955" s="20" t="s">
         <v>1649</v>
       </c>
       <c r="L955" t="s">
@@ -60732,7 +60719,7 @@
       <c r="X955" t="s">
         <v>34</v>
       </c>
-      <c r="AA955" s="32" t="s">
+      <c r="AA955" t="s">
         <v>1303</v>
       </c>
       <c r="AD955" t="s">
@@ -60764,7 +60751,7 @@
       <c r="J956" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K956" s="34" t="s">
+      <c r="K956" s="20" t="s">
         <v>1649</v>
       </c>
       <c r="L956" t="s">
@@ -60788,7 +60775,7 @@
       <c r="X956" t="s">
         <v>34</v>
       </c>
-      <c r="AA956" s="32" t="s">
+      <c r="AA956" t="s">
         <v>1303</v>
       </c>
       <c r="AD956" t="s">
@@ -60820,7 +60807,7 @@
       <c r="J957" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K957" s="34" t="s">
+      <c r="K957" s="20" t="s">
         <v>1649</v>
       </c>
       <c r="L957" t="s">
@@ -60844,7 +60831,7 @@
       <c r="X957" t="s">
         <v>34</v>
       </c>
-      <c r="AA957" s="32" t="s">
+      <c r="AA957" t="s">
         <v>1303</v>
       </c>
       <c r="AD957" t="s">
@@ -60876,7 +60863,7 @@
       <c r="J958" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K958" s="34" t="s">
+      <c r="K958" s="20" t="s">
         <v>1649</v>
       </c>
       <c r="L958" t="s">
@@ -60900,7 +60887,7 @@
       <c r="X958" t="s">
         <v>34</v>
       </c>
-      <c r="AA958" s="32" t="s">
+      <c r="AA958" t="s">
         <v>1303</v>
       </c>
       <c r="AD958" t="s">
@@ -60932,7 +60919,7 @@
       <c r="J959" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K959" s="34" t="s">
+      <c r="K959" s="20" t="s">
         <v>1649</v>
       </c>
       <c r="L959" t="s">
@@ -60956,7 +60943,7 @@
       <c r="X959" t="s">
         <v>34</v>
       </c>
-      <c r="AA959" s="32" t="s">
+      <c r="AA959" t="s">
         <v>1303</v>
       </c>
       <c r="AD959" t="s">
@@ -60994,7 +60981,7 @@
       <c r="J960" s="11" t="s">
         <v>1293</v>
       </c>
-      <c r="K960" s="32" t="s">
+      <c r="K960" t="s">
         <v>1312</v>
       </c>
       <c r="L960" t="s">
@@ -61018,7 +61005,7 @@
       <c r="X960" t="s">
         <v>34</v>
       </c>
-      <c r="AA960" s="32" t="s">
+      <c r="AA960" t="s">
         <v>1309</v>
       </c>
       <c r="AD960" t="s">
@@ -61056,7 +61043,7 @@
       <c r="J961" s="11" t="s">
         <v>1293</v>
       </c>
-      <c r="K961" s="34" t="s">
+      <c r="K961" s="20" t="s">
         <v>1661</v>
       </c>
       <c r="L961" t="s">
@@ -61080,7 +61067,7 @@
       <c r="X961" t="s">
         <v>34</v>
       </c>
-      <c r="AA961" s="32" t="s">
+      <c r="AA961" t="s">
         <v>1305</v>
       </c>
       <c r="AD961" t="s">
@@ -61112,7 +61099,7 @@
       <c r="J962" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K962" s="34" t="s">
+      <c r="K962" s="20" t="s">
         <v>1649</v>
       </c>
       <c r="L962" t="s">
@@ -61136,7 +61123,6 @@
       <c r="X962" t="s">
         <v>34</v>
       </c>
-      <c r="AA962" s="32"/>
       <c r="AD962" t="s">
         <v>1664</v>
       </c>
@@ -61166,7 +61152,7 @@
       <c r="J963" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K963" s="34" t="s">
+      <c r="K963" s="20" t="s">
         <v>1313</v>
       </c>
       <c r="L963" t="s">
@@ -61190,7 +61176,7 @@
       <c r="X963" t="s">
         <v>34</v>
       </c>
-      <c r="AA963" s="32" t="s">
+      <c r="AA963" t="s">
         <v>1310</v>
       </c>
       <c r="AD963" t="s">
@@ -61228,7 +61214,7 @@
       <c r="J964" s="11" t="s">
         <v>1293</v>
       </c>
-      <c r="K964" s="32" t="s">
+      <c r="K964" t="s">
         <v>1313</v>
       </c>
       <c r="L964" t="s">
@@ -61252,7 +61238,6 @@
       <c r="X964" t="s">
         <v>34</v>
       </c>
-      <c r="AA964" s="32"/>
       <c r="AD964" t="s">
         <v>1667</v>
       </c>
@@ -61282,7 +61267,7 @@
       <c r="J965" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K965" s="32" t="s">
+      <c r="K965" t="s">
         <v>1313</v>
       </c>
       <c r="L965" t="s">
@@ -61306,7 +61291,6 @@
       <c r="X965" t="s">
         <v>34</v>
       </c>
-      <c r="AA965" s="32"/>
       <c r="AD965" t="s">
         <v>1667</v>
       </c>
@@ -61342,7 +61326,7 @@
       <c r="J966" s="11" t="s">
         <v>1293</v>
       </c>
-      <c r="K966" s="34" t="s">
+      <c r="K966" s="20" t="s">
         <v>407</v>
       </c>
       <c r="L966" t="s">
@@ -61366,7 +61350,7 @@
       <c r="X966" t="s">
         <v>34</v>
       </c>
-      <c r="AA966" s="32" t="s">
+      <c r="AA966" t="s">
         <v>1306</v>
       </c>
       <c r="AD966" t="s">
@@ -62000,7 +61984,7 @@
       <c r="X977" t="s">
         <v>34</v>
       </c>
-      <c r="AA977" s="32" t="s">
+      <c r="AA977" t="s">
         <v>1707</v>
       </c>
       <c r="AD977" t="s">
@@ -62056,7 +62040,7 @@
       <c r="X978" t="s">
         <v>34</v>
       </c>
-      <c r="AA978" s="32" t="s">
+      <c r="AA978" t="s">
         <v>1707</v>
       </c>
       <c r="AD978" t="s">
@@ -62112,7 +62096,7 @@
       <c r="X979" t="s">
         <v>34</v>
       </c>
-      <c r="AA979" s="32" t="s">
+      <c r="AA979" t="s">
         <v>1707</v>
       </c>
       <c r="AD979" t="s">
@@ -62168,7 +62152,7 @@
       <c r="X980" t="s">
         <v>34</v>
       </c>
-      <c r="AA980" s="32" t="s">
+      <c r="AA980" t="s">
         <v>1707</v>
       </c>
       <c r="AD980" t="s">
@@ -62206,7 +62190,7 @@
       <c r="J981" s="11" t="s">
         <v>1293</v>
       </c>
-      <c r="K981" s="32" t="s">
+      <c r="K981" t="s">
         <v>1715</v>
       </c>
       <c r="L981" t="s">
@@ -62265,7 +62249,7 @@
       <c r="J982" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K982" s="32" t="s">
+      <c r="K982" t="s">
         <v>1715</v>
       </c>
       <c r="L982" t="s">
@@ -62324,7 +62308,7 @@
       <c r="J983" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K983" s="32" t="s">
+      <c r="K983" t="s">
         <v>1715</v>
       </c>
       <c r="L983" t="s">
@@ -62531,7 +62515,7 @@
       <c r="X986" t="s">
         <v>34</v>
       </c>
-      <c r="AA986" s="32" t="s">
+      <c r="AA986" t="s">
         <v>1320</v>
       </c>
       <c r="AD986" t="s">
@@ -62590,7 +62574,7 @@
       <c r="X987" t="s">
         <v>34</v>
       </c>
-      <c r="AA987" s="32" t="s">
+      <c r="AA987" t="s">
         <v>1320</v>
       </c>
       <c r="AD987" t="s">
@@ -62631,7 +62615,7 @@
       <c r="J988" s="11" t="s">
         <v>1293</v>
       </c>
-      <c r="K988" s="32" t="s">
+      <c r="K988" t="s">
         <v>645</v>
       </c>
       <c r="L988" t="s">
@@ -62655,7 +62639,7 @@
       <c r="X988" t="s">
         <v>34</v>
       </c>
-      <c r="AA988" s="32" t="s">
+      <c r="AA988" t="s">
         <v>1318</v>
       </c>
       <c r="AD988" t="s">
@@ -62687,7 +62671,7 @@
       <c r="J989" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K989" s="32" t="s">
+      <c r="K989" t="s">
         <v>645</v>
       </c>
       <c r="L989" t="s">
@@ -62711,7 +62695,7 @@
       <c r="X989" t="s">
         <v>34</v>
       </c>
-      <c r="AA989" s="32" t="s">
+      <c r="AA989" t="s">
         <v>1318</v>
       </c>
       <c r="AD989" t="s">
@@ -62743,7 +62727,7 @@
       <c r="J990" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K990" s="32" t="s">
+      <c r="K990" t="s">
         <v>645</v>
       </c>
       <c r="L990" t="s">
@@ -62767,7 +62751,7 @@
       <c r="X990" t="s">
         <v>34</v>
       </c>
-      <c r="AA990" s="32" t="s">
+      <c r="AA990" t="s">
         <v>1318</v>
       </c>
       <c r="AD990" t="s">
@@ -62799,7 +62783,7 @@
       <c r="J991" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K991" s="32" t="s">
+      <c r="K991" t="s">
         <v>645</v>
       </c>
       <c r="L991" t="s">
@@ -62823,7 +62807,7 @@
       <c r="X991" t="s">
         <v>34</v>
       </c>
-      <c r="AA991" s="32" t="s">
+      <c r="AA991" t="s">
         <v>1318</v>
       </c>
       <c r="AD991" t="s">
@@ -62855,7 +62839,7 @@
       <c r="J992" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K992" s="32" t="s">
+      <c r="K992" t="s">
         <v>645</v>
       </c>
       <c r="L992" t="s">
@@ -62879,7 +62863,7 @@
       <c r="X992" t="s">
         <v>34</v>
       </c>
-      <c r="AA992" s="32" t="s">
+      <c r="AA992" t="s">
         <v>1318</v>
       </c>
       <c r="AD992" t="s">
@@ -62911,7 +62895,7 @@
       <c r="J993" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K993" s="32" t="s">
+      <c r="K993" t="s">
         <v>645</v>
       </c>
       <c r="L993" t="s">
@@ -62935,7 +62919,7 @@
       <c r="X993" t="s">
         <v>34</v>
       </c>
-      <c r="AA993" s="32" t="s">
+      <c r="AA993" t="s">
         <v>1318</v>
       </c>
       <c r="AD993" t="s">
@@ -62967,7 +62951,7 @@
       <c r="J994" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K994" s="32" t="s">
+      <c r="K994" t="s">
         <v>645</v>
       </c>
       <c r="L994" t="s">
@@ -62991,7 +62975,7 @@
       <c r="X994" t="s">
         <v>34</v>
       </c>
-      <c r="AA994" s="32" t="s">
+      <c r="AA994" t="s">
         <v>1318</v>
       </c>
       <c r="AD994" t="s">
@@ -63023,7 +63007,7 @@
       <c r="J995" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K995" s="32" t="s">
+      <c r="K995" t="s">
         <v>645</v>
       </c>
       <c r="L995" t="s">
@@ -63047,7 +63031,7 @@
       <c r="X995" t="s">
         <v>34</v>
       </c>
-      <c r="AA995" s="32" t="s">
+      <c r="AA995" t="s">
         <v>1318</v>
       </c>
       <c r="AD995" t="s">
@@ -63079,7 +63063,7 @@
       <c r="J996" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K996" s="32" t="s">
+      <c r="K996" t="s">
         <v>645</v>
       </c>
       <c r="L996" t="s">
@@ -63103,7 +63087,7 @@
       <c r="X996" t="s">
         <v>34</v>
       </c>
-      <c r="AA996" s="32" t="s">
+      <c r="AA996" t="s">
         <v>1318</v>
       </c>
       <c r="AD996" t="s">
@@ -63135,7 +63119,7 @@
       <c r="J997" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K997" s="32" t="s">
+      <c r="K997" t="s">
         <v>645</v>
       </c>
       <c r="L997" t="s">
@@ -63159,7 +63143,7 @@
       <c r="X997" t="s">
         <v>34</v>
       </c>
-      <c r="AA997" s="32" t="s">
+      <c r="AA997" t="s">
         <v>1318</v>
       </c>
       <c r="AD997" t="s">
@@ -63191,7 +63175,7 @@
       <c r="J998" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K998" s="32" t="s">
+      <c r="K998" t="s">
         <v>645</v>
       </c>
       <c r="L998" t="s">
@@ -63215,7 +63199,7 @@
       <c r="X998" t="s">
         <v>34</v>
       </c>
-      <c r="AA998" s="32" t="s">
+      <c r="AA998" t="s">
         <v>1318</v>
       </c>
       <c r="AD998" t="s">
@@ -63247,7 +63231,7 @@
       <c r="J999" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K999" s="32" t="s">
+      <c r="K999" t="s">
         <v>645</v>
       </c>
       <c r="L999" t="s">
@@ -63271,7 +63255,7 @@
       <c r="X999" t="s">
         <v>34</v>
       </c>
-      <c r="AA999" s="32" t="s">
+      <c r="AA999" t="s">
         <v>1318</v>
       </c>
       <c r="AD999" t="s">
@@ -63303,7 +63287,7 @@
       <c r="J1000" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1000" s="32" t="s">
+      <c r="K1000" t="s">
         <v>645</v>
       </c>
       <c r="L1000" t="s">
@@ -63327,7 +63311,7 @@
       <c r="X1000" t="s">
         <v>34</v>
       </c>
-      <c r="AA1000" s="32" t="s">
+      <c r="AA1000" t="s">
         <v>1318</v>
       </c>
       <c r="AD1000" t="s">
@@ -63359,7 +63343,7 @@
       <c r="J1001" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1001" s="32" t="s">
+      <c r="K1001" t="s">
         <v>645</v>
       </c>
       <c r="L1001" t="s">
@@ -63383,7 +63367,7 @@
       <c r="X1001" t="s">
         <v>34</v>
       </c>
-      <c r="AA1001" s="32" t="s">
+      <c r="AA1001" t="s">
         <v>1318</v>
       </c>
       <c r="AD1001" t="s">
@@ -63415,7 +63399,7 @@
       <c r="J1002" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1002" s="32" t="s">
+      <c r="K1002" t="s">
         <v>645</v>
       </c>
       <c r="L1002" t="s">
@@ -63439,7 +63423,7 @@
       <c r="X1002" t="s">
         <v>34</v>
       </c>
-      <c r="AA1002" s="32" t="s">
+      <c r="AA1002" t="s">
         <v>1318</v>
       </c>
       <c r="AD1002" t="s">
@@ -63471,7 +63455,7 @@
       <c r="J1003" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1003" s="32" t="s">
+      <c r="K1003" t="s">
         <v>645</v>
       </c>
       <c r="L1003" t="s">
@@ -63495,7 +63479,7 @@
       <c r="X1003" t="s">
         <v>34</v>
       </c>
-      <c r="AA1003" s="32" t="s">
+      <c r="AA1003" t="s">
         <v>1318</v>
       </c>
       <c r="AD1003" t="s">
@@ -63527,7 +63511,7 @@
       <c r="J1004" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1004" s="32" t="s">
+      <c r="K1004" t="s">
         <v>645</v>
       </c>
       <c r="L1004" t="s">
@@ -63551,7 +63535,7 @@
       <c r="X1004" t="s">
         <v>34</v>
       </c>
-      <c r="AA1004" s="32" t="s">
+      <c r="AA1004" t="s">
         <v>1318</v>
       </c>
       <c r="AD1004" t="s">
@@ -63583,7 +63567,7 @@
       <c r="J1005" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1005" s="32" t="s">
+      <c r="K1005" t="s">
         <v>645</v>
       </c>
       <c r="L1005" t="s">
@@ -63607,7 +63591,7 @@
       <c r="X1005" t="s">
         <v>34</v>
       </c>
-      <c r="AA1005" s="32" t="s">
+      <c r="AA1005" t="s">
         <v>1318</v>
       </c>
       <c r="AD1005" t="s">
@@ -63639,7 +63623,7 @@
       <c r="J1006" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1006" s="32" t="s">
+      <c r="K1006" t="s">
         <v>645</v>
       </c>
       <c r="L1006" t="s">
@@ -63663,7 +63647,7 @@
       <c r="X1006" t="s">
         <v>34</v>
       </c>
-      <c r="AA1006" s="32" t="s">
+      <c r="AA1006" t="s">
         <v>1318</v>
       </c>
       <c r="AD1006" t="s">
@@ -63695,7 +63679,7 @@
       <c r="J1007" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1007" s="32" t="s">
+      <c r="K1007" t="s">
         <v>645</v>
       </c>
       <c r="L1007" t="s">
@@ -63719,7 +63703,7 @@
       <c r="X1007" t="s">
         <v>34</v>
       </c>
-      <c r="AA1007" s="32" t="s">
+      <c r="AA1007" t="s">
         <v>1318</v>
       </c>
       <c r="AD1007" t="s">
@@ -63751,7 +63735,7 @@
       <c r="J1008" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1008" s="32" t="s">
+      <c r="K1008" t="s">
         <v>645</v>
       </c>
       <c r="L1008" t="s">
@@ -63775,7 +63759,7 @@
       <c r="X1008" t="s">
         <v>34</v>
       </c>
-      <c r="AA1008" s="32" t="s">
+      <c r="AA1008" t="s">
         <v>1318</v>
       </c>
       <c r="AD1008" t="s">
@@ -63813,7 +63797,7 @@
       <c r="J1009" s="11" t="s">
         <v>1293</v>
       </c>
-      <c r="K1009" s="34" t="s">
+      <c r="K1009" s="20" t="s">
         <v>1751</v>
       </c>
       <c r="L1009" t="s">
@@ -63837,7 +63821,6 @@
       <c r="X1009" t="s">
         <v>34</v>
       </c>
-      <c r="AA1009" s="32"/>
       <c r="AD1009" t="s">
         <v>1752</v>
       </c>
@@ -63982,7 +63965,7 @@
       <c r="J1012" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1012" s="34" t="s">
+      <c r="K1012" s="20" t="s">
         <v>1751</v>
       </c>
       <c r="L1012" t="s">
@@ -64006,7 +63989,6 @@
       <c r="X1012" t="s">
         <v>34</v>
       </c>
-      <c r="AA1012" s="32"/>
       <c r="AD1012" t="s">
         <v>1752</v>
       </c>
@@ -64045,7 +64027,7 @@
       <c r="J1013" s="11" t="s">
         <v>1293</v>
       </c>
-      <c r="K1013" s="32" t="s">
+      <c r="K1013" t="s">
         <v>574</v>
       </c>
       <c r="L1013" t="s">
@@ -64069,7 +64051,7 @@
       <c r="X1013" t="s">
         <v>34</v>
       </c>
-      <c r="AA1013" s="32" t="s">
+      <c r="AA1013" t="s">
         <v>1319</v>
       </c>
       <c r="AD1013" t="s">
@@ -64101,7 +64083,7 @@
       <c r="J1014" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1014" s="32" t="s">
+      <c r="K1014" t="s">
         <v>574</v>
       </c>
       <c r="L1014" t="s">
@@ -64125,7 +64107,7 @@
       <c r="X1014" t="s">
         <v>34</v>
       </c>
-      <c r="AA1014" s="32" t="s">
+      <c r="AA1014" t="s">
         <v>1319</v>
       </c>
       <c r="AD1014" t="s">
@@ -64157,7 +64139,7 @@
       <c r="J1015" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1015" s="32" t="s">
+      <c r="K1015" t="s">
         <v>574</v>
       </c>
       <c r="L1015" t="s">
@@ -64181,7 +64163,7 @@
       <c r="X1015" t="s">
         <v>34</v>
       </c>
-      <c r="AA1015" s="32" t="s">
+      <c r="AA1015" t="s">
         <v>1319</v>
       </c>
       <c r="AD1015" t="s">
@@ -64213,7 +64195,7 @@
       <c r="J1016" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1016" s="32" t="s">
+      <c r="K1016" t="s">
         <v>103</v>
       </c>
       <c r="L1016" t="s">
@@ -64237,7 +64219,7 @@
       <c r="X1016" t="s">
         <v>34</v>
       </c>
-      <c r="AA1016" s="32" t="s">
+      <c r="AA1016" t="s">
         <v>1763</v>
       </c>
       <c r="AD1016" t="s">
@@ -64275,7 +64257,7 @@
       <c r="J1017" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1017" s="32" t="s">
+      <c r="K1017" t="s">
         <v>1141</v>
       </c>
       <c r="L1017" t="s">
@@ -64299,7 +64281,7 @@
       <c r="X1017" t="s">
         <v>34</v>
       </c>
-      <c r="AA1017" s="32" t="s">
+      <c r="AA1017" t="s">
         <v>1856</v>
       </c>
       <c r="AC1017" t="s">
@@ -64340,7 +64322,7 @@
       <c r="J1018" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1018" s="32" t="s">
+      <c r="K1018" t="s">
         <v>1141</v>
       </c>
       <c r="L1018" t="s">
@@ -64364,7 +64346,7 @@
       <c r="X1018" t="s">
         <v>34</v>
       </c>
-      <c r="AA1018" s="32" t="s">
+      <c r="AA1018" t="s">
         <v>1856</v>
       </c>
       <c r="AD1018" t="s">
@@ -64402,7 +64384,7 @@
       <c r="J1019" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1019" s="32" t="s">
+      <c r="K1019" t="s">
         <v>1141</v>
       </c>
       <c r="L1019" t="s">
@@ -64426,7 +64408,7 @@
       <c r="X1019" t="s">
         <v>34</v>
       </c>
-      <c r="AA1019" s="32" t="s">
+      <c r="AA1019" t="s">
         <v>1856</v>
       </c>
       <c r="AD1019" t="s">
@@ -64464,7 +64446,7 @@
       <c r="J1020" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1020" s="32" t="s">
+      <c r="K1020" t="s">
         <v>1141</v>
       </c>
       <c r="L1020" t="s">
@@ -64488,7 +64470,7 @@
       <c r="X1020" t="s">
         <v>34</v>
       </c>
-      <c r="AA1020" s="32" t="s">
+      <c r="AA1020" t="s">
         <v>1856</v>
       </c>
       <c r="AD1020" t="s">
@@ -64526,7 +64508,7 @@
       <c r="J1021" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1021" s="32" t="s">
+      <c r="K1021" t="s">
         <v>1141</v>
       </c>
       <c r="L1021" t="s">
@@ -64550,7 +64532,7 @@
       <c r="X1021" t="s">
         <v>34</v>
       </c>
-      <c r="AA1021" s="32" t="s">
+      <c r="AA1021" t="s">
         <v>1856</v>
       </c>
       <c r="AD1021" t="s">
@@ -64588,7 +64570,7 @@
       <c r="J1022" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1022" s="32" t="s">
+      <c r="K1022" t="s">
         <v>1141</v>
       </c>
       <c r="L1022" t="s">
@@ -64612,7 +64594,7 @@
       <c r="X1022" t="s">
         <v>34</v>
       </c>
-      <c r="AA1022" s="32" t="s">
+      <c r="AA1022" t="s">
         <v>1856</v>
       </c>
       <c r="AD1022" t="s">
@@ -64650,7 +64632,7 @@
       <c r="J1023" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1023" s="32" t="s">
+      <c r="K1023" t="s">
         <v>1141</v>
       </c>
       <c r="L1023" t="s">
@@ -64674,7 +64656,7 @@
       <c r="X1023" t="s">
         <v>34</v>
       </c>
-      <c r="AA1023" s="32" t="s">
+      <c r="AA1023" t="s">
         <v>1856</v>
       </c>
       <c r="AD1023" t="s">
@@ -64712,7 +64694,7 @@
       <c r="J1024" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1024" s="32" t="s">
+      <c r="K1024" t="s">
         <v>1141</v>
       </c>
       <c r="L1024" t="s">
@@ -64736,7 +64718,7 @@
       <c r="X1024" t="s">
         <v>34</v>
       </c>
-      <c r="AA1024" s="32" t="s">
+      <c r="AA1024" t="s">
         <v>1856</v>
       </c>
       <c r="AE1024" t="s">
@@ -64771,7 +64753,7 @@
       <c r="J1025" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1025" s="32" t="s">
+      <c r="K1025" t="s">
         <v>1141</v>
       </c>
       <c r="L1025" t="s">
@@ -64795,7 +64777,6 @@
       <c r="X1025" t="s">
         <v>34</v>
       </c>
-      <c r="AA1025" s="32"/>
       <c r="AC1025" t="s">
         <v>1119</v>
       </c>
@@ -64831,7 +64812,7 @@
       <c r="J1026" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1026" s="32" t="s">
+      <c r="K1026" t="s">
         <v>645</v>
       </c>
       <c r="L1026" t="s">
@@ -64855,7 +64836,7 @@
       <c r="X1026" t="s">
         <v>34</v>
       </c>
-      <c r="AA1026" s="32" t="s">
+      <c r="AA1026" t="s">
         <v>1868</v>
       </c>
       <c r="AD1026" t="s">
@@ -64887,7 +64868,7 @@
       <c r="J1027" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1027" s="32" t="s">
+      <c r="K1027" t="s">
         <v>645</v>
       </c>
       <c r="L1027" t="s">
@@ -64911,7 +64892,7 @@
       <c r="X1027" t="s">
         <v>34</v>
       </c>
-      <c r="AA1027" s="32" t="s">
+      <c r="AA1027" t="s">
         <v>1868</v>
       </c>
       <c r="AD1027" t="s">
@@ -64943,7 +64924,7 @@
       <c r="J1028" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1028" s="32" t="s">
+      <c r="K1028" t="s">
         <v>645</v>
       </c>
       <c r="L1028" t="s">
@@ -64967,7 +64948,7 @@
       <c r="X1028" t="s">
         <v>34</v>
       </c>
-      <c r="AA1028" s="32" t="s">
+      <c r="AA1028" t="s">
         <v>1868</v>
       </c>
       <c r="AD1028" t="s">
@@ -64999,7 +64980,7 @@
       <c r="J1029" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1029" s="32" t="s">
+      <c r="K1029" t="s">
         <v>645</v>
       </c>
       <c r="L1029" t="s">
@@ -65023,7 +65004,7 @@
       <c r="X1029" t="s">
         <v>34</v>
       </c>
-      <c r="AA1029" s="32" t="s">
+      <c r="AA1029" t="s">
         <v>1868</v>
       </c>
       <c r="AD1029" t="s">
@@ -65055,7 +65036,7 @@
       <c r="J1030" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1030" s="32" t="s">
+      <c r="K1030" t="s">
         <v>645</v>
       </c>
       <c r="L1030" t="s">
@@ -65079,7 +65060,7 @@
       <c r="X1030" t="s">
         <v>34</v>
       </c>
-      <c r="AA1030" s="32" t="s">
+      <c r="AA1030" t="s">
         <v>1868</v>
       </c>
       <c r="AD1030" t="s">
@@ -65111,7 +65092,7 @@
       <c r="J1031" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1031" s="32" t="s">
+      <c r="K1031" t="s">
         <v>645</v>
       </c>
       <c r="L1031" t="s">
@@ -65135,7 +65116,7 @@
       <c r="X1031" t="s">
         <v>34</v>
       </c>
-      <c r="AA1031" s="32" t="s">
+      <c r="AA1031" t="s">
         <v>1868</v>
       </c>
       <c r="AD1031" t="s">
@@ -65167,7 +65148,7 @@
       <c r="J1032" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1032" s="32" t="s">
+      <c r="K1032" t="s">
         <v>645</v>
       </c>
       <c r="L1032" t="s">
@@ -65191,7 +65172,7 @@
       <c r="X1032" t="s">
         <v>34</v>
       </c>
-      <c r="AA1032" s="32" t="s">
+      <c r="AA1032" t="s">
         <v>1868</v>
       </c>
       <c r="AD1032" t="s">
@@ -65223,7 +65204,7 @@
       <c r="J1033" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1033" s="32" t="s">
+      <c r="K1033" t="s">
         <v>645</v>
       </c>
       <c r="L1033" t="s">
@@ -65247,7 +65228,7 @@
       <c r="X1033" t="s">
         <v>34</v>
       </c>
-      <c r="AA1033" s="32" t="s">
+      <c r="AA1033" t="s">
         <v>1868</v>
       </c>
       <c r="AD1033" t="s">
@@ -65279,7 +65260,7 @@
       <c r="J1034" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1034" s="32" t="s">
+      <c r="K1034" t="s">
         <v>645</v>
       </c>
       <c r="L1034" t="s">
@@ -65303,7 +65284,7 @@
       <c r="X1034" t="s">
         <v>34</v>
       </c>
-      <c r="AA1034" s="32" t="s">
+      <c r="AA1034" t="s">
         <v>1868</v>
       </c>
       <c r="AD1034" t="s">
@@ -65335,7 +65316,7 @@
       <c r="J1035" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1035" s="32" t="s">
+      <c r="K1035" t="s">
         <v>645</v>
       </c>
       <c r="L1035" t="s">
@@ -65359,7 +65340,7 @@
       <c r="X1035" t="s">
         <v>34</v>
       </c>
-      <c r="AA1035" s="32" t="s">
+      <c r="AA1035" t="s">
         <v>1868</v>
       </c>
       <c r="AD1035" t="s">
@@ -65391,7 +65372,7 @@
       <c r="J1036" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1036" s="32" t="s">
+      <c r="K1036" t="s">
         <v>645</v>
       </c>
       <c r="L1036" t="s">
@@ -65415,7 +65396,7 @@
       <c r="X1036" t="s">
         <v>34</v>
       </c>
-      <c r="AA1036" s="32" t="s">
+      <c r="AA1036" t="s">
         <v>1868</v>
       </c>
       <c r="AD1036" t="s">
@@ -65447,7 +65428,7 @@
       <c r="J1037" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1037" s="32" t="s">
+      <c r="K1037" t="s">
         <v>645</v>
       </c>
       <c r="L1037" t="s">
@@ -65471,7 +65452,7 @@
       <c r="X1037" t="s">
         <v>34</v>
       </c>
-      <c r="AA1037" s="32" t="s">
+      <c r="AA1037" t="s">
         <v>1868</v>
       </c>
       <c r="AD1037" t="s">
@@ -65503,7 +65484,7 @@
       <c r="J1038" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1038" s="32" t="s">
+      <c r="K1038" t="s">
         <v>645</v>
       </c>
       <c r="L1038" t="s">
@@ -65527,7 +65508,7 @@
       <c r="X1038" t="s">
         <v>34</v>
       </c>
-      <c r="AA1038" s="32" t="s">
+      <c r="AA1038" t="s">
         <v>1868</v>
       </c>
       <c r="AD1038" t="s">
@@ -65559,7 +65540,7 @@
       <c r="J1039" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1039" s="32" t="s">
+      <c r="K1039" t="s">
         <v>645</v>
       </c>
       <c r="L1039" t="s">
@@ -65583,7 +65564,7 @@
       <c r="X1039" t="s">
         <v>34</v>
       </c>
-      <c r="AA1039" s="32" t="s">
+      <c r="AA1039" t="s">
         <v>1868</v>
       </c>
       <c r="AD1039" t="s">
@@ -65615,7 +65596,7 @@
       <c r="J1040" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1040" s="32" t="s">
+      <c r="K1040" t="s">
         <v>645</v>
       </c>
       <c r="L1040" t="s">
@@ -65639,7 +65620,7 @@
       <c r="X1040" t="s">
         <v>34</v>
       </c>
-      <c r="AA1040" s="32" t="s">
+      <c r="AA1040" t="s">
         <v>1868</v>
       </c>
       <c r="AD1040" t="s">
@@ -65671,7 +65652,7 @@
       <c r="J1041" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1041" s="32" t="s">
+      <c r="K1041" t="s">
         <v>645</v>
       </c>
       <c r="L1041" t="s">
@@ -65695,7 +65676,7 @@
       <c r="X1041" t="s">
         <v>34</v>
       </c>
-      <c r="AA1041" s="32" t="s">
+      <c r="AA1041" t="s">
         <v>1868</v>
       </c>
       <c r="AD1041" t="s">
@@ -65727,7 +65708,7 @@
       <c r="J1042" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1042" s="32" t="s">
+      <c r="K1042" t="s">
         <v>645</v>
       </c>
       <c r="L1042" t="s">
@@ -65751,7 +65732,7 @@
       <c r="X1042" t="s">
         <v>34</v>
       </c>
-      <c r="AA1042" s="32" t="s">
+      <c r="AA1042" t="s">
         <v>1868</v>
       </c>
       <c r="AD1042" t="s">
@@ -65783,7 +65764,7 @@
       <c r="J1043" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1043" s="32" t="s">
+      <c r="K1043" t="s">
         <v>645</v>
       </c>
       <c r="L1043" t="s">
@@ -65807,7 +65788,7 @@
       <c r="X1043" t="s">
         <v>34</v>
       </c>
-      <c r="AA1043" s="32" t="s">
+      <c r="AA1043" t="s">
         <v>1868</v>
       </c>
       <c r="AD1043" t="s">
@@ -65839,7 +65820,7 @@
       <c r="J1044" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1044" s="32" t="s">
+      <c r="K1044" t="s">
         <v>645</v>
       </c>
       <c r="L1044" t="s">
@@ -65863,7 +65844,7 @@
       <c r="X1044" t="s">
         <v>34</v>
       </c>
-      <c r="AA1044" s="32" t="s">
+      <c r="AA1044" t="s">
         <v>1868</v>
       </c>
       <c r="AD1044" t="s">
@@ -65895,7 +65876,7 @@
       <c r="J1045" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1045" s="32" t="s">
+      <c r="K1045" t="s">
         <v>645</v>
       </c>
       <c r="L1045" t="s">
@@ -65919,7 +65900,7 @@
       <c r="X1045" t="s">
         <v>34</v>
       </c>
-      <c r="AA1045" s="32" t="s">
+      <c r="AA1045" t="s">
         <v>1868</v>
       </c>
       <c r="AD1045" t="s">
@@ -65951,7 +65932,7 @@
       <c r="J1046" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1046" s="32" t="s">
+      <c r="K1046" t="s">
         <v>645</v>
       </c>
       <c r="L1046" t="s">
@@ -65975,7 +65956,7 @@
       <c r="X1046" t="s">
         <v>34</v>
       </c>
-      <c r="AA1046" s="32" t="s">
+      <c r="AA1046" t="s">
         <v>1868</v>
       </c>
       <c r="AD1046" t="s">
@@ -66007,7 +65988,7 @@
       <c r="J1047" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1047" s="32" t="s">
+      <c r="K1047" t="s">
         <v>645</v>
       </c>
       <c r="L1047" t="s">
@@ -66031,7 +66012,7 @@
       <c r="X1047" t="s">
         <v>34</v>
       </c>
-      <c r="AA1047" s="32" t="s">
+      <c r="AA1047" t="s">
         <v>1868</v>
       </c>
       <c r="AD1047" t="s">
@@ -66063,7 +66044,7 @@
       <c r="J1048" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1048" s="32" t="s">
+      <c r="K1048" t="s">
         <v>645</v>
       </c>
       <c r="L1048" t="s">
@@ -66087,7 +66068,7 @@
       <c r="X1048" t="s">
         <v>34</v>
       </c>
-      <c r="AA1048" s="32" t="s">
+      <c r="AA1048" t="s">
         <v>1868</v>
       </c>
       <c r="AD1048" t="s">
@@ -66119,7 +66100,7 @@
       <c r="J1049" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1049" s="32" t="s">
+      <c r="K1049" t="s">
         <v>645</v>
       </c>
       <c r="L1049" t="s">
@@ -66143,7 +66124,7 @@
       <c r="X1049" t="s">
         <v>34</v>
       </c>
-      <c r="AA1049" s="32" t="s">
+      <c r="AA1049" t="s">
         <v>1868</v>
       </c>
       <c r="AD1049" t="s">
@@ -66175,7 +66156,7 @@
       <c r="J1050" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1050" s="32" t="s">
+      <c r="K1050" t="s">
         <v>645</v>
       </c>
       <c r="L1050" t="s">
@@ -66199,7 +66180,7 @@
       <c r="X1050" t="s">
         <v>34</v>
       </c>
-      <c r="AA1050" s="32" t="s">
+      <c r="AA1050" t="s">
         <v>1868</v>
       </c>
       <c r="AD1050" t="s">
@@ -66231,7 +66212,7 @@
       <c r="J1051" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1051" s="32" t="s">
+      <c r="K1051" t="s">
         <v>645</v>
       </c>
       <c r="L1051" t="s">
@@ -66255,7 +66236,7 @@
       <c r="X1051" t="s">
         <v>34</v>
       </c>
-      <c r="AA1051" s="32" t="s">
+      <c r="AA1051" t="s">
         <v>1868</v>
       </c>
       <c r="AD1051" t="s">
@@ -66287,7 +66268,7 @@
       <c r="J1052" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1052" s="32" t="s">
+      <c r="K1052" t="s">
         <v>645</v>
       </c>
       <c r="L1052" t="s">
@@ -66311,7 +66292,7 @@
       <c r="X1052" t="s">
         <v>34</v>
       </c>
-      <c r="AA1052" s="32" t="s">
+      <c r="AA1052" t="s">
         <v>1868</v>
       </c>
       <c r="AD1052" t="s">
@@ -66343,7 +66324,7 @@
       <c r="J1053" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1053" s="32" t="s">
+      <c r="K1053" t="s">
         <v>645</v>
       </c>
       <c r="L1053" t="s">
@@ -66367,7 +66348,7 @@
       <c r="X1053" t="s">
         <v>34</v>
       </c>
-      <c r="AA1053" s="32" t="s">
+      <c r="AA1053" t="s">
         <v>1868</v>
       </c>
       <c r="AD1053" t="s">
@@ -66399,7 +66380,7 @@
       <c r="J1054" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1054" s="32" t="s">
+      <c r="K1054" t="s">
         <v>645</v>
       </c>
       <c r="L1054" t="s">
@@ -66423,7 +66404,7 @@
       <c r="X1054" t="s">
         <v>34</v>
       </c>
-      <c r="AA1054" s="32" t="s">
+      <c r="AA1054" t="s">
         <v>1868</v>
       </c>
       <c r="AD1054" t="s">
@@ -66455,7 +66436,7 @@
       <c r="J1055" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1055" s="32" t="s">
+      <c r="K1055" t="s">
         <v>645</v>
       </c>
       <c r="L1055" t="s">
@@ -66479,7 +66460,7 @@
       <c r="X1055" t="s">
         <v>34</v>
       </c>
-      <c r="AA1055" s="32" t="s">
+      <c r="AA1055" t="s">
         <v>1868</v>
       </c>
       <c r="AD1055" t="s">
@@ -66511,7 +66492,7 @@
       <c r="J1056" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1056" s="32" t="s">
+      <c r="K1056" t="s">
         <v>645</v>
       </c>
       <c r="L1056" t="s">
@@ -66535,7 +66516,7 @@
       <c r="X1056" t="s">
         <v>34</v>
       </c>
-      <c r="AA1056" s="32" t="s">
+      <c r="AA1056" t="s">
         <v>1868</v>
       </c>
       <c r="AD1056" t="s">
@@ -66567,7 +66548,7 @@
       <c r="J1057" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1057" s="32" t="s">
+      <c r="K1057" t="s">
         <v>645</v>
       </c>
       <c r="L1057" t="s">
@@ -66591,7 +66572,7 @@
       <c r="X1057" t="s">
         <v>34</v>
       </c>
-      <c r="AA1057" s="32" t="s">
+      <c r="AA1057" t="s">
         <v>1868</v>
       </c>
       <c r="AD1057" t="s">
@@ -66629,7 +66610,7 @@
       <c r="J1058" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1058" s="32" t="s">
+      <c r="K1058" t="s">
         <v>1174</v>
       </c>
       <c r="L1058" t="s">
@@ -66653,7 +66634,7 @@
       <c r="X1058" t="s">
         <v>34</v>
       </c>
-      <c r="AA1058" s="32" t="s">
+      <c r="AA1058" t="s">
         <v>1872</v>
       </c>
       <c r="AD1058" t="s">
@@ -66691,7 +66672,7 @@
       <c r="J1059" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1059" s="32" t="s">
+      <c r="K1059" t="s">
         <v>1174</v>
       </c>
       <c r="L1059" t="s">
@@ -66715,7 +66696,7 @@
       <c r="X1059" t="s">
         <v>34</v>
       </c>
-      <c r="AA1059" s="32" t="s">
+      <c r="AA1059" t="s">
         <v>1872</v>
       </c>
       <c r="AD1059" t="s">
@@ -66753,7 +66734,7 @@
       <c r="J1060" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1060" s="32" t="s">
+      <c r="K1060" t="s">
         <v>1879</v>
       </c>
       <c r="L1060" t="s">
@@ -66777,7 +66758,7 @@
       <c r="X1060" t="s">
         <v>34</v>
       </c>
-      <c r="AA1060" s="32" t="s">
+      <c r="AA1060" t="s">
         <v>1878</v>
       </c>
       <c r="AE1060" t="s">
@@ -66815,7 +66796,7 @@
       <c r="J1061" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1061" s="32" t="s">
+      <c r="K1061" t="s">
         <v>1879</v>
       </c>
       <c r="L1061" t="s">
@@ -66839,7 +66820,7 @@
       <c r="X1061" t="s">
         <v>34</v>
       </c>
-      <c r="AA1061" s="32" t="s">
+      <c r="AA1061" t="s">
         <v>1878</v>
       </c>
       <c r="AD1061" t="s">
@@ -69795,7 +69776,7 @@
       <c r="J1111" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1111" s="32" t="s">
+      <c r="K1111" t="s">
         <v>1893</v>
       </c>
       <c r="L1111" t="s">
@@ -69819,7 +69800,6 @@
       <c r="X1111" t="s">
         <v>34</v>
       </c>
-      <c r="AA1111" s="32"/>
       <c r="AC1111" t="s">
         <v>1789</v>
       </c>
@@ -69858,7 +69838,7 @@
       <c r="J1112" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1112" s="32" t="s">
+      <c r="K1112" t="s">
         <v>1791</v>
       </c>
       <c r="L1112" t="s">
@@ -69882,7 +69862,7 @@
       <c r="X1112" t="s">
         <v>34</v>
       </c>
-      <c r="AA1112" s="32" t="s">
+      <c r="AA1112" t="s">
         <v>1288</v>
       </c>
       <c r="AD1112" t="s">
@@ -69920,7 +69900,7 @@
       <c r="J1113" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1113" s="32" t="s">
+      <c r="K1113" t="s">
         <v>1904</v>
       </c>
       <c r="L1113" t="s">
@@ -69944,7 +69924,7 @@
       <c r="X1113" t="s">
         <v>34</v>
       </c>
-      <c r="AA1113" s="32" t="s">
+      <c r="AA1113" t="s">
         <v>1903</v>
       </c>
       <c r="AD1113" t="s">
@@ -69982,7 +69962,7 @@
       <c r="J1114" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1114" s="32" t="s">
+      <c r="K1114" t="s">
         <v>1909</v>
       </c>
       <c r="L1114" t="s">
@@ -70006,7 +69986,7 @@
       <c r="X1114" t="s">
         <v>34</v>
       </c>
-      <c r="AA1114" s="32" t="s">
+      <c r="AA1114" t="s">
         <v>1903</v>
       </c>
       <c r="AD1114" t="s">
@@ -70047,7 +70027,7 @@
       <c r="J1115" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1115" s="32" t="s">
+      <c r="K1115" t="s">
         <v>1913</v>
       </c>
       <c r="L1115" t="s">
@@ -70071,7 +70051,7 @@
       <c r="X1115" t="s">
         <v>34</v>
       </c>
-      <c r="AA1115" s="32" t="s">
+      <c r="AA1115" t="s">
         <v>1912</v>
       </c>
       <c r="AC1115" t="s">
@@ -70115,7 +70095,7 @@
       <c r="J1116" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1116" s="32" t="s">
+      <c r="K1116" t="s">
         <v>1919</v>
       </c>
       <c r="L1116" t="s">
@@ -70139,7 +70119,7 @@
       <c r="X1116" t="s">
         <v>34</v>
       </c>
-      <c r="AA1116" s="32" t="s">
+      <c r="AA1116" t="s">
         <v>1920</v>
       </c>
       <c r="AD1116" t="s">
@@ -70180,7 +70160,7 @@
       <c r="J1117" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1117" s="32" t="s">
+      <c r="K1117" t="s">
         <v>1806</v>
       </c>
       <c r="L1117" t="s">
@@ -70204,7 +70184,7 @@
       <c r="X1117" t="s">
         <v>34</v>
       </c>
-      <c r="AA1117" s="32" t="s">
+      <c r="AA1117" t="s">
         <v>1928</v>
       </c>
       <c r="AD1117" t="s">
@@ -70245,7 +70225,7 @@
       <c r="J1118" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1118" s="32" t="s">
+      <c r="K1118" t="s">
         <v>1931</v>
       </c>
       <c r="L1118" t="s">
@@ -70269,7 +70249,7 @@
       <c r="X1118" t="s">
         <v>34</v>
       </c>
-      <c r="AA1118" s="32" t="s">
+      <c r="AA1118" t="s">
         <v>1929</v>
       </c>
       <c r="AD1118" t="s">
@@ -70310,7 +70290,7 @@
       <c r="J1119" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1119" s="32" t="s">
+      <c r="K1119" t="s">
         <v>1790</v>
       </c>
       <c r="L1119" t="s">
@@ -70334,7 +70314,7 @@
       <c r="X1119" t="s">
         <v>34</v>
       </c>
-      <c r="AA1119" s="32" t="s">
+      <c r="AA1119" t="s">
         <v>1930</v>
       </c>
       <c r="AD1119" t="s">
@@ -70372,7 +70352,7 @@
       <c r="J1120" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1120" s="32" t="s">
+      <c r="K1120" t="s">
         <v>1807</v>
       </c>
       <c r="L1120" t="s">
@@ -70396,7 +70376,7 @@
       <c r="X1120" t="s">
         <v>34</v>
       </c>
-      <c r="AA1120" s="32" t="s">
+      <c r="AA1120" t="s">
         <v>1943</v>
       </c>
       <c r="AD1120" t="s">
@@ -70434,7 +70414,7 @@
       <c r="J1121" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1121" s="32" t="s">
+      <c r="K1121" t="s">
         <v>1807</v>
       </c>
       <c r="L1121" t="s">
@@ -70458,7 +70438,7 @@
       <c r="X1121" t="s">
         <v>34</v>
       </c>
-      <c r="AA1121" s="32" t="s">
+      <c r="AA1121" t="s">
         <v>1943</v>
       </c>
       <c r="AD1121" t="s">
@@ -70520,7 +70500,7 @@
       <c r="X1122" t="s">
         <v>34</v>
       </c>
-      <c r="AA1122" s="32" t="s">
+      <c r="AA1122" t="s">
         <v>1950</v>
       </c>
       <c r="AD1122" t="s">
@@ -71039,7 +71019,7 @@
       <c r="J1131" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1131" s="32" t="s">
+      <c r="K1131" t="s">
         <v>2030</v>
       </c>
       <c r="L1131" t="s">
@@ -71098,7 +71078,7 @@
       <c r="J1132" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1132" s="32" t="s">
+      <c r="K1132" t="s">
         <v>1970</v>
       </c>
       <c r="L1132" t="s">
@@ -71122,7 +71102,7 @@
       <c r="X1132" t="s">
         <v>34</v>
       </c>
-      <c r="AA1132" s="32" t="s">
+      <c r="AA1132" t="s">
         <v>1802</v>
       </c>
       <c r="AC1132" t="s">
@@ -71166,7 +71146,7 @@
       <c r="J1133" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1133" s="32" t="s">
+      <c r="K1133" t="s">
         <v>574</v>
       </c>
       <c r="L1133" t="s">
@@ -71190,7 +71170,7 @@
       <c r="X1133" t="s">
         <v>34</v>
       </c>
-      <c r="AA1133" s="32" t="s">
+      <c r="AA1133" t="s">
         <v>1974</v>
       </c>
       <c r="AC1133" t="s">
@@ -71231,7 +71211,7 @@
       <c r="J1134" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1134" s="32" t="s">
+      <c r="K1134" t="s">
         <v>574</v>
       </c>
       <c r="L1134" t="s">
@@ -71255,7 +71235,7 @@
       <c r="X1134" t="s">
         <v>34</v>
       </c>
-      <c r="AA1134" s="32" t="s">
+      <c r="AA1134" t="s">
         <v>1974</v>
       </c>
       <c r="AC1134" t="s">
@@ -71296,7 +71276,7 @@
       <c r="J1135" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1135" s="32" t="s">
+      <c r="K1135" t="s">
         <v>103</v>
       </c>
       <c r="L1135" t="s">
@@ -71320,7 +71300,7 @@
       <c r="X1135" t="s">
         <v>34</v>
       </c>
-      <c r="AA1135" s="32" t="s">
+      <c r="AA1135" t="s">
         <v>1978</v>
       </c>
       <c r="AC1135" t="s">
@@ -71355,7 +71335,7 @@
       <c r="J1136" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1136" s="32" t="s">
+      <c r="K1136" t="s">
         <v>103</v>
       </c>
       <c r="L1136" t="s">
@@ -71379,7 +71359,7 @@
       <c r="X1136" t="s">
         <v>34</v>
       </c>
-      <c r="AA1136" s="32" t="s">
+      <c r="AA1136" t="s">
         <v>1978</v>
       </c>
       <c r="AD1136" t="s">
@@ -71411,7 +71391,7 @@
       <c r="J1137" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1137" s="32" t="s">
+      <c r="K1137" t="s">
         <v>103</v>
       </c>
       <c r="L1137" t="s">
@@ -71435,7 +71415,7 @@
       <c r="X1137" t="s">
         <v>34</v>
       </c>
-      <c r="AA1137" s="32" t="s">
+      <c r="AA1137" t="s">
         <v>1978</v>
       </c>
       <c r="AD1137" t="s">
@@ -71473,7 +71453,7 @@
       <c r="J1138" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1138" s="32" t="s">
+      <c r="K1138" t="s">
         <v>1985</v>
       </c>
       <c r="L1138" t="s">
@@ -71497,7 +71477,7 @@
       <c r="X1138" t="s">
         <v>34</v>
       </c>
-      <c r="AA1138" s="32" t="s">
+      <c r="AA1138" t="s">
         <v>1982</v>
       </c>
       <c r="AD1138" t="s">
@@ -71532,7 +71512,7 @@
       <c r="J1139" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1139" s="32" t="s">
+      <c r="K1139" t="s">
         <v>116</v>
       </c>
       <c r="L1139" t="s">
@@ -71556,7 +71536,7 @@
       <c r="X1139" t="s">
         <v>34</v>
       </c>
-      <c r="AA1139" s="32" t="s">
+      <c r="AA1139" t="s">
         <v>1989</v>
       </c>
       <c r="AD1139" t="s">
@@ -71595,7 +71575,7 @@
       <c r="J1140" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1140" s="32" t="s">
+      <c r="K1140" t="s">
         <v>116</v>
       </c>
       <c r="L1140" t="s">
@@ -71654,7 +71634,7 @@
       <c r="J1141" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1141" s="32" t="s">
+      <c r="K1141" t="s">
         <v>116</v>
       </c>
       <c r="L1141" t="s">
@@ -71678,7 +71658,6 @@
       <c r="X1141" t="s">
         <v>34</v>
       </c>
-      <c r="AA1141" s="32"/>
       <c r="AD1141" t="s">
         <v>1991</v>
       </c>
@@ -71714,7 +71693,7 @@
       <c r="J1142" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1142" s="32" t="s">
+      <c r="K1142" t="s">
         <v>1813</v>
       </c>
       <c r="L1142" t="s">
@@ -71738,7 +71717,7 @@
       <c r="X1142" t="s">
         <v>34</v>
       </c>
-      <c r="AA1142" s="32" t="s">
+      <c r="AA1142" t="s">
         <v>1992</v>
       </c>
       <c r="AD1142" t="s">
@@ -71776,7 +71755,7 @@
       <c r="J1143" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1143" s="32" t="s">
+      <c r="K1143" t="s">
         <v>1814</v>
       </c>
       <c r="L1143" t="s">
@@ -71800,7 +71779,7 @@
       <c r="X1143" t="s">
         <v>34</v>
       </c>
-      <c r="AA1143" s="32" t="s">
+      <c r="AA1143" t="s">
         <v>1993</v>
       </c>
       <c r="AD1143" t="s">
@@ -71838,7 +71817,7 @@
       <c r="J1144" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1144" s="32" t="s">
+      <c r="K1144" t="s">
         <v>1815</v>
       </c>
       <c r="L1144" t="s">
@@ -71862,7 +71841,7 @@
       <c r="X1144" t="s">
         <v>34</v>
       </c>
-      <c r="AA1144" s="32" t="s">
+      <c r="AA1144" t="s">
         <v>2004</v>
       </c>
       <c r="AD1144" t="s">
@@ -71897,7 +71876,7 @@
       <c r="J1145" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1145" s="32" t="s">
+      <c r="K1145" t="s">
         <v>1815</v>
       </c>
       <c r="L1145" t="s">
@@ -71921,7 +71900,7 @@
       <c r="X1145" t="s">
         <v>34</v>
       </c>
-      <c r="AA1145" s="32" t="s">
+      <c r="AA1145" t="s">
         <v>2004</v>
       </c>
       <c r="AD1145" t="s">
@@ -71956,7 +71935,7 @@
       <c r="J1146" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1146" s="32" t="s">
+      <c r="K1146" t="s">
         <v>1815</v>
       </c>
       <c r="L1146" t="s">
@@ -71980,7 +71959,7 @@
       <c r="X1146" t="s">
         <v>34</v>
       </c>
-      <c r="AA1146" s="32" t="s">
+      <c r="AA1146" t="s">
         <v>2004</v>
       </c>
       <c r="AD1146" t="s">
@@ -72015,7 +71994,7 @@
       <c r="J1147" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1147" s="32" t="s">
+      <c r="K1147" t="s">
         <v>1815</v>
       </c>
       <c r="L1147" t="s">
@@ -72039,7 +72018,7 @@
       <c r="X1147" t="s">
         <v>34</v>
       </c>
-      <c r="AA1147" s="32" t="s">
+      <c r="AA1147" t="s">
         <v>2004</v>
       </c>
       <c r="AD1147" t="s">
@@ -72074,7 +72053,7 @@
       <c r="J1148" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1148" s="32" t="s">
+      <c r="K1148" t="s">
         <v>1815</v>
       </c>
       <c r="L1148" t="s">
@@ -72098,7 +72077,7 @@
       <c r="X1148" t="s">
         <v>34</v>
       </c>
-      <c r="AA1148" s="32" t="s">
+      <c r="AA1148" t="s">
         <v>2004</v>
       </c>
       <c r="AD1148" t="s">
@@ -72133,7 +72112,7 @@
       <c r="J1149" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1149" s="32" t="s">
+      <c r="K1149" t="s">
         <v>1815</v>
       </c>
       <c r="L1149" t="s">
@@ -72157,7 +72136,7 @@
       <c r="X1149" t="s">
         <v>34</v>
       </c>
-      <c r="AA1149" s="32" t="s">
+      <c r="AA1149" t="s">
         <v>2004</v>
       </c>
       <c r="AD1149" t="s">
@@ -72192,7 +72171,7 @@
       <c r="J1150" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1150" s="32" t="s">
+      <c r="K1150" t="s">
         <v>1815</v>
       </c>
       <c r="L1150" t="s">
@@ -72216,7 +72195,7 @@
       <c r="X1150" t="s">
         <v>34</v>
       </c>
-      <c r="AA1150" s="32" t="s">
+      <c r="AA1150" t="s">
         <v>2004</v>
       </c>
       <c r="AD1150" t="s">
@@ -72257,7 +72236,7 @@
       <c r="J1151" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1151" s="32" t="s">
+      <c r="K1151" t="s">
         <v>1815</v>
       </c>
       <c r="L1151" t="s">
@@ -72281,7 +72260,7 @@
       <c r="X1151" t="s">
         <v>34</v>
       </c>
-      <c r="AA1151" s="32" t="s">
+      <c r="AA1151" t="s">
         <v>2004</v>
       </c>
       <c r="AD1151" t="s">
@@ -72316,7 +72295,7 @@
       <c r="J1152" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1152" s="32" t="s">
+      <c r="K1152" t="s">
         <v>1815</v>
       </c>
       <c r="L1152" t="s">
@@ -72340,7 +72319,7 @@
       <c r="X1152" t="s">
         <v>34</v>
       </c>
-      <c r="AA1152" s="32" t="s">
+      <c r="AA1152" t="s">
         <v>2004</v>
       </c>
       <c r="AD1152" t="s">
@@ -72375,7 +72354,7 @@
       <c r="J1153" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1153" s="32" t="s">
+      <c r="K1153" t="s">
         <v>1815</v>
       </c>
       <c r="L1153" t="s">
@@ -72399,7 +72378,7 @@
       <c r="X1153" t="s">
         <v>34</v>
       </c>
-      <c r="AA1153" s="32" t="s">
+      <c r="AA1153" t="s">
         <v>2004</v>
       </c>
       <c r="AD1153" t="s">
@@ -72440,7 +72419,7 @@
       <c r="J1154" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1154" s="32" t="s">
+      <c r="K1154" t="s">
         <v>1815</v>
       </c>
       <c r="L1154" t="s">
@@ -72455,7 +72434,7 @@
       <c r="O1154" s="12" t="s">
         <v>2006</v>
       </c>
-      <c r="V1154" s="32" t="s">
+      <c r="V1154" t="s">
         <v>2003</v>
       </c>
       <c r="W1154" t="s">
@@ -72464,7 +72443,7 @@
       <c r="X1154" t="s">
         <v>34</v>
       </c>
-      <c r="AA1154" s="32" t="s">
+      <c r="AA1154" t="s">
         <v>2004</v>
       </c>
       <c r="AD1154" t="s">
@@ -72499,7 +72478,7 @@
       <c r="J1155" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1155" s="32" t="s">
+      <c r="K1155" t="s">
         <v>2011</v>
       </c>
       <c r="L1155" t="s">
@@ -72523,7 +72502,7 @@
       <c r="X1155" t="s">
         <v>34</v>
       </c>
-      <c r="AA1155" s="32" t="s">
+      <c r="AA1155" t="s">
         <v>2009</v>
       </c>
       <c r="AD1155" t="s">
@@ -72555,7 +72534,7 @@
       <c r="J1156" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1156" s="32" t="s">
+      <c r="K1156" t="s">
         <v>2011</v>
       </c>
       <c r="L1156" t="s">
@@ -72579,7 +72558,7 @@
       <c r="X1156" t="s">
         <v>34</v>
       </c>
-      <c r="AA1156" s="32" t="s">
+      <c r="AA1156" t="s">
         <v>2009</v>
       </c>
       <c r="AD1156" t="s">
@@ -72611,7 +72590,7 @@
       <c r="J1157" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1157" s="32" t="s">
+      <c r="K1157" t="s">
         <v>2011</v>
       </c>
       <c r="L1157" t="s">
@@ -72635,7 +72614,7 @@
       <c r="X1157" t="s">
         <v>34</v>
       </c>
-      <c r="AA1157" s="32" t="s">
+      <c r="AA1157" t="s">
         <v>2009</v>
       </c>
       <c r="AD1157" t="s">
@@ -72667,7 +72646,7 @@
       <c r="J1158" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1158" s="32" t="s">
+      <c r="K1158" t="s">
         <v>2011</v>
       </c>
       <c r="L1158" t="s">
@@ -72691,7 +72670,7 @@
       <c r="X1158" t="s">
         <v>34</v>
       </c>
-      <c r="AA1158" s="32" t="s">
+      <c r="AA1158" t="s">
         <v>2009</v>
       </c>
       <c r="AD1158" t="s">
@@ -72723,7 +72702,7 @@
       <c r="J1159" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1159" s="32" t="s">
+      <c r="K1159" t="s">
         <v>650</v>
       </c>
       <c r="L1159" t="s">
@@ -72747,7 +72726,7 @@
       <c r="X1159" t="s">
         <v>34</v>
       </c>
-      <c r="AA1159" s="32" t="s">
+      <c r="AA1159" t="s">
         <v>2009</v>
       </c>
       <c r="AD1159" t="s">
@@ -72801,7 +72780,7 @@
       <c r="X1160" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AA1160" s="32" t="s">
+      <c r="AA1160" t="s">
         <v>2021</v>
       </c>
       <c r="AD1160" t="s">
@@ -72839,7 +72818,7 @@
       <c r="J1161" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1161" s="32" t="s">
+      <c r="K1161" t="s">
         <v>2023</v>
       </c>
       <c r="L1161" t="s">
@@ -72863,7 +72842,7 @@
       <c r="X1161" t="s">
         <v>35</v>
       </c>
-      <c r="AA1161" s="32" t="s">
+      <c r="AA1161" t="s">
         <v>2021</v>
       </c>
       <c r="AD1161" t="s">
@@ -72898,7 +72877,7 @@
       <c r="J1162" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1162" s="32" t="s">
+      <c r="K1162" t="s">
         <v>2023</v>
       </c>
       <c r="L1162" t="s">
@@ -72922,7 +72901,7 @@
       <c r="X1162" t="s">
         <v>35</v>
       </c>
-      <c r="AA1162" s="32" t="s">
+      <c r="AA1162" t="s">
         <v>2021</v>
       </c>
       <c r="AD1162" t="s">
@@ -72957,7 +72936,7 @@
       <c r="J1163" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1163" s="32" t="s">
+      <c r="K1163" t="s">
         <v>2023</v>
       </c>
       <c r="L1163" t="s">
@@ -72981,7 +72960,7 @@
       <c r="X1163" t="s">
         <v>35</v>
       </c>
-      <c r="AA1163" s="32" t="s">
+      <c r="AA1163" t="s">
         <v>2021</v>
       </c>
       <c r="AD1163" t="s">
@@ -73016,7 +72995,7 @@
       <c r="J1164" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1164" s="32" t="s">
+      <c r="K1164" t="s">
         <v>2023</v>
       </c>
       <c r="L1164" t="s">
@@ -73040,7 +73019,7 @@
       <c r="X1164" t="s">
         <v>35</v>
       </c>
-      <c r="AA1164" s="32" t="s">
+      <c r="AA1164" t="s">
         <v>2021</v>
       </c>
       <c r="AD1164" t="s">
@@ -73075,7 +73054,7 @@
       <c r="J1165" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1165" s="32" t="s">
+      <c r="K1165" t="s">
         <v>2023</v>
       </c>
       <c r="L1165" t="s">
@@ -73099,7 +73078,7 @@
       <c r="X1165" t="s">
         <v>35</v>
       </c>
-      <c r="AA1165" s="32" t="s">
+      <c r="AA1165" t="s">
         <v>2021</v>
       </c>
       <c r="AD1165" t="s">
@@ -73134,7 +73113,7 @@
       <c r="J1166" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1166" s="32" t="s">
+      <c r="K1166" t="s">
         <v>2023</v>
       </c>
       <c r="L1166" t="s">
@@ -73158,7 +73137,7 @@
       <c r="X1166" t="s">
         <v>35</v>
       </c>
-      <c r="AA1166" s="32" t="s">
+      <c r="AA1166" t="s">
         <v>2021</v>
       </c>
       <c r="AD1166" t="s">
@@ -73193,7 +73172,7 @@
       <c r="J1167" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1167" s="32" t="s">
+      <c r="K1167" t="s">
         <v>2023</v>
       </c>
       <c r="L1167" t="s">
@@ -73217,7 +73196,7 @@
       <c r="X1167" t="s">
         <v>35</v>
       </c>
-      <c r="AA1167" s="32" t="s">
+      <c r="AA1167" t="s">
         <v>2021</v>
       </c>
       <c r="AD1167" t="s">
@@ -73286,7 +73265,7 @@
       <c r="X1168" t="s">
         <v>35</v>
       </c>
-      <c r="AA1168" s="32" t="s">
+      <c r="AA1168" t="s">
         <v>2021</v>
       </c>
       <c r="AD1168" t="s">
@@ -73346,7 +73325,7 @@
       <c r="X1169" t="s">
         <v>35</v>
       </c>
-      <c r="AA1169" s="32" t="s">
+      <c r="AA1169" t="s">
         <v>2021</v>
       </c>
       <c r="AD1169" t="s">
@@ -73406,7 +73385,7 @@
       <c r="X1170" t="s">
         <v>35</v>
       </c>
-      <c r="AA1170" s="32" t="s">
+      <c r="AA1170" t="s">
         <v>2021</v>
       </c>
       <c r="AD1170" t="s">
@@ -73466,7 +73445,7 @@
       <c r="X1171" t="s">
         <v>35</v>
       </c>
-      <c r="AA1171" s="32" t="s">
+      <c r="AA1171" t="s">
         <v>2021</v>
       </c>
       <c r="AD1171" t="s">
@@ -73526,7 +73505,7 @@
       <c r="X1172" t="s">
         <v>35</v>
       </c>
-      <c r="AA1172" s="32" t="s">
+      <c r="AA1172" t="s">
         <v>2021</v>
       </c>
       <c r="AD1172" t="s">
@@ -73586,7 +73565,7 @@
       <c r="X1173" t="s">
         <v>35</v>
       </c>
-      <c r="AA1173" s="32" t="s">
+      <c r="AA1173" t="s">
         <v>2021</v>
       </c>
       <c r="AD1173" t="s">
@@ -73646,7 +73625,7 @@
       <c r="X1174" t="s">
         <v>35</v>
       </c>
-      <c r="AA1174" s="32" t="s">
+      <c r="AA1174" t="s">
         <v>2021</v>
       </c>
       <c r="AD1174" t="s">
@@ -73684,7 +73663,7 @@
       <c r="J1175" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1175" s="32" t="s">
+      <c r="K1175" t="s">
         <v>557</v>
       </c>
       <c r="L1175" t="s">
@@ -73708,7 +73687,7 @@
       <c r="X1175" t="s">
         <v>34</v>
       </c>
-      <c r="AA1175" s="32" t="s">
+      <c r="AA1175" t="s">
         <v>2028</v>
       </c>
       <c r="AD1175" t="s">
@@ -73746,7 +73725,7 @@
       <c r="J1176" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1176" s="32" t="s">
+      <c r="K1176" t="s">
         <v>2030</v>
       </c>
       <c r="L1176" t="s">
@@ -73770,7 +73749,7 @@
       <c r="X1176" t="s">
         <v>34</v>
       </c>
-      <c r="AA1176" s="32" t="s">
+      <c r="AA1176" t="s">
         <v>2031</v>
       </c>
       <c r="AD1176" t="s">
@@ -73808,7 +73787,7 @@
       <c r="J1177" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1177" s="32" t="s">
+      <c r="K1177" t="s">
         <v>1970</v>
       </c>
       <c r="L1177" t="s">
@@ -73832,7 +73811,7 @@
       <c r="X1177" t="s">
         <v>34</v>
       </c>
-      <c r="AA1177" s="32" t="s">
+      <c r="AA1177" t="s">
         <v>2034</v>
       </c>
       <c r="AC1177" t="s">
@@ -73873,7 +73852,7 @@
       <c r="J1178" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1178" s="32" t="s">
+      <c r="K1178" t="s">
         <v>1852</v>
       </c>
       <c r="L1178" t="s">
@@ -73897,7 +73876,7 @@
       <c r="X1178" t="s">
         <v>34</v>
       </c>
-      <c r="AA1178" s="32" t="s">
+      <c r="AA1178" t="s">
         <v>2034</v>
       </c>
       <c r="AD1178" t="s">
@@ -73929,7 +73908,7 @@
       <c r="J1179" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1179" s="32" t="s">
+      <c r="K1179" t="s">
         <v>1852</v>
       </c>
       <c r="L1179" t="s">
@@ -73953,7 +73932,7 @@
       <c r="X1179" t="s">
         <v>34</v>
       </c>
-      <c r="AA1179" s="32" t="s">
+      <c r="AA1179" t="s">
         <v>2034</v>
       </c>
       <c r="AD1179" t="s">
@@ -73991,7 +73970,7 @@
       <c r="J1180" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1180" s="32" t="s">
+      <c r="K1180" t="s">
         <v>1853</v>
       </c>
       <c r="L1180" t="s">
@@ -74015,7 +73994,7 @@
       <c r="X1180" t="s">
         <v>34</v>
       </c>
-      <c r="AA1180" s="32" t="s">
+      <c r="AA1180" t="s">
         <v>2034</v>
       </c>
       <c r="AD1180" t="s">
@@ -74047,7 +74026,7 @@
       <c r="J1181" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1181" s="32" t="s">
+      <c r="K1181" t="s">
         <v>1853</v>
       </c>
       <c r="L1181" t="s">
@@ -74071,7 +74050,7 @@
       <c r="X1181" t="s">
         <v>34</v>
       </c>
-      <c r="AA1181" s="32" t="s">
+      <c r="AA1181" t="s">
         <v>2034</v>
       </c>
       <c r="AD1181" t="s">
@@ -74109,7 +74088,7 @@
       <c r="J1182" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1182" s="32" t="s">
+      <c r="K1182" t="s">
         <v>1854</v>
       </c>
       <c r="L1182" t="s">
@@ -74133,7 +74112,7 @@
       <c r="X1182" t="s">
         <v>34</v>
       </c>
-      <c r="AA1182" s="32" t="s">
+      <c r="AA1182" t="s">
         <v>2034</v>
       </c>
       <c r="AD1182" t="s">
@@ -74171,7 +74150,7 @@
       <c r="J1183" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1183" s="32" t="s">
+      <c r="K1183" t="s">
         <v>1855</v>
       </c>
       <c r="L1183" t="s">
@@ -74195,7 +74174,7 @@
       <c r="X1183" t="s">
         <v>34</v>
       </c>
-      <c r="AA1183" s="32" t="s">
+      <c r="AA1183" t="s">
         <v>2034</v>
       </c>
       <c r="AD1183" t="s">
@@ -74233,7 +74212,7 @@
       <c r="J1184" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1184" s="32" t="s">
+      <c r="K1184" t="s">
         <v>178</v>
       </c>
       <c r="L1184" t="s">
@@ -74257,7 +74236,7 @@
       <c r="X1184" t="s">
         <v>34</v>
       </c>
-      <c r="AA1184" s="32" t="s">
+      <c r="AA1184" t="s">
         <v>2053</v>
       </c>
       <c r="AC1184" t="s">
@@ -75382,11 +75361,10 @@
       <c r="J1204" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1204" s="32" t="s">
+      <c r="K1204" t="s">
         <v>2068</v>
       </c>
-      <c r="L1204" s="32"/>
-      <c r="M1204" s="32" t="s">
+      <c r="M1204" t="s">
         <v>96</v>
       </c>
       <c r="N1204" s="12" t="s">
@@ -75733,7 +75711,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -75962,10 +75940,6 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="33"/>
-      <c r="C22" s="32"/>
-    </row>
     <row r="23" spans="1:4">
       <c r="A23" s="29" t="s">
         <v>2173</v>
